--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/zorgwekkende_stof/zorgwekkende_stof.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/zorgwekkende_stof/zorgwekkende_stof.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,6 +418,12 @@
       <c r="E1" t="str">
         <v>prefLabel</v>
       </c>
+      <c r="F1" t="str">
+        <v>topConceptOf</v>
+      </c>
+      <c r="G1" t="str">
+        <v>hasTopConcept</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -435,6 +441,12 @@
       <c r="E2" t="str">
         <v>C&amp;L Harmonized classification</v>
       </c>
+      <c r="F2" t="str">
+        <v>null</v>
+      </c>
+      <c r="G2" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -452,6 +464,12 @@
       <c r="E3" t="str">
         <v>edlists.org List I</v>
       </c>
+      <c r="F3" t="str">
+        <v>null</v>
+      </c>
+      <c r="G3" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -469,6 +487,12 @@
       <c r="E4" t="str">
         <v>REACH SVHC Candidate list</v>
       </c>
+      <c r="F4" t="str">
+        <v>null</v>
+      </c>
+      <c r="G4" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -486,6 +510,12 @@
       <c r="E5" t="str">
         <v>UBA PMT</v>
       </c>
+      <c r="F5" t="str">
+        <v>null</v>
+      </c>
+      <c r="G5" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -495,12 +525,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C6" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D6" t="str">
         <v>null</v>
       </c>
       <c r="E6" t="str">
+        <v>null</v>
+      </c>
+      <c r="F6" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G6" t="str">
         <v>null</v>
       </c>
     </row>
@@ -512,12 +548,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C7" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D7" t="str">
         <v>null</v>
       </c>
       <c r="E7" t="str">
+        <v>null</v>
+      </c>
+      <c r="F7" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G7" t="str">
         <v>null</v>
       </c>
     </row>
@@ -529,12 +571,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C8" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D8" t="str">
         <v>null</v>
       </c>
       <c r="E8" t="str">
+        <v>null</v>
+      </c>
+      <c r="F8" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G8" t="str">
         <v>null</v>
       </c>
     </row>
@@ -546,12 +594,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C9" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D9" t="str">
         <v>null</v>
       </c>
       <c r="E9" t="str">
+        <v>null</v>
+      </c>
+      <c r="F9" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G9" t="str">
         <v>null</v>
       </c>
     </row>
@@ -563,12 +617,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C10" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D10" t="str">
         <v>null</v>
       </c>
       <c r="E10" t="str">
+        <v>null</v>
+      </c>
+      <c r="F10" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G10" t="str">
         <v>null</v>
       </c>
     </row>
@@ -580,12 +640,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C11" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D11" t="str">
         <v>null</v>
       </c>
       <c r="E11" t="str">
+        <v>null</v>
+      </c>
+      <c r="F11" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G11" t="str">
         <v>null</v>
       </c>
     </row>
@@ -597,12 +663,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C12" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D12" t="str">
         <v>null</v>
       </c>
       <c r="E12" t="str">
+        <v>null</v>
+      </c>
+      <c r="F12" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G12" t="str">
         <v>null</v>
       </c>
     </row>
@@ -614,12 +686,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C13" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D13" t="str">
         <v>null</v>
       </c>
       <c r="E13" t="str">
+        <v>null</v>
+      </c>
+      <c r="F13" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G13" t="str">
         <v>null</v>
       </c>
     </row>
@@ -631,12 +709,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C14" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D14" t="str">
         <v>null</v>
       </c>
       <c r="E14" t="str">
+        <v>null</v>
+      </c>
+      <c r="F14" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G14" t="str">
         <v>null</v>
       </c>
     </row>
@@ -648,12 +732,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C15" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D15" t="str">
         <v>null</v>
       </c>
       <c r="E15" t="str">
+        <v>null</v>
+      </c>
+      <c r="F15" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G15" t="str">
         <v>null</v>
       </c>
     </row>
@@ -665,12 +755,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C16" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D16" t="str">
         <v>null</v>
       </c>
       <c r="E16" t="str">
+        <v>null</v>
+      </c>
+      <c r="F16" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G16" t="str">
         <v>null</v>
       </c>
     </row>
@@ -682,12 +778,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C17" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D17" t="str">
         <v>null</v>
       </c>
       <c r="E17" t="str">
+        <v>null</v>
+      </c>
+      <c r="F17" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G17" t="str">
         <v>null</v>
       </c>
     </row>
@@ -699,12 +801,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C18" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D18" t="str">
         <v>null</v>
       </c>
       <c r="E18" t="str">
+        <v>null</v>
+      </c>
+      <c r="F18" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G18" t="str">
         <v>null</v>
       </c>
     </row>
@@ -716,12 +824,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C19" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D19" t="str">
         <v>null</v>
       </c>
       <c r="E19" t="str">
+        <v>null</v>
+      </c>
+      <c r="F19" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G19" t="str">
         <v>null</v>
       </c>
     </row>
@@ -733,12 +847,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C20" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D20" t="str">
         <v>null</v>
       </c>
       <c r="E20" t="str">
+        <v>null</v>
+      </c>
+      <c r="F20" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G20" t="str">
         <v>null</v>
       </c>
     </row>
@@ -750,12 +870,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C21" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D21" t="str">
         <v>null</v>
       </c>
       <c r="E21" t="str">
+        <v>null</v>
+      </c>
+      <c r="F21" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G21" t="str">
         <v>null</v>
       </c>
     </row>
@@ -767,12 +893,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C22" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D22" t="str">
         <v>null</v>
       </c>
       <c r="E22" t="str">
+        <v>null</v>
+      </c>
+      <c r="F22" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G22" t="str">
         <v>null</v>
       </c>
     </row>
@@ -784,12 +916,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C23" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D23" t="str">
         <v>null</v>
       </c>
       <c r="E23" t="str">
+        <v>null</v>
+      </c>
+      <c r="F23" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G23" t="str">
         <v>null</v>
       </c>
     </row>
@@ -801,12 +939,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C24" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D24" t="str">
         <v>null</v>
       </c>
       <c r="E24" t="str">
+        <v>null</v>
+      </c>
+      <c r="F24" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G24" t="str">
         <v>null</v>
       </c>
     </row>
@@ -818,12 +962,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C25" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D25" t="str">
         <v>null</v>
       </c>
       <c r="E25" t="str">
+        <v>null</v>
+      </c>
+      <c r="F25" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G25" t="str">
         <v>null</v>
       </c>
     </row>
@@ -835,12 +985,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C26" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D26" t="str">
         <v>null</v>
       </c>
       <c r="E26" t="str">
+        <v>null</v>
+      </c>
+      <c r="F26" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G26" t="str">
         <v>null</v>
       </c>
     </row>
@@ -852,12 +1008,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C27" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D27" t="str">
         <v>null</v>
       </c>
       <c r="E27" t="str">
+        <v>null</v>
+      </c>
+      <c r="F27" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G27" t="str">
         <v>null</v>
       </c>
     </row>
@@ -869,12 +1031,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C28" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D28" t="str">
         <v>null</v>
       </c>
       <c r="E28" t="str">
+        <v>null</v>
+      </c>
+      <c r="F28" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G28" t="str">
         <v>null</v>
       </c>
     </row>
@@ -886,12 +1054,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C29" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D29" t="str">
         <v>null</v>
       </c>
       <c r="E29" t="str">
+        <v>null</v>
+      </c>
+      <c r="F29" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G29" t="str">
         <v>null</v>
       </c>
     </row>
@@ -903,12 +1077,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C30" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D30" t="str">
         <v>null</v>
       </c>
       <c r="E30" t="str">
+        <v>null</v>
+      </c>
+      <c r="F30" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G30" t="str">
         <v>null</v>
       </c>
     </row>
@@ -920,12 +1100,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D31" t="str">
         <v>null</v>
       </c>
       <c r="E31" t="str">
+        <v>null</v>
+      </c>
+      <c r="F31" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G31" t="str">
         <v>null</v>
       </c>
     </row>
@@ -937,12 +1123,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C32" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D32" t="str">
         <v>null</v>
       </c>
       <c r="E32" t="str">
+        <v>null</v>
+      </c>
+      <c r="F32" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G32" t="str">
         <v>null</v>
       </c>
     </row>
@@ -954,12 +1146,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D33" t="str">
         <v>null</v>
       </c>
       <c r="E33" t="str">
+        <v>null</v>
+      </c>
+      <c r="F33" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G33" t="str">
         <v>null</v>
       </c>
     </row>
@@ -971,12 +1169,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C34" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D34" t="str">
         <v>null</v>
       </c>
       <c r="E34" t="str">
+        <v>null</v>
+      </c>
+      <c r="F34" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G34" t="str">
         <v>null</v>
       </c>
     </row>
@@ -988,12 +1192,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D35" t="str">
         <v>null</v>
       </c>
       <c r="E35" t="str">
+        <v>null</v>
+      </c>
+      <c r="F35" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G35" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1005,12 +1215,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D36" t="str">
         <v>null</v>
       </c>
       <c r="E36" t="str">
+        <v>null</v>
+      </c>
+      <c r="F36" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G36" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1022,12 +1238,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D37" t="str">
         <v>null</v>
       </c>
       <c r="E37" t="str">
+        <v>null</v>
+      </c>
+      <c r="F37" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G37" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1039,12 +1261,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D38" t="str">
         <v>null</v>
       </c>
       <c r="E38" t="str">
+        <v>null</v>
+      </c>
+      <c r="F38" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G38" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1056,12 +1284,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C39" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D39" t="str">
         <v>null</v>
       </c>
       <c r="E39" t="str">
+        <v>null</v>
+      </c>
+      <c r="F39" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G39" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1073,12 +1307,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D40" t="str">
         <v>null</v>
       </c>
       <c r="E40" t="str">
+        <v>null</v>
+      </c>
+      <c r="F40" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G40" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1090,12 +1330,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C41" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D41" t="str">
         <v>null</v>
       </c>
       <c r="E41" t="str">
+        <v>null</v>
+      </c>
+      <c r="F41" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G41" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1107,12 +1353,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C42" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D42" t="str">
         <v>null</v>
       </c>
       <c r="E42" t="str">
+        <v>null</v>
+      </c>
+      <c r="F42" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G42" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1124,12 +1376,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C43" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D43" t="str">
         <v>null</v>
       </c>
       <c r="E43" t="str">
+        <v>null</v>
+      </c>
+      <c r="F43" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G43" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1141,12 +1399,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C44" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D44" t="str">
         <v>null</v>
       </c>
       <c r="E44" t="str">
+        <v>null</v>
+      </c>
+      <c r="F44" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G44" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1158,12 +1422,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C45" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D45" t="str">
         <v>null</v>
       </c>
       <c r="E45" t="str">
+        <v>null</v>
+      </c>
+      <c r="F45" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G45" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1175,12 +1445,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C46" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D46" t="str">
         <v>null</v>
       </c>
       <c r="E46" t="str">
+        <v>null</v>
+      </c>
+      <c r="F46" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G46" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1192,12 +1468,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C47" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D47" t="str">
         <v>null</v>
       </c>
       <c r="E47" t="str">
+        <v>null</v>
+      </c>
+      <c r="F47" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G47" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1209,12 +1491,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C48" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D48" t="str">
         <v>null</v>
       </c>
       <c r="E48" t="str">
+        <v>null</v>
+      </c>
+      <c r="F48" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G48" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1226,12 +1514,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C49" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D49" t="str">
         <v>null</v>
       </c>
       <c r="E49" t="str">
+        <v>null</v>
+      </c>
+      <c r="F49" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G49" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1243,12 +1537,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C50" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D50" t="str">
         <v>null</v>
       </c>
       <c r="E50" t="str">
+        <v>null</v>
+      </c>
+      <c r="F50" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G50" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1260,12 +1560,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C51" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D51" t="str">
         <v>null</v>
       </c>
       <c r="E51" t="str">
+        <v>null</v>
+      </c>
+      <c r="F51" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G51" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1277,12 +1583,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C52" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D52" t="str">
         <v>null</v>
       </c>
       <c r="E52" t="str">
+        <v>null</v>
+      </c>
+      <c r="F52" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G52" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1294,12 +1606,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C53" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D53" t="str">
         <v>null</v>
       </c>
       <c r="E53" t="str">
+        <v>null</v>
+      </c>
+      <c r="F53" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G53" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1311,12 +1629,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C54" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D54" t="str">
         <v>null</v>
       </c>
       <c r="E54" t="str">
+        <v>null</v>
+      </c>
+      <c r="F54" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G54" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1328,12 +1652,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C55" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D55" t="str">
         <v>null</v>
       </c>
       <c r="E55" t="str">
+        <v>null</v>
+      </c>
+      <c r="F55" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G55" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1345,12 +1675,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C56" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D56" t="str">
         <v>null</v>
       </c>
       <c r="E56" t="str">
+        <v>null</v>
+      </c>
+      <c r="F56" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G56" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1362,12 +1698,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C57" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D57" t="str">
         <v>null</v>
       </c>
       <c r="E57" t="str">
+        <v>null</v>
+      </c>
+      <c r="F57" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G57" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1379,12 +1721,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C58" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D58" t="str">
         <v>null</v>
       </c>
       <c r="E58" t="str">
+        <v>null</v>
+      </c>
+      <c r="F58" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G58" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1396,12 +1744,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C59" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D59" t="str">
         <v>null</v>
       </c>
       <c r="E59" t="str">
+        <v>null</v>
+      </c>
+      <c r="F59" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G59" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1413,12 +1767,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C60" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D60" t="str">
         <v>null</v>
       </c>
       <c r="E60" t="str">
+        <v>null</v>
+      </c>
+      <c r="F60" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G60" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1430,12 +1790,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C61" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D61" t="str">
         <v>null</v>
       </c>
       <c r="E61" t="str">
+        <v>null</v>
+      </c>
+      <c r="F61" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G61" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1447,12 +1813,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C62" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D62" t="str">
         <v>null</v>
       </c>
       <c r="E62" t="str">
+        <v>null</v>
+      </c>
+      <c r="F62" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G62" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1464,12 +1836,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C63" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D63" t="str">
         <v>null</v>
       </c>
       <c r="E63" t="str">
+        <v>null</v>
+      </c>
+      <c r="F63" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G63" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1481,12 +1859,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C64" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D64" t="str">
         <v>null</v>
       </c>
       <c r="E64" t="str">
+        <v>null</v>
+      </c>
+      <c r="F64" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G64" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1498,12 +1882,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C65" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D65" t="str">
         <v>null</v>
       </c>
       <c r="E65" t="str">
+        <v>null</v>
+      </c>
+      <c r="F65" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G65" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1515,12 +1905,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C66" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D66" t="str">
         <v>null</v>
       </c>
       <c r="E66" t="str">
+        <v>null</v>
+      </c>
+      <c r="F66" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G66" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1532,12 +1928,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C67" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D67" t="str">
         <v>null</v>
       </c>
       <c r="E67" t="str">
+        <v>null</v>
+      </c>
+      <c r="F67" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G67" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1549,12 +1951,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C68" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D68" t="str">
         <v>null</v>
       </c>
       <c r="E68" t="str">
+        <v>null</v>
+      </c>
+      <c r="F68" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G68" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1566,12 +1974,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C69" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D69" t="str">
         <v>null</v>
       </c>
       <c r="E69" t="str">
+        <v>null</v>
+      </c>
+      <c r="F69" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G69" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1583,12 +1997,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C70" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D70" t="str">
         <v>null</v>
       </c>
       <c r="E70" t="str">
+        <v>null</v>
+      </c>
+      <c r="F70" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G70" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1600,12 +2020,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C71" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D71" t="str">
         <v>null</v>
       </c>
       <c r="E71" t="str">
+        <v>null</v>
+      </c>
+      <c r="F71" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G71" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1617,12 +2043,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C72" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D72" t="str">
         <v>null</v>
       </c>
       <c r="E72" t="str">
+        <v>null</v>
+      </c>
+      <c r="F72" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G72" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1634,12 +2066,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C73" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D73" t="str">
         <v>null</v>
       </c>
       <c r="E73" t="str">
+        <v>null</v>
+      </c>
+      <c r="F73" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G73" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1651,12 +2089,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C74" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D74" t="str">
         <v>null</v>
       </c>
       <c r="E74" t="str">
+        <v>null</v>
+      </c>
+      <c r="F74" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G74" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1668,12 +2112,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C75" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D75" t="str">
         <v>null</v>
       </c>
       <c r="E75" t="str">
+        <v>null</v>
+      </c>
+      <c r="F75" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G75" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1685,12 +2135,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C76" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D76" t="str">
         <v>null</v>
       </c>
       <c r="E76" t="str">
+        <v>null</v>
+      </c>
+      <c r="F76" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G76" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1702,12 +2158,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C77" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D77" t="str">
         <v>null</v>
       </c>
       <c r="E77" t="str">
+        <v>null</v>
+      </c>
+      <c r="F77" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G77" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1719,12 +2181,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C78" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D78" t="str">
         <v>null</v>
       </c>
       <c r="E78" t="str">
+        <v>null</v>
+      </c>
+      <c r="F78" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G78" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1736,12 +2204,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C79" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D79" t="str">
         <v>null</v>
       </c>
       <c r="E79" t="str">
+        <v>null</v>
+      </c>
+      <c r="F79" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G79" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1753,12 +2227,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C80" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D80" t="str">
         <v>null</v>
       </c>
       <c r="E80" t="str">
+        <v>null</v>
+      </c>
+      <c r="F80" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G80" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1770,12 +2250,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C81" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D81" t="str">
         <v>null</v>
       </c>
       <c r="E81" t="str">
+        <v>null</v>
+      </c>
+      <c r="F81" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G81" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1787,12 +2273,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C82" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D82" t="str">
         <v>null</v>
       </c>
       <c r="E82" t="str">
+        <v>null</v>
+      </c>
+      <c r="F82" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G82" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1804,12 +2296,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C83" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D83" t="str">
         <v>null</v>
       </c>
       <c r="E83" t="str">
+        <v>null</v>
+      </c>
+      <c r="F83" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G83" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1821,12 +2319,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C84" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D84" t="str">
         <v>null</v>
       </c>
       <c r="E84" t="str">
+        <v>null</v>
+      </c>
+      <c r="F84" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G84" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1838,12 +2342,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C85" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D85" t="str">
         <v>null</v>
       </c>
       <c r="E85" t="str">
+        <v>null</v>
+      </c>
+      <c r="F85" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G85" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1855,12 +2365,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C86" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D86" t="str">
         <v>null</v>
       </c>
       <c r="E86" t="str">
+        <v>null</v>
+      </c>
+      <c r="F86" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G86" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1872,12 +2388,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C87" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D87" t="str">
         <v>null</v>
       </c>
       <c r="E87" t="str">
+        <v>null</v>
+      </c>
+      <c r="F87" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G87" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1889,12 +2411,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C88" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D88" t="str">
         <v>null</v>
       </c>
       <c r="E88" t="str">
+        <v>null</v>
+      </c>
+      <c r="F88" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G88" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1906,12 +2434,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C89" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D89" t="str">
         <v>null</v>
       </c>
       <c r="E89" t="str">
+        <v>null</v>
+      </c>
+      <c r="F89" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G89" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1923,12 +2457,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C90" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D90" t="str">
         <v>null</v>
       </c>
       <c r="E90" t="str">
+        <v>null</v>
+      </c>
+      <c r="F90" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G90" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1940,12 +2480,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C91" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D91" t="str">
         <v>null</v>
       </c>
       <c r="E91" t="str">
+        <v>null</v>
+      </c>
+      <c r="F91" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G91" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1957,12 +2503,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C92" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D92" t="str">
         <v>null</v>
       </c>
       <c r="E92" t="str">
+        <v>null</v>
+      </c>
+      <c r="F92" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G92" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1974,12 +2526,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C93" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D93" t="str">
         <v>null</v>
       </c>
       <c r="E93" t="str">
+        <v>null</v>
+      </c>
+      <c r="F93" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G93" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1991,12 +2549,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C94" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D94" t="str">
         <v>null</v>
       </c>
       <c r="E94" t="str">
+        <v>null</v>
+      </c>
+      <c r="F94" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G94" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2008,12 +2572,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C95" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D95" t="str">
         <v>null</v>
       </c>
       <c r="E95" t="str">
+        <v>null</v>
+      </c>
+      <c r="F95" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G95" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2025,12 +2595,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C96" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D96" t="str">
         <v>null</v>
       </c>
       <c r="E96" t="str">
+        <v>null</v>
+      </c>
+      <c r="F96" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G96" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2042,12 +2618,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C97" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D97" t="str">
         <v>null</v>
       </c>
       <c r="E97" t="str">
+        <v>null</v>
+      </c>
+      <c r="F97" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G97" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2059,12 +2641,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C98" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D98" t="str">
         <v>null</v>
       </c>
       <c r="E98" t="str">
+        <v>null</v>
+      </c>
+      <c r="F98" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G98" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2076,12 +2664,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C99" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D99" t="str">
         <v>null</v>
       </c>
       <c r="E99" t="str">
+        <v>null</v>
+      </c>
+      <c r="F99" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G99" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2093,12 +2687,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C100" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D100" t="str">
         <v>null</v>
       </c>
       <c r="E100" t="str">
+        <v>null</v>
+      </c>
+      <c r="F100" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G100" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2110,12 +2710,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C101" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D101" t="str">
         <v>null</v>
       </c>
       <c r="E101" t="str">
+        <v>null</v>
+      </c>
+      <c r="F101" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G101" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2127,12 +2733,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C102" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D102" t="str">
         <v>null</v>
       </c>
       <c r="E102" t="str">
+        <v>null</v>
+      </c>
+      <c r="F102" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G102" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2144,12 +2756,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C103" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D103" t="str">
         <v>null</v>
       </c>
       <c r="E103" t="str">
+        <v>null</v>
+      </c>
+      <c r="F103" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G103" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2161,12 +2779,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C104" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D104" t="str">
         <v>null</v>
       </c>
       <c r="E104" t="str">
+        <v>null</v>
+      </c>
+      <c r="F104" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G104" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2178,12 +2802,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C105" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D105" t="str">
         <v>null</v>
       </c>
       <c r="E105" t="str">
+        <v>null</v>
+      </c>
+      <c r="F105" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G105" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2195,12 +2825,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C106" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D106" t="str">
         <v>null</v>
       </c>
       <c r="E106" t="str">
+        <v>null</v>
+      </c>
+      <c r="F106" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G106" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2212,12 +2848,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C107" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D107" t="str">
         <v>null</v>
       </c>
       <c r="E107" t="str">
+        <v>null</v>
+      </c>
+      <c r="F107" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G107" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2229,12 +2871,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C108" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D108" t="str">
         <v>null</v>
       </c>
       <c r="E108" t="str">
+        <v>null</v>
+      </c>
+      <c r="F108" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G108" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2246,12 +2894,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C109" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D109" t="str">
         <v>null</v>
       </c>
       <c r="E109" t="str">
+        <v>null</v>
+      </c>
+      <c r="F109" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G109" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2263,12 +2917,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C110" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D110" t="str">
         <v>null</v>
       </c>
       <c r="E110" t="str">
+        <v>null</v>
+      </c>
+      <c r="F110" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G110" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2280,12 +2940,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C111" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D111" t="str">
         <v>null</v>
       </c>
       <c r="E111" t="str">
+        <v>null</v>
+      </c>
+      <c r="F111" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G111" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2297,12 +2963,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C112" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D112" t="str">
         <v>null</v>
       </c>
       <c r="E112" t="str">
+        <v>null</v>
+      </c>
+      <c r="F112" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G112" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2314,12 +2986,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C113" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D113" t="str">
         <v>null</v>
       </c>
       <c r="E113" t="str">
+        <v>null</v>
+      </c>
+      <c r="F113" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G113" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2331,12 +3009,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C114" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D114" t="str">
         <v>null</v>
       </c>
       <c r="E114" t="str">
+        <v>null</v>
+      </c>
+      <c r="F114" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G114" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2348,12 +3032,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C115" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D115" t="str">
         <v>null</v>
       </c>
       <c r="E115" t="str">
+        <v>null</v>
+      </c>
+      <c r="F115" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G115" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2365,12 +3055,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C116" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D116" t="str">
         <v>null</v>
       </c>
       <c r="E116" t="str">
+        <v>null</v>
+      </c>
+      <c r="F116" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G116" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2382,12 +3078,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C117" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D117" t="str">
         <v>null</v>
       </c>
       <c r="E117" t="str">
+        <v>null</v>
+      </c>
+      <c r="F117" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G117" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2399,12 +3101,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C118" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D118" t="str">
         <v>null</v>
       </c>
       <c r="E118" t="str">
+        <v>null</v>
+      </c>
+      <c r="F118" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G118" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2416,12 +3124,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C119" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D119" t="str">
         <v>null</v>
       </c>
       <c r="E119" t="str">
+        <v>null</v>
+      </c>
+      <c r="F119" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G119" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2433,12 +3147,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C120" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D120" t="str">
         <v>null</v>
       </c>
       <c r="E120" t="str">
+        <v>null</v>
+      </c>
+      <c r="F120" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G120" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2450,12 +3170,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C121" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D121" t="str">
         <v>null</v>
       </c>
       <c r="E121" t="str">
+        <v>null</v>
+      </c>
+      <c r="F121" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G121" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2467,12 +3193,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C122" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D122" t="str">
         <v>null</v>
       </c>
       <c r="E122" t="str">
+        <v>null</v>
+      </c>
+      <c r="F122" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G122" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2484,12 +3216,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C123" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D123" t="str">
         <v>null</v>
       </c>
       <c r="E123" t="str">
+        <v>null</v>
+      </c>
+      <c r="F123" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G123" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2501,12 +3239,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C124" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D124" t="str">
         <v>null</v>
       </c>
       <c r="E124" t="str">
+        <v>null</v>
+      </c>
+      <c r="F124" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G124" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2518,12 +3262,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C125" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D125" t="str">
         <v>null</v>
       </c>
       <c r="E125" t="str">
+        <v>null</v>
+      </c>
+      <c r="F125" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G125" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2535,12 +3285,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C126" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D126" t="str">
         <v>null</v>
       </c>
       <c r="E126" t="str">
+        <v>null</v>
+      </c>
+      <c r="F126" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G126" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2552,12 +3308,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C127" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D127" t="str">
         <v>null</v>
       </c>
       <c r="E127" t="str">
+        <v>null</v>
+      </c>
+      <c r="F127" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G127" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2569,12 +3331,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C128" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D128" t="str">
         <v>null</v>
       </c>
       <c r="E128" t="str">
+        <v>null</v>
+      </c>
+      <c r="F128" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G128" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2586,12 +3354,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C129" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D129" t="str">
         <v>null</v>
       </c>
       <c r="E129" t="str">
+        <v>null</v>
+      </c>
+      <c r="F129" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G129" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2603,12 +3377,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C130" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D130" t="str">
         <v>null</v>
       </c>
       <c r="E130" t="str">
+        <v>null</v>
+      </c>
+      <c r="F130" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G130" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2620,12 +3400,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C131" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D131" t="str">
         <v>null</v>
       </c>
       <c r="E131" t="str">
+        <v>null</v>
+      </c>
+      <c r="F131" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G131" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2637,12 +3423,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C132" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D132" t="str">
         <v>null</v>
       </c>
       <c r="E132" t="str">
+        <v>null</v>
+      </c>
+      <c r="F132" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G132" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2654,12 +3446,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C133" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D133" t="str">
         <v>null</v>
       </c>
       <c r="E133" t="str">
+        <v>null</v>
+      </c>
+      <c r="F133" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G133" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2671,12 +3469,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C134" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D134" t="str">
         <v>null</v>
       </c>
       <c r="E134" t="str">
+        <v>null</v>
+      </c>
+      <c r="F134" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G134" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2688,12 +3492,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C135" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D135" t="str">
         <v>null</v>
       </c>
       <c r="E135" t="str">
+        <v>null</v>
+      </c>
+      <c r="F135" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G135" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2705,12 +3515,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C136" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D136" t="str">
         <v>null</v>
       </c>
       <c r="E136" t="str">
+        <v>null</v>
+      </c>
+      <c r="F136" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G136" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2722,12 +3538,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C137" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D137" t="str">
         <v>null</v>
       </c>
       <c r="E137" t="str">
+        <v>null</v>
+      </c>
+      <c r="F137" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G137" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2739,12 +3561,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C138" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D138" t="str">
         <v>null</v>
       </c>
       <c r="E138" t="str">
+        <v>null</v>
+      </c>
+      <c r="F138" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G138" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2756,12 +3584,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C139" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D139" t="str">
         <v>null</v>
       </c>
       <c r="E139" t="str">
+        <v>null</v>
+      </c>
+      <c r="F139" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G139" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2773,12 +3607,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C140" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D140" t="str">
         <v>null</v>
       </c>
       <c r="E140" t="str">
+        <v>null</v>
+      </c>
+      <c r="F140" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G140" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2790,12 +3630,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C141" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D141" t="str">
         <v>null</v>
       </c>
       <c r="E141" t="str">
+        <v>null</v>
+      </c>
+      <c r="F141" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G141" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2807,12 +3653,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C142" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D142" t="str">
         <v>null</v>
       </c>
       <c r="E142" t="str">
+        <v>null</v>
+      </c>
+      <c r="F142" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G142" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2824,12 +3676,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C143" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D143" t="str">
         <v>null</v>
       </c>
       <c r="E143" t="str">
+        <v>null</v>
+      </c>
+      <c r="F143" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G143" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2841,12 +3699,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C144" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D144" t="str">
         <v>null</v>
       </c>
       <c r="E144" t="str">
+        <v>null</v>
+      </c>
+      <c r="F144" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G144" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2858,12 +3722,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C145" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D145" t="str">
         <v>null</v>
       </c>
       <c r="E145" t="str">
+        <v>null</v>
+      </c>
+      <c r="F145" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G145" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2875,12 +3745,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C146" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D146" t="str">
         <v>null</v>
       </c>
       <c r="E146" t="str">
+        <v>null</v>
+      </c>
+      <c r="F146" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G146" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2892,12 +3768,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C147" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D147" t="str">
         <v>null</v>
       </c>
       <c r="E147" t="str">
+        <v>null</v>
+      </c>
+      <c r="F147" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G147" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2909,12 +3791,18 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C148" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D148" t="str">
         <v>null</v>
       </c>
       <c r="E148" t="str">
+        <v>null</v>
+      </c>
+      <c r="F148" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="G148" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2934,10 +3822,16 @@
       <c r="E149" t="str">
         <v>Codelijst zorgwekkende stoffen</v>
       </c>
+      <c r="F149" t="str">
+        <v>null</v>
+      </c>
+      <c r="G149" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E149"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G149"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/zorgwekkende_stof/zorgwekkende_stof.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/zorgwekkende_stof/zorgwekkende_stof.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G149"/>
+  <dimension ref="A1:L157"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -419,9 +419,24 @@
         <v>prefLabel</v>
       </c>
       <c r="F1" t="str">
+        <v>broader</v>
+      </c>
+      <c r="G1" t="str">
+        <v>broaderTransitive</v>
+      </c>
+      <c r="H1" t="str">
+        <v>semanticRelation</v>
+      </c>
+      <c r="I1" t="str">
+        <v>narrower</v>
+      </c>
+      <c r="J1" t="str">
+        <v>narrowerTransitive</v>
+      </c>
+      <c r="K1" t="str">
         <v>topConceptOf</v>
       </c>
-      <c r="G1" t="str">
+      <c r="L1" t="str">
         <v>hasTopConcept</v>
       </c>
     </row>
@@ -447,6 +462,21 @@
       <c r="G2" t="str">
         <v>null</v>
       </c>
+      <c r="H2" t="str">
+        <v>null</v>
+      </c>
+      <c r="I2" t="str">
+        <v>null</v>
+      </c>
+      <c r="J2" t="str">
+        <v>null</v>
+      </c>
+      <c r="K2" t="str">
+        <v>null</v>
+      </c>
+      <c r="L2" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -470,10 +500,25 @@
       <c r="G3" t="str">
         <v>null</v>
       </c>
+      <c r="H3" t="str">
+        <v>null</v>
+      </c>
+      <c r="I3" t="str">
+        <v>null</v>
+      </c>
+      <c r="J3" t="str">
+        <v>null</v>
+      </c>
+      <c r="K3" t="str">
+        <v>null</v>
+      </c>
+      <c r="L3" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/collection/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/collection/zorgwekkende_stof/eigen</v>
       </c>
       <c r="B4" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Collection</v>
@@ -482,21 +527,36 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
       </c>
       <c r="E4" t="str">
-        <v>REACH SVHC Candidate list</v>
+        <v>eigen</v>
       </c>
       <c r="F4" t="str">
         <v>null</v>
       </c>
       <c r="G4" t="str">
+        <v>null</v>
+      </c>
+      <c r="H4" t="str">
+        <v>null</v>
+      </c>
+      <c r="I4" t="str">
+        <v>null</v>
+      </c>
+      <c r="J4" t="str">
+        <v>null</v>
+      </c>
+      <c r="K4" t="str">
+        <v>null</v>
+      </c>
+      <c r="L4" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/collection/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/collection/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="B5" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Collection</v>
@@ -505,44 +565,74 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
       </c>
       <c r="E5" t="str">
-        <v>UBA PMT</v>
+        <v>REACH SVHC Candidate list</v>
       </c>
       <c r="F5" t="str">
         <v>null</v>
       </c>
       <c r="G5" t="str">
+        <v>null</v>
+      </c>
+      <c r="H5" t="str">
+        <v>null</v>
+      </c>
+      <c r="I5" t="str">
+        <v>null</v>
+      </c>
+      <c r="J5" t="str">
+        <v>null</v>
+      </c>
+      <c r="K5" t="str">
+        <v>null</v>
+      </c>
+      <c r="L5" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/collection/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="B6" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Collection</v>
       </c>
       <c r="C6" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D6" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
       </c>
       <c r="E6" t="str">
-        <v>null</v>
+        <v>UBA PMT</v>
       </c>
       <c r="F6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>null</v>
       </c>
       <c r="G6" t="str">
+        <v>null</v>
+      </c>
+      <c r="H6" t="str">
+        <v>null</v>
+      </c>
+      <c r="I6" t="str">
+        <v>null</v>
+      </c>
+      <c r="J6" t="str">
+        <v>null</v>
+      </c>
+      <c r="K6" t="str">
+        <v>null</v>
+      </c>
+      <c r="L6" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N</v>
       </c>
       <c r="B7" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -557,15 +647,30 @@
         <v>null</v>
       </c>
       <c r="F7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G7" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="H7" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="I7" t="str">
+        <v>null</v>
+      </c>
+      <c r="J7" t="str">
+        <v>null</v>
+      </c>
+      <c r="K7" t="str">
+        <v>null</v>
+      </c>
+      <c r="L7" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N</v>
       </c>
       <c r="B8" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -580,15 +685,30 @@
         <v>null</v>
       </c>
       <c r="F8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G8" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H8" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I8" t="str">
+        <v>null</v>
+      </c>
+      <c r="J8" t="str">
+        <v>null</v>
+      </c>
+      <c r="K8" t="str">
+        <v>null</v>
+      </c>
+      <c r="L8" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B9" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -603,15 +723,30 @@
         <v>null</v>
       </c>
       <c r="F9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G9" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="H9" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="I9" t="str">
+        <v>null</v>
+      </c>
+      <c r="J9" t="str">
+        <v>null</v>
+      </c>
+      <c r="K9" t="str">
+        <v>null</v>
+      </c>
+      <c r="L9" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N</v>
       </c>
       <c r="B10" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -626,15 +761,30 @@
         <v>null</v>
       </c>
       <c r="F10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G10" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H10" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I10" t="str">
+        <v>null</v>
+      </c>
+      <c r="J10" t="str">
+        <v>null</v>
+      </c>
+      <c r="K10" t="str">
+        <v>null</v>
+      </c>
+      <c r="L10" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N</v>
       </c>
       <c r="B11" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -649,15 +799,30 @@
         <v>null</v>
       </c>
       <c r="F11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G11" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="H11" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="I11" t="str">
+        <v>null</v>
+      </c>
+      <c r="J11" t="str">
+        <v>null</v>
+      </c>
+      <c r="K11" t="str">
+        <v>null</v>
+      </c>
+      <c r="L11" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N</v>
       </c>
       <c r="B12" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -672,15 +837,30 @@
         <v>null</v>
       </c>
       <c r="F12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G12" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="H12" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="I12" t="str">
+        <v>null</v>
+      </c>
+      <c r="J12" t="str">
+        <v>null</v>
+      </c>
+      <c r="K12" t="str">
+        <v>null</v>
+      </c>
+      <c r="L12" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N</v>
       </c>
       <c r="B13" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -695,15 +875,30 @@
         <v>null</v>
       </c>
       <c r="F13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G13" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H13" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I13" t="str">
+        <v>null</v>
+      </c>
+      <c r="J13" t="str">
+        <v>null</v>
+      </c>
+      <c r="K13" t="str">
+        <v>null</v>
+      </c>
+      <c r="L13" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N</v>
       </c>
       <c r="B14" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -718,15 +913,30 @@
         <v>null</v>
       </c>
       <c r="F14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G14" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="H14" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="I14" t="str">
+        <v>null</v>
+      </c>
+      <c r="J14" t="str">
+        <v>null</v>
+      </c>
+      <c r="K14" t="str">
+        <v>null</v>
+      </c>
+      <c r="L14" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N</v>
       </c>
       <c r="B15" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -741,15 +951,30 @@
         <v>null</v>
       </c>
       <c r="F15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G15" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H15" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I15" t="str">
+        <v>null</v>
+      </c>
+      <c r="J15" t="str">
+        <v>null</v>
+      </c>
+      <c r="K15" t="str">
+        <v>null</v>
+      </c>
+      <c r="L15" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N</v>
       </c>
       <c r="B16" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -764,15 +989,30 @@
         <v>null</v>
       </c>
       <c r="F16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G16" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H16" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I16" t="str">
+        <v>null</v>
+      </c>
+      <c r="J16" t="str">
+        <v>null</v>
+      </c>
+      <c r="K16" t="str">
+        <v>null</v>
+      </c>
+      <c r="L16" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N</v>
       </c>
       <c r="B17" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -787,15 +1027,30 @@
         <v>null</v>
       </c>
       <c r="F17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G17" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="H17" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="I17" t="str">
+        <v>null</v>
+      </c>
+      <c r="J17" t="str">
+        <v>null</v>
+      </c>
+      <c r="K17" t="str">
+        <v>null</v>
+      </c>
+      <c r="L17" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N</v>
       </c>
       <c r="B18" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -810,15 +1065,30 @@
         <v>null</v>
       </c>
       <c r="F18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G18" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H18" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I18" t="str">
+        <v>null</v>
+      </c>
+      <c r="J18" t="str">
+        <v>null</v>
+      </c>
+      <c r="K18" t="str">
+        <v>null</v>
+      </c>
+      <c r="L18" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N</v>
       </c>
       <c r="B19" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -833,15 +1103,30 @@
         <v>null</v>
       </c>
       <c r="F19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G19" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="H19" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="I19" t="str">
+        <v>null</v>
+      </c>
+      <c r="J19" t="str">
+        <v>null</v>
+      </c>
+      <c r="K19" t="str">
+        <v>null</v>
+      </c>
+      <c r="L19" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N</v>
       </c>
       <c r="B20" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -856,15 +1141,30 @@
         <v>null</v>
       </c>
       <c r="F20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G20" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="H20" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="I20" t="str">
+        <v>null</v>
+      </c>
+      <c r="J20" t="str">
+        <v>null</v>
+      </c>
+      <c r="K20" t="str">
+        <v>null</v>
+      </c>
+      <c r="L20" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N</v>
       </c>
       <c r="B21" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -879,15 +1179,30 @@
         <v>null</v>
       </c>
       <c r="F21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G21" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="H21" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="I21" t="str">
+        <v>null</v>
+      </c>
+      <c r="J21" t="str">
+        <v>null</v>
+      </c>
+      <c r="K21" t="str">
+        <v>null</v>
+      </c>
+      <c r="L21" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N</v>
       </c>
       <c r="B22" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -902,15 +1217,30 @@
         <v>null</v>
       </c>
       <c r="F22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G22" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H22" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I22" t="str">
+        <v>null</v>
+      </c>
+      <c r="J22" t="str">
+        <v>null</v>
+      </c>
+      <c r="K22" t="str">
+        <v>null</v>
+      </c>
+      <c r="L22" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N</v>
       </c>
       <c r="B23" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -925,15 +1255,30 @@
         <v>null</v>
       </c>
       <c r="F23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G23" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="H23" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="I23" t="str">
+        <v>null</v>
+      </c>
+      <c r="J23" t="str">
+        <v>null</v>
+      </c>
+      <c r="K23" t="str">
+        <v>null</v>
+      </c>
+      <c r="L23" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N</v>
       </c>
       <c r="B24" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -948,15 +1293,30 @@
         <v>null</v>
       </c>
       <c r="F24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G24" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="H24" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="I24" t="str">
+        <v>null</v>
+      </c>
+      <c r="J24" t="str">
+        <v>null</v>
+      </c>
+      <c r="K24" t="str">
+        <v>null</v>
+      </c>
+      <c r="L24" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N</v>
       </c>
       <c r="B25" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -971,15 +1331,30 @@
         <v>null</v>
       </c>
       <c r="F25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="G25" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+      </c>
+      <c r="H25" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+      </c>
+      <c r="I25" t="str">
+        <v>null</v>
+      </c>
+      <c r="J25" t="str">
+        <v>null</v>
+      </c>
+      <c r="K25" t="str">
+        <v>null</v>
+      </c>
+      <c r="L25" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N</v>
       </c>
       <c r="B26" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -994,15 +1369,30 @@
         <v>null</v>
       </c>
       <c r="F26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G26" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H26" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I26" t="str">
+        <v>null</v>
+      </c>
+      <c r="J26" t="str">
+        <v>null</v>
+      </c>
+      <c r="K26" t="str">
+        <v>null</v>
+      </c>
+      <c r="L26" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N</v>
       </c>
       <c r="B27" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1017,15 +1407,30 @@
         <v>null</v>
       </c>
       <c r="F27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G27" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H27" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I27" t="str">
+        <v>null</v>
+      </c>
+      <c r="J27" t="str">
+        <v>null</v>
+      </c>
+      <c r="K27" t="str">
+        <v>null</v>
+      </c>
+      <c r="L27" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N</v>
       </c>
       <c r="B28" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1040,15 +1445,30 @@
         <v>null</v>
       </c>
       <c r="F28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G28" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H28" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I28" t="str">
+        <v>null</v>
+      </c>
+      <c r="J28" t="str">
+        <v>null</v>
+      </c>
+      <c r="K28" t="str">
+        <v>null</v>
+      </c>
+      <c r="L28" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N</v>
       </c>
       <c r="B29" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1063,15 +1483,30 @@
         <v>null</v>
       </c>
       <c r="F29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G29" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H29" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I29" t="str">
+        <v>null</v>
+      </c>
+      <c r="J29" t="str">
+        <v>null</v>
+      </c>
+      <c r="K29" t="str">
+        <v>null</v>
+      </c>
+      <c r="L29" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N</v>
       </c>
       <c r="B30" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1086,15 +1521,30 @@
         <v>null</v>
       </c>
       <c r="F30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G30" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H30" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I30" t="str">
+        <v>null</v>
+      </c>
+      <c r="J30" t="str">
+        <v>null</v>
+      </c>
+      <c r="K30" t="str">
+        <v>null</v>
+      </c>
+      <c r="L30" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N</v>
       </c>
       <c r="B31" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1109,15 +1559,30 @@
         <v>null</v>
       </c>
       <c r="F31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G31" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H31" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I31" t="str">
+        <v>null</v>
+      </c>
+      <c r="J31" t="str">
+        <v>null</v>
+      </c>
+      <c r="K31" t="str">
+        <v>null</v>
+      </c>
+      <c r="L31" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N</v>
       </c>
       <c r="B32" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1132,15 +1597,30 @@
         <v>null</v>
       </c>
       <c r="F32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G32" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="H32" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="I32" t="str">
+        <v>null</v>
+      </c>
+      <c r="J32" t="str">
+        <v>null</v>
+      </c>
+      <c r="K32" t="str">
+        <v>null</v>
+      </c>
+      <c r="L32" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N</v>
       </c>
       <c r="B33" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1155,15 +1635,30 @@
         <v>null</v>
       </c>
       <c r="F33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G33" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H33" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I33" t="str">
+        <v>null</v>
+      </c>
+      <c r="J33" t="str">
+        <v>null</v>
+      </c>
+      <c r="K33" t="str">
+        <v>null</v>
+      </c>
+      <c r="L33" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N</v>
       </c>
       <c r="B34" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1178,15 +1673,30 @@
         <v>null</v>
       </c>
       <c r="F34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G34" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H34" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I34" t="str">
+        <v>null</v>
+      </c>
+      <c r="J34" t="str">
+        <v>null</v>
+      </c>
+      <c r="K34" t="str">
+        <v>null</v>
+      </c>
+      <c r="L34" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N</v>
       </c>
       <c r="B35" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1201,15 +1711,30 @@
         <v>null</v>
       </c>
       <c r="F35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G35" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H35" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I35" t="str">
+        <v>null</v>
+      </c>
+      <c r="J35" t="str">
+        <v>null</v>
+      </c>
+      <c r="K35" t="str">
+        <v>null</v>
+      </c>
+      <c r="L35" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N</v>
       </c>
       <c r="B36" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1224,15 +1749,30 @@
         <v>null</v>
       </c>
       <c r="F36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G36" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H36" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I36" t="str">
+        <v>null</v>
+      </c>
+      <c r="J36" t="str">
+        <v>null</v>
+      </c>
+      <c r="K36" t="str">
+        <v>null</v>
+      </c>
+      <c r="L36" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N</v>
       </c>
       <c r="B37" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1247,15 +1787,30 @@
         <v>null</v>
       </c>
       <c r="F37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G37" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H37" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I37" t="str">
+        <v>null</v>
+      </c>
+      <c r="J37" t="str">
+        <v>null</v>
+      </c>
+      <c r="K37" t="str">
+        <v>null</v>
+      </c>
+      <c r="L37" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N</v>
       </c>
       <c r="B38" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1270,15 +1825,30 @@
         <v>null</v>
       </c>
       <c r="F38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G38" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H38" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I38" t="str">
+        <v>null</v>
+      </c>
+      <c r="J38" t="str">
+        <v>null</v>
+      </c>
+      <c r="K38" t="str">
+        <v>null</v>
+      </c>
+      <c r="L38" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N</v>
       </c>
       <c r="B39" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1293,15 +1863,30 @@
         <v>null</v>
       </c>
       <c r="F39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G39" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="H39" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="I39" t="str">
+        <v>null</v>
+      </c>
+      <c r="J39" t="str">
+        <v>null</v>
+      </c>
+      <c r="K39" t="str">
+        <v>null</v>
+      </c>
+      <c r="L39" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N</v>
       </c>
       <c r="B40" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1316,15 +1901,30 @@
         <v>null</v>
       </c>
       <c r="F40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G40" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H40" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I40" t="str">
+        <v>null</v>
+      </c>
+      <c r="J40" t="str">
+        <v>null</v>
+      </c>
+      <c r="K40" t="str">
+        <v>null</v>
+      </c>
+      <c r="L40" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N</v>
       </c>
       <c r="B41" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1339,15 +1939,30 @@
         <v>null</v>
       </c>
       <c r="F41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G41" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="H41" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="I41" t="str">
+        <v>null</v>
+      </c>
+      <c r="J41" t="str">
+        <v>null</v>
+      </c>
+      <c r="K41" t="str">
+        <v>null</v>
+      </c>
+      <c r="L41" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N</v>
       </c>
       <c r="B42" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1362,15 +1977,30 @@
         <v>null</v>
       </c>
       <c r="F42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G42" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="H42" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="I42" t="str">
+        <v>null</v>
+      </c>
+      <c r="J42" t="str">
+        <v>null</v>
+      </c>
+      <c r="K42" t="str">
+        <v>null</v>
+      </c>
+      <c r="L42" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N</v>
       </c>
       <c r="B43" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1385,15 +2015,30 @@
         <v>null</v>
       </c>
       <c r="F43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G43" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H43" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I43" t="str">
+        <v>null</v>
+      </c>
+      <c r="J43" t="str">
+        <v>null</v>
+      </c>
+      <c r="K43" t="str">
+        <v>null</v>
+      </c>
+      <c r="L43" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N</v>
       </c>
       <c r="B44" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1408,15 +2053,30 @@
         <v>null</v>
       </c>
       <c r="F44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="G44" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+      </c>
+      <c r="H44" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+      </c>
+      <c r="I44" t="str">
+        <v>null</v>
+      </c>
+      <c r="J44" t="str">
+        <v>null</v>
+      </c>
+      <c r="K44" t="str">
+        <v>null</v>
+      </c>
+      <c r="L44" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N</v>
       </c>
       <c r="B45" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1431,15 +2091,30 @@
         <v>null</v>
       </c>
       <c r="F45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G45" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H45" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I45" t="str">
+        <v>null</v>
+      </c>
+      <c r="J45" t="str">
+        <v>null</v>
+      </c>
+      <c r="K45" t="str">
+        <v>null</v>
+      </c>
+      <c r="L45" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B46" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1454,15 +2129,30 @@
         <v>null</v>
       </c>
       <c r="F46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="G46" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+      </c>
+      <c r="H46" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+      </c>
+      <c r="I46" t="str">
+        <v>null</v>
+      </c>
+      <c r="J46" t="str">
+        <v>null</v>
+      </c>
+      <c r="K46" t="str">
+        <v>null</v>
+      </c>
+      <c r="L46" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N</v>
       </c>
       <c r="B47" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1477,15 +2167,30 @@
         <v>null</v>
       </c>
       <c r="F47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G47" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H47" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I47" t="str">
+        <v>null</v>
+      </c>
+      <c r="J47" t="str">
+        <v>null</v>
+      </c>
+      <c r="K47" t="str">
+        <v>null</v>
+      </c>
+      <c r="L47" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B48" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1500,15 +2205,30 @@
         <v>null</v>
       </c>
       <c r="F48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G48" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H48" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I48" t="str">
+        <v>null</v>
+      </c>
+      <c r="J48" t="str">
+        <v>null</v>
+      </c>
+      <c r="K48" t="str">
+        <v>null</v>
+      </c>
+      <c r="L48" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N</v>
       </c>
       <c r="B49" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1523,15 +2243,30 @@
         <v>null</v>
       </c>
       <c r="F49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G49" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="H49" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="I49" t="str">
+        <v>null</v>
+      </c>
+      <c r="J49" t="str">
+        <v>null</v>
+      </c>
+      <c r="K49" t="str">
+        <v>null</v>
+      </c>
+      <c r="L49" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N</v>
       </c>
       <c r="B50" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1546,15 +2281,30 @@
         <v>null</v>
       </c>
       <c r="F50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G50" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H50" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I50" t="str">
+        <v>null</v>
+      </c>
+      <c r="J50" t="str">
+        <v>null</v>
+      </c>
+      <c r="K50" t="str">
+        <v>null</v>
+      </c>
+      <c r="L50" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N</v>
       </c>
       <c r="B51" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1569,15 +2319,30 @@
         <v>null</v>
       </c>
       <c r="F51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G51" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H51" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I51" t="str">
+        <v>null</v>
+      </c>
+      <c r="J51" t="str">
+        <v>null</v>
+      </c>
+      <c r="K51" t="str">
+        <v>null</v>
+      </c>
+      <c r="L51" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B52" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1592,15 +2357,30 @@
         <v>null</v>
       </c>
       <c r="F52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="G52" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+      </c>
+      <c r="H52" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+      </c>
+      <c r="I52" t="str">
+        <v>null</v>
+      </c>
+      <c r="J52" t="str">
+        <v>null</v>
+      </c>
+      <c r="K52" t="str">
+        <v>null</v>
+      </c>
+      <c r="L52" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N</v>
       </c>
       <c r="B53" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1615,15 +2395,30 @@
         <v>null</v>
       </c>
       <c r="F53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G53" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H53" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I53" t="str">
+        <v>null</v>
+      </c>
+      <c r="J53" t="str">
+        <v>null</v>
+      </c>
+      <c r="K53" t="str">
+        <v>null</v>
+      </c>
+      <c r="L53" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N</v>
       </c>
       <c r="B54" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1638,15 +2433,30 @@
         <v>null</v>
       </c>
       <c r="F54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G54" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H54" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I54" t="str">
+        <v>null</v>
+      </c>
+      <c r="J54" t="str">
+        <v>null</v>
+      </c>
+      <c r="K54" t="str">
+        <v>null</v>
+      </c>
+      <c r="L54" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N</v>
       </c>
       <c r="B55" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1661,15 +2471,30 @@
         <v>null</v>
       </c>
       <c r="F55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G55" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="H55" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="I55" t="str">
+        <v>null</v>
+      </c>
+      <c r="J55" t="str">
+        <v>null</v>
+      </c>
+      <c r="K55" t="str">
+        <v>null</v>
+      </c>
+      <c r="L55" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N</v>
       </c>
       <c r="B56" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1684,15 +2509,30 @@
         <v>null</v>
       </c>
       <c r="F56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G56" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="H56" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="I56" t="str">
+        <v>null</v>
+      </c>
+      <c r="J56" t="str">
+        <v>null</v>
+      </c>
+      <c r="K56" t="str">
+        <v>null</v>
+      </c>
+      <c r="L56" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N</v>
       </c>
       <c r="B57" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1707,15 +2547,30 @@
         <v>null</v>
       </c>
       <c r="F57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G57" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H57" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I57" t="str">
+        <v>null</v>
+      </c>
+      <c r="J57" t="str">
+        <v>null</v>
+      </c>
+      <c r="K57" t="str">
+        <v>null</v>
+      </c>
+      <c r="L57" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N</v>
       </c>
       <c r="B58" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1730,15 +2585,30 @@
         <v>null</v>
       </c>
       <c r="F58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G58" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="H58" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="I58" t="str">
+        <v>null</v>
+      </c>
+      <c r="J58" t="str">
+        <v>null</v>
+      </c>
+      <c r="K58" t="str">
+        <v>null</v>
+      </c>
+      <c r="L58" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N</v>
       </c>
       <c r="B59" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1753,15 +2623,30 @@
         <v>null</v>
       </c>
       <c r="F59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G59" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="H59" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="I59" t="str">
+        <v>null</v>
+      </c>
+      <c r="J59" t="str">
+        <v>null</v>
+      </c>
+      <c r="K59" t="str">
+        <v>null</v>
+      </c>
+      <c r="L59" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N</v>
       </c>
       <c r="B60" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1776,15 +2661,30 @@
         <v>null</v>
       </c>
       <c r="F60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G60" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H60" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I60" t="str">
+        <v>null</v>
+      </c>
+      <c r="J60" t="str">
+        <v>null</v>
+      </c>
+      <c r="K60" t="str">
+        <v>null</v>
+      </c>
+      <c r="L60" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N</v>
       </c>
       <c r="B61" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1799,15 +2699,30 @@
         <v>null</v>
       </c>
       <c r="F61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G61" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H61" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I61" t="str">
+        <v>null</v>
+      </c>
+      <c r="J61" t="str">
+        <v>null</v>
+      </c>
+      <c r="K61" t="str">
+        <v>null</v>
+      </c>
+      <c r="L61" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N</v>
       </c>
       <c r="B62" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1822,15 +2737,30 @@
         <v>null</v>
       </c>
       <c r="F62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G62" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H62" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I62" t="str">
+        <v>null</v>
+      </c>
+      <c r="J62" t="str">
+        <v>null</v>
+      </c>
+      <c r="K62" t="str">
+        <v>null</v>
+      </c>
+      <c r="L62" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B63" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1845,15 +2775,30 @@
         <v>null</v>
       </c>
       <c r="F63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G63" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H63" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I63" t="str">
+        <v>null</v>
+      </c>
+      <c r="J63" t="str">
+        <v>null</v>
+      </c>
+      <c r="K63" t="str">
+        <v>null</v>
+      </c>
+      <c r="L63" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N</v>
       </c>
       <c r="B64" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1868,15 +2813,30 @@
         <v>null</v>
       </c>
       <c r="F64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G64" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H64" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I64" t="str">
+        <v>null</v>
+      </c>
+      <c r="J64" t="str">
+        <v>null</v>
+      </c>
+      <c r="K64" t="str">
+        <v>null</v>
+      </c>
+      <c r="L64" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N</v>
       </c>
       <c r="B65" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1891,15 +2851,30 @@
         <v>null</v>
       </c>
       <c r="F65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G65" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H65" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I65" t="str">
+        <v>null</v>
+      </c>
+      <c r="J65" t="str">
+        <v>null</v>
+      </c>
+      <c r="K65" t="str">
+        <v>null</v>
+      </c>
+      <c r="L65" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N</v>
       </c>
       <c r="B66" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1914,15 +2889,30 @@
         <v>null</v>
       </c>
       <c r="F66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="G66" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+      </c>
+      <c r="H66" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+      </c>
+      <c r="I66" t="str">
+        <v>null</v>
+      </c>
+      <c r="J66" t="str">
+        <v>null</v>
+      </c>
+      <c r="K66" t="str">
+        <v>null</v>
+      </c>
+      <c r="L66" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N</v>
       </c>
       <c r="B67" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1937,15 +2927,30 @@
         <v>null</v>
       </c>
       <c r="F67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G67" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H67" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I67" t="str">
+        <v>null</v>
+      </c>
+      <c r="J67" t="str">
+        <v>null</v>
+      </c>
+      <c r="K67" t="str">
+        <v>null</v>
+      </c>
+      <c r="L67" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B68" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1960,15 +2965,30 @@
         <v>null</v>
       </c>
       <c r="F68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G68" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="H68" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="I68" t="str">
+        <v>null</v>
+      </c>
+      <c r="J68" t="str">
+        <v>null</v>
+      </c>
+      <c r="K68" t="str">
+        <v>null</v>
+      </c>
+      <c r="L68" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N</v>
       </c>
       <c r="B69" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1983,15 +3003,30 @@
         <v>null</v>
       </c>
       <c r="F69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G69" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H69" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I69" t="str">
+        <v>null</v>
+      </c>
+      <c r="J69" t="str">
+        <v>null</v>
+      </c>
+      <c r="K69" t="str">
+        <v>null</v>
+      </c>
+      <c r="L69" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N</v>
       </c>
       <c r="B70" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2006,15 +3041,30 @@
         <v>null</v>
       </c>
       <c r="F70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G70" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="H70" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="I70" t="str">
+        <v>null</v>
+      </c>
+      <c r="J70" t="str">
+        <v>null</v>
+      </c>
+      <c r="K70" t="str">
+        <v>null</v>
+      </c>
+      <c r="L70" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N</v>
       </c>
       <c r="B71" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2029,15 +3079,30 @@
         <v>null</v>
       </c>
       <c r="F71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G71" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="H71" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="I71" t="str">
+        <v>null</v>
+      </c>
+      <c r="J71" t="str">
+        <v>null</v>
+      </c>
+      <c r="K71" t="str">
+        <v>null</v>
+      </c>
+      <c r="L71" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N</v>
       </c>
       <c r="B72" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2052,15 +3117,30 @@
         <v>null</v>
       </c>
       <c r="F72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G72" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="H72" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="I72" t="str">
+        <v>null</v>
+      </c>
+      <c r="J72" t="str">
+        <v>null</v>
+      </c>
+      <c r="K72" t="str">
+        <v>null</v>
+      </c>
+      <c r="L72" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N</v>
       </c>
       <c r="B73" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2075,15 +3155,30 @@
         <v>null</v>
       </c>
       <c r="F73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G73" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="H73" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="I73" t="str">
+        <v>null</v>
+      </c>
+      <c r="J73" t="str">
+        <v>null</v>
+      </c>
+      <c r="K73" t="str">
+        <v>null</v>
+      </c>
+      <c r="L73" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N</v>
       </c>
       <c r="B74" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2098,15 +3193,30 @@
         <v>null</v>
       </c>
       <c r="F74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G74" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H74" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I74" t="str">
+        <v>null</v>
+      </c>
+      <c r="J74" t="str">
+        <v>null</v>
+      </c>
+      <c r="K74" t="str">
+        <v>null</v>
+      </c>
+      <c r="L74" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N</v>
       </c>
       <c r="B75" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2121,15 +3231,30 @@
         <v>null</v>
       </c>
       <c r="F75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G75" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H75" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I75" t="str">
+        <v>null</v>
+      </c>
+      <c r="J75" t="str">
+        <v>null</v>
+      </c>
+      <c r="K75" t="str">
+        <v>null</v>
+      </c>
+      <c r="L75" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N</v>
       </c>
       <c r="B76" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2144,15 +3269,30 @@
         <v>null</v>
       </c>
       <c r="F76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G76" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H76" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I76" t="str">
+        <v>null</v>
+      </c>
+      <c r="J76" t="str">
+        <v>null</v>
+      </c>
+      <c r="K76" t="str">
+        <v>null</v>
+      </c>
+      <c r="L76" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N</v>
       </c>
       <c r="B77" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2167,15 +3307,30 @@
         <v>null</v>
       </c>
       <c r="F77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G77" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H77" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I77" t="str">
+        <v>null</v>
+      </c>
+      <c r="J77" t="str">
+        <v>null</v>
+      </c>
+      <c r="K77" t="str">
+        <v>null</v>
+      </c>
+      <c r="L77" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N</v>
       </c>
       <c r="B78" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2190,15 +3345,30 @@
         <v>null</v>
       </c>
       <c r="F78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G78" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="H78" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="I78" t="str">
+        <v>null</v>
+      </c>
+      <c r="J78" t="str">
+        <v>null</v>
+      </c>
+      <c r="K78" t="str">
+        <v>null</v>
+      </c>
+      <c r="L78" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N</v>
       </c>
       <c r="B79" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2213,15 +3383,30 @@
         <v>null</v>
       </c>
       <c r="F79" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G79" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="H79" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="I79" t="str">
+        <v>null</v>
+      </c>
+      <c r="J79" t="str">
+        <v>null</v>
+      </c>
+      <c r="K79" t="str">
+        <v>null</v>
+      </c>
+      <c r="L79" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N</v>
       </c>
       <c r="B80" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2236,15 +3421,30 @@
         <v>null</v>
       </c>
       <c r="F80" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G80" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H80" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I80" t="str">
+        <v>null</v>
+      </c>
+      <c r="J80" t="str">
+        <v>null</v>
+      </c>
+      <c r="K80" t="str">
+        <v>null</v>
+      </c>
+      <c r="L80" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N</v>
       </c>
       <c r="B81" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2259,15 +3459,30 @@
         <v>null</v>
       </c>
       <c r="F81" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G81" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="H81" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="I81" t="str">
+        <v>null</v>
+      </c>
+      <c r="J81" t="str">
+        <v>null</v>
+      </c>
+      <c r="K81" t="str">
+        <v>null</v>
+      </c>
+      <c r="L81" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B82" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2282,15 +3497,30 @@
         <v>null</v>
       </c>
       <c r="F82" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G82" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H82" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I82" t="str">
+        <v>null</v>
+      </c>
+      <c r="J82" t="str">
+        <v>null</v>
+      </c>
+      <c r="K82" t="str">
+        <v>null</v>
+      </c>
+      <c r="L82" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N</v>
       </c>
       <c r="B83" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2305,15 +3535,30 @@
         <v>null</v>
       </c>
       <c r="F83" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G83" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="H83" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="I83" t="str">
+        <v>null</v>
+      </c>
+      <c r="J83" t="str">
+        <v>null</v>
+      </c>
+      <c r="K83" t="str">
+        <v>null</v>
+      </c>
+      <c r="L83" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N</v>
       </c>
       <c r="B84" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2328,15 +3573,30 @@
         <v>null</v>
       </c>
       <c r="F84" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G84" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H84" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I84" t="str">
+        <v>null</v>
+      </c>
+      <c r="J84" t="str">
+        <v>null</v>
+      </c>
+      <c r="K84" t="str">
+        <v>null</v>
+      </c>
+      <c r="L84" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N</v>
       </c>
       <c r="B85" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2351,15 +3611,30 @@
         <v>null</v>
       </c>
       <c r="F85" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G85" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H85" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I85" t="str">
+        <v>null</v>
+      </c>
+      <c r="J85" t="str">
+        <v>null</v>
+      </c>
+      <c r="K85" t="str">
+        <v>null</v>
+      </c>
+      <c r="L85" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N</v>
       </c>
       <c r="B86" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2374,15 +3649,30 @@
         <v>null</v>
       </c>
       <c r="F86" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G86" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H86" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I86" t="str">
+        <v>null</v>
+      </c>
+      <c r="J86" t="str">
+        <v>null</v>
+      </c>
+      <c r="K86" t="str">
+        <v>null</v>
+      </c>
+      <c r="L86" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N</v>
       </c>
       <c r="B87" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2397,15 +3687,30 @@
         <v>null</v>
       </c>
       <c r="F87" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G87" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H87" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I87" t="str">
+        <v>null</v>
+      </c>
+      <c r="J87" t="str">
+        <v>null</v>
+      </c>
+      <c r="K87" t="str">
+        <v>null</v>
+      </c>
+      <c r="L87" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N</v>
       </c>
       <c r="B88" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2420,15 +3725,30 @@
         <v>null</v>
       </c>
       <c r="F88" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G88" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="H88" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="I88" t="str">
+        <v>null</v>
+      </c>
+      <c r="J88" t="str">
+        <v>null</v>
+      </c>
+      <c r="K88" t="str">
+        <v>null</v>
+      </c>
+      <c r="L88" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N</v>
       </c>
       <c r="B89" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2443,15 +3763,30 @@
         <v>null</v>
       </c>
       <c r="F89" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G89" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="H89" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="I89" t="str">
+        <v>null</v>
+      </c>
+      <c r="J89" t="str">
+        <v>null</v>
+      </c>
+      <c r="K89" t="str">
+        <v>null</v>
+      </c>
+      <c r="L89" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N</v>
       </c>
       <c r="B90" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2466,15 +3801,30 @@
         <v>null</v>
       </c>
       <c r="F90" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G90" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H90" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I90" t="str">
+        <v>null</v>
+      </c>
+      <c r="J90" t="str">
+        <v>null</v>
+      </c>
+      <c r="K90" t="str">
+        <v>null</v>
+      </c>
+      <c r="L90" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N</v>
       </c>
       <c r="B91" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2489,15 +3839,30 @@
         <v>null</v>
       </c>
       <c r="F91" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G91" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H91" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I91" t="str">
+        <v>null</v>
+      </c>
+      <c r="J91" t="str">
+        <v>null</v>
+      </c>
+      <c r="K91" t="str">
+        <v>null</v>
+      </c>
+      <c r="L91" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N</v>
       </c>
       <c r="B92" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2512,15 +3877,30 @@
         <v>null</v>
       </c>
       <c r="F92" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G92" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="H92" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="I92" t="str">
+        <v>null</v>
+      </c>
+      <c r="J92" t="str">
+        <v>null</v>
+      </c>
+      <c r="K92" t="str">
+        <v>null</v>
+      </c>
+      <c r="L92" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N</v>
       </c>
       <c r="B93" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2535,15 +3915,30 @@
         <v>null</v>
       </c>
       <c r="F93" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G93" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H93" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I93" t="str">
+        <v>null</v>
+      </c>
+      <c r="J93" t="str">
+        <v>null</v>
+      </c>
+      <c r="K93" t="str">
+        <v>null</v>
+      </c>
+      <c r="L93" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N</v>
       </c>
       <c r="B94" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2558,15 +3953,30 @@
         <v>null</v>
       </c>
       <c r="F94" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G94" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H94" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I94" t="str">
+        <v>null</v>
+      </c>
+      <c r="J94" t="str">
+        <v>null</v>
+      </c>
+      <c r="K94" t="str">
+        <v>null</v>
+      </c>
+      <c r="L94" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B95" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2581,15 +3991,30 @@
         <v>null</v>
       </c>
       <c r="F95" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G95" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H95" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I95" t="str">
+        <v>null</v>
+      </c>
+      <c r="J95" t="str">
+        <v>null</v>
+      </c>
+      <c r="K95" t="str">
+        <v>null</v>
+      </c>
+      <c r="L95" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N</v>
       </c>
       <c r="B96" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2604,15 +4029,30 @@
         <v>null</v>
       </c>
       <c r="F96" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G96" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H96" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I96" t="str">
+        <v>null</v>
+      </c>
+      <c r="J96" t="str">
+        <v>null</v>
+      </c>
+      <c r="K96" t="str">
+        <v>null</v>
+      </c>
+      <c r="L96" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B97" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2627,15 +4067,30 @@
         <v>null</v>
       </c>
       <c r="F97" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G97" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H97" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I97" t="str">
+        <v>null</v>
+      </c>
+      <c r="J97" t="str">
+        <v>null</v>
+      </c>
+      <c r="K97" t="str">
+        <v>null</v>
+      </c>
+      <c r="L97" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N</v>
       </c>
       <c r="B98" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2650,15 +4105,30 @@
         <v>null</v>
       </c>
       <c r="F98" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G98" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="H98" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="I98" t="str">
+        <v>null</v>
+      </c>
+      <c r="J98" t="str">
+        <v>null</v>
+      </c>
+      <c r="K98" t="str">
+        <v>null</v>
+      </c>
+      <c r="L98" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N</v>
       </c>
       <c r="B99" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2673,15 +4143,30 @@
         <v>null</v>
       </c>
       <c r="F99" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G99" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H99" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I99" t="str">
+        <v>null</v>
+      </c>
+      <c r="J99" t="str">
+        <v>null</v>
+      </c>
+      <c r="K99" t="str">
+        <v>null</v>
+      </c>
+      <c r="L99" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N</v>
       </c>
       <c r="B100" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2696,15 +4181,30 @@
         <v>null</v>
       </c>
       <c r="F100" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G100" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H100" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I100" t="str">
+        <v>null</v>
+      </c>
+      <c r="J100" t="str">
+        <v>null</v>
+      </c>
+      <c r="K100" t="str">
+        <v>null</v>
+      </c>
+      <c r="L100" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N</v>
       </c>
       <c r="B101" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2719,15 +4219,30 @@
         <v>null</v>
       </c>
       <c r="F101" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G101" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H101" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I101" t="str">
+        <v>null</v>
+      </c>
+      <c r="J101" t="str">
+        <v>null</v>
+      </c>
+      <c r="K101" t="str">
+        <v>null</v>
+      </c>
+      <c r="L101" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N</v>
       </c>
       <c r="B102" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2742,15 +4257,30 @@
         <v>null</v>
       </c>
       <c r="F102" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G102" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="H102" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="I102" t="str">
+        <v>null</v>
+      </c>
+      <c r="J102" t="str">
+        <v>null</v>
+      </c>
+      <c r="K102" t="str">
+        <v>null</v>
+      </c>
+      <c r="L102" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N</v>
       </c>
       <c r="B103" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2765,15 +4295,30 @@
         <v>null</v>
       </c>
       <c r="F103" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G103" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H103" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I103" t="str">
+        <v>null</v>
+      </c>
+      <c r="J103" t="str">
+        <v>null</v>
+      </c>
+      <c r="K103" t="str">
+        <v>null</v>
+      </c>
+      <c r="L103" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N</v>
       </c>
       <c r="B104" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2788,15 +4333,30 @@
         <v>null</v>
       </c>
       <c r="F104" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G104" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H104" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I104" t="str">
+        <v>null</v>
+      </c>
+      <c r="J104" t="str">
+        <v>null</v>
+      </c>
+      <c r="K104" t="str">
+        <v>null</v>
+      </c>
+      <c r="L104" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N</v>
       </c>
       <c r="B105" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2811,15 +4371,30 @@
         <v>null</v>
       </c>
       <c r="F105" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G105" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H105" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I105" t="str">
+        <v>null</v>
+      </c>
+      <c r="J105" t="str">
+        <v>null</v>
+      </c>
+      <c r="K105" t="str">
+        <v>null</v>
+      </c>
+      <c r="L105" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N</v>
       </c>
       <c r="B106" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2834,15 +4409,30 @@
         <v>null</v>
       </c>
       <c r="F106" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G106" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="H106" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="I106" t="str">
+        <v>null</v>
+      </c>
+      <c r="J106" t="str">
+        <v>null</v>
+      </c>
+      <c r="K106" t="str">
+        <v>null</v>
+      </c>
+      <c r="L106" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N</v>
       </c>
       <c r="B107" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2857,15 +4447,30 @@
         <v>null</v>
       </c>
       <c r="F107" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G107" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H107" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I107" t="str">
+        <v>null</v>
+      </c>
+      <c r="J107" t="str">
+        <v>null</v>
+      </c>
+      <c r="K107" t="str">
+        <v>null</v>
+      </c>
+      <c r="L107" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N</v>
       </c>
       <c r="B108" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2880,15 +4485,30 @@
         <v>null</v>
       </c>
       <c r="F108" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G108" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="H108" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="I108" t="str">
+        <v>null</v>
+      </c>
+      <c r="J108" t="str">
+        <v>null</v>
+      </c>
+      <c r="K108" t="str">
+        <v>null</v>
+      </c>
+      <c r="L108" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N</v>
       </c>
       <c r="B109" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2903,15 +4523,30 @@
         <v>null</v>
       </c>
       <c r="F109" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G109" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="H109" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="I109" t="str">
+        <v>null</v>
+      </c>
+      <c r="J109" t="str">
+        <v>null</v>
+      </c>
+      <c r="K109" t="str">
+        <v>null</v>
+      </c>
+      <c r="L109" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N</v>
       </c>
       <c r="B110" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2926,15 +4561,30 @@
         <v>null</v>
       </c>
       <c r="F110" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G110" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="H110" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="I110" t="str">
+        <v>null</v>
+      </c>
+      <c r="J110" t="str">
+        <v>null</v>
+      </c>
+      <c r="K110" t="str">
+        <v>null</v>
+      </c>
+      <c r="L110" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N</v>
       </c>
       <c r="B111" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2949,15 +4599,30 @@
         <v>null</v>
       </c>
       <c r="F111" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G111" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H111" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I111" t="str">
+        <v>null</v>
+      </c>
+      <c r="J111" t="str">
+        <v>null</v>
+      </c>
+      <c r="K111" t="str">
+        <v>null</v>
+      </c>
+      <c r="L111" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B112" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2972,15 +4637,30 @@
         <v>null</v>
       </c>
       <c r="F112" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G112" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H112" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I112" t="str">
+        <v>null</v>
+      </c>
+      <c r="J112" t="str">
+        <v>null</v>
+      </c>
+      <c r="K112" t="str">
+        <v>null</v>
+      </c>
+      <c r="L112" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N</v>
       </c>
       <c r="B113" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2995,15 +4675,30 @@
         <v>null</v>
       </c>
       <c r="F113" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G113" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H113" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I113" t="str">
+        <v>null</v>
+      </c>
+      <c r="J113" t="str">
+        <v>null</v>
+      </c>
+      <c r="K113" t="str">
+        <v>null</v>
+      </c>
+      <c r="L113" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N</v>
       </c>
       <c r="B114" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3018,15 +4713,30 @@
         <v>null</v>
       </c>
       <c r="F114" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G114" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H114" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I114" t="str">
+        <v>null</v>
+      </c>
+      <c r="J114" t="str">
+        <v>null</v>
+      </c>
+      <c r="K114" t="str">
+        <v>null</v>
+      </c>
+      <c r="L114" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N</v>
       </c>
       <c r="B115" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3041,15 +4751,30 @@
         <v>null</v>
       </c>
       <c r="F115" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G115" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="H115" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="I115" t="str">
+        <v>null</v>
+      </c>
+      <c r="J115" t="str">
+        <v>null</v>
+      </c>
+      <c r="K115" t="str">
+        <v>null</v>
+      </c>
+      <c r="L115" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N</v>
       </c>
       <c r="B116" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3064,15 +4789,30 @@
         <v>null</v>
       </c>
       <c r="F116" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="G116" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+      </c>
+      <c r="H116" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+      </c>
+      <c r="I116" t="str">
+        <v>null</v>
+      </c>
+      <c r="J116" t="str">
+        <v>null</v>
+      </c>
+      <c r="K116" t="str">
+        <v>null</v>
+      </c>
+      <c r="L116" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N</v>
       </c>
       <c r="B117" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3087,15 +4827,30 @@
         <v>null</v>
       </c>
       <c r="F117" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G117" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H117" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I117" t="str">
+        <v>null</v>
+      </c>
+      <c r="J117" t="str">
+        <v>null</v>
+      </c>
+      <c r="K117" t="str">
+        <v>null</v>
+      </c>
+      <c r="L117" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N</v>
       </c>
       <c r="B118" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3110,15 +4865,30 @@
         <v>null</v>
       </c>
       <c r="F118" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G118" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="H118" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="I118" t="str">
+        <v>null</v>
+      </c>
+      <c r="J118" t="str">
+        <v>null</v>
+      </c>
+      <c r="K118" t="str">
+        <v>null</v>
+      </c>
+      <c r="L118" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N</v>
       </c>
       <c r="B119" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3133,15 +4903,30 @@
         <v>null</v>
       </c>
       <c r="F119" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G119" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="H119" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="I119" t="str">
+        <v>null</v>
+      </c>
+      <c r="J119" t="str">
+        <v>null</v>
+      </c>
+      <c r="K119" t="str">
+        <v>null</v>
+      </c>
+      <c r="L119" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N</v>
       </c>
       <c r="B120" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3156,15 +4941,30 @@
         <v>null</v>
       </c>
       <c r="F120" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G120" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H120" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I120" t="str">
+        <v>null</v>
+      </c>
+      <c r="J120" t="str">
+        <v>null</v>
+      </c>
+      <c r="K120" t="str">
+        <v>null</v>
+      </c>
+      <c r="L120" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N</v>
       </c>
       <c r="B121" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3179,15 +4979,30 @@
         <v>null</v>
       </c>
       <c r="F121" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G121" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="H121" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="I121" t="str">
+        <v>null</v>
+      </c>
+      <c r="J121" t="str">
+        <v>null</v>
+      </c>
+      <c r="K121" t="str">
+        <v>null</v>
+      </c>
+      <c r="L121" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N</v>
       </c>
       <c r="B122" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3202,15 +5017,30 @@
         <v>null</v>
       </c>
       <c r="F122" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G122" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H122" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I122" t="str">
+        <v>null</v>
+      </c>
+      <c r="J122" t="str">
+        <v>null</v>
+      </c>
+      <c r="K122" t="str">
+        <v>null</v>
+      </c>
+      <c r="L122" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N</v>
       </c>
       <c r="B123" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3225,15 +5055,30 @@
         <v>null</v>
       </c>
       <c r="F123" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G123" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H123" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I123" t="str">
+        <v>null</v>
+      </c>
+      <c r="J123" t="str">
+        <v>null</v>
+      </c>
+      <c r="K123" t="str">
+        <v>null</v>
+      </c>
+      <c r="L123" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N</v>
       </c>
       <c r="B124" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3248,15 +5093,30 @@
         <v>null</v>
       </c>
       <c r="F124" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G124" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H124" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I124" t="str">
+        <v>null</v>
+      </c>
+      <c r="J124" t="str">
+        <v>null</v>
+      </c>
+      <c r="K124" t="str">
+        <v>null</v>
+      </c>
+      <c r="L124" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N</v>
       </c>
       <c r="B125" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3271,15 +5131,30 @@
         <v>null</v>
       </c>
       <c r="F125" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G125" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H125" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I125" t="str">
+        <v>null</v>
+      </c>
+      <c r="J125" t="str">
+        <v>null</v>
+      </c>
+      <c r="K125" t="str">
+        <v>null</v>
+      </c>
+      <c r="L125" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N</v>
       </c>
       <c r="B126" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3294,15 +5169,30 @@
         <v>null</v>
       </c>
       <c r="F126" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G126" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="H126" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="I126" t="str">
+        <v>null</v>
+      </c>
+      <c r="J126" t="str">
+        <v>null</v>
+      </c>
+      <c r="K126" t="str">
+        <v>null</v>
+      </c>
+      <c r="L126" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N</v>
       </c>
       <c r="B127" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3317,15 +5207,30 @@
         <v>null</v>
       </c>
       <c r="F127" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G127" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H127" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I127" t="str">
+        <v>null</v>
+      </c>
+      <c r="J127" t="str">
+        <v>null</v>
+      </c>
+      <c r="K127" t="str">
+        <v>null</v>
+      </c>
+      <c r="L127" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N</v>
       </c>
       <c r="B128" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3340,15 +5245,30 @@
         <v>null</v>
       </c>
       <c r="F128" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G128" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="H128" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="I128" t="str">
+        <v>null</v>
+      </c>
+      <c r="J128" t="str">
+        <v>null</v>
+      </c>
+      <c r="K128" t="str">
+        <v>null</v>
+      </c>
+      <c r="L128" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N</v>
       </c>
       <c r="B129" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3363,15 +5283,30 @@
         <v>null</v>
       </c>
       <c r="F129" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G129" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H129" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I129" t="str">
+        <v>null</v>
+      </c>
+      <c r="J129" t="str">
+        <v>null</v>
+      </c>
+      <c r="K129" t="str">
+        <v>null</v>
+      </c>
+      <c r="L129" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N</v>
       </c>
       <c r="B130" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3386,15 +5321,30 @@
         <v>null</v>
       </c>
       <c r="F130" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G130" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H130" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I130" t="str">
+        <v>null</v>
+      </c>
+      <c r="J130" t="str">
+        <v>null</v>
+      </c>
+      <c r="K130" t="str">
+        <v>null</v>
+      </c>
+      <c r="L130" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N</v>
       </c>
       <c r="B131" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3409,15 +5359,30 @@
         <v>null</v>
       </c>
       <c r="F131" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G131" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H131" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I131" t="str">
+        <v>null</v>
+      </c>
+      <c r="J131" t="str">
+        <v>null</v>
+      </c>
+      <c r="K131" t="str">
+        <v>null</v>
+      </c>
+      <c r="L131" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N</v>
       </c>
       <c r="B132" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3432,15 +5397,30 @@
         <v>null</v>
       </c>
       <c r="F132" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G132" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H132" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I132" t="str">
+        <v>null</v>
+      </c>
+      <c r="J132" t="str">
+        <v>null</v>
+      </c>
+      <c r="K132" t="str">
+        <v>null</v>
+      </c>
+      <c r="L132" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N</v>
       </c>
       <c r="B133" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3455,15 +5435,30 @@
         <v>null</v>
       </c>
       <c r="F133" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G133" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="H133" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="I133" t="str">
+        <v>null</v>
+      </c>
+      <c r="J133" t="str">
+        <v>null</v>
+      </c>
+      <c r="K133" t="str">
+        <v>null</v>
+      </c>
+      <c r="L133" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B134" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3478,15 +5473,30 @@
         <v>null</v>
       </c>
       <c r="F134" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G134" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H134" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I134" t="str">
+        <v>null</v>
+      </c>
+      <c r="J134" t="str">
+        <v>null</v>
+      </c>
+      <c r="K134" t="str">
+        <v>null</v>
+      </c>
+      <c r="L134" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N</v>
       </c>
       <c r="B135" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3501,15 +5511,30 @@
         <v>null</v>
       </c>
       <c r="F135" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G135" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H135" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I135" t="str">
+        <v>null</v>
+      </c>
+      <c r="J135" t="str">
+        <v>null</v>
+      </c>
+      <c r="K135" t="str">
+        <v>null</v>
+      </c>
+      <c r="L135" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N</v>
       </c>
       <c r="B136" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3524,15 +5549,30 @@
         <v>null</v>
       </c>
       <c r="F136" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G136" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H136" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I136" t="str">
+        <v>null</v>
+      </c>
+      <c r="J136" t="str">
+        <v>null</v>
+      </c>
+      <c r="K136" t="str">
+        <v>null</v>
+      </c>
+      <c r="L136" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N</v>
       </c>
       <c r="B137" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3547,15 +5587,30 @@
         <v>null</v>
       </c>
       <c r="F137" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G137" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H137" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I137" t="str">
+        <v>null</v>
+      </c>
+      <c r="J137" t="str">
+        <v>null</v>
+      </c>
+      <c r="K137" t="str">
+        <v>null</v>
+      </c>
+      <c r="L137" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N</v>
       </c>
       <c r="B138" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3570,15 +5625,30 @@
         <v>null</v>
       </c>
       <c r="F138" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G138" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="H138" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="I138" t="str">
+        <v>null</v>
+      </c>
+      <c r="J138" t="str">
+        <v>null</v>
+      </c>
+      <c r="K138" t="str">
+        <v>null</v>
+      </c>
+      <c r="L138" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N</v>
       </c>
       <c r="B139" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3593,15 +5663,30 @@
         <v>null</v>
       </c>
       <c r="F139" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G139" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H139" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I139" t="str">
+        <v>null</v>
+      </c>
+      <c r="J139" t="str">
+        <v>null</v>
+      </c>
+      <c r="K139" t="str">
+        <v>null</v>
+      </c>
+      <c r="L139" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B140" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3616,15 +5701,30 @@
         <v>null</v>
       </c>
       <c r="F140" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G140" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H140" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I140" t="str">
+        <v>null</v>
+      </c>
+      <c r="J140" t="str">
+        <v>null</v>
+      </c>
+      <c r="K140" t="str">
+        <v>null</v>
+      </c>
+      <c r="L140" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N</v>
       </c>
       <c r="B141" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3639,15 +5739,30 @@
         <v>null</v>
       </c>
       <c r="F141" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G141" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H141" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I141" t="str">
+        <v>null</v>
+      </c>
+      <c r="J141" t="str">
+        <v>null</v>
+      </c>
+      <c r="K141" t="str">
+        <v>null</v>
+      </c>
+      <c r="L141" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
       </c>
       <c r="B142" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3662,15 +5777,30 @@
         <v>null</v>
       </c>
       <c r="F142" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G142" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H142" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I142" t="str">
+        <v>null</v>
+      </c>
+      <c r="J142" t="str">
+        <v>null</v>
+      </c>
+      <c r="K142" t="str">
+        <v>null</v>
+      </c>
+      <c r="L142" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N</v>
       </c>
       <c r="B143" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3685,15 +5815,30 @@
         <v>null</v>
       </c>
       <c r="F143" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G143" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H143" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I143" t="str">
+        <v>null</v>
+      </c>
+      <c r="J143" t="str">
+        <v>null</v>
+      </c>
+      <c r="K143" t="str">
+        <v>null</v>
+      </c>
+      <c r="L143" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B144" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3708,15 +5853,30 @@
         <v>null</v>
       </c>
       <c r="F144" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G144" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="H144" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="I144" t="str">
+        <v>null</v>
+      </c>
+      <c r="J144" t="str">
+        <v>null</v>
+      </c>
+      <c r="K144" t="str">
+        <v>null</v>
+      </c>
+      <c r="L144" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N</v>
       </c>
       <c r="B145" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3731,15 +5891,30 @@
         <v>null</v>
       </c>
       <c r="F145" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G145" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H145" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I145" t="str">
+        <v>null</v>
+      </c>
+      <c r="J145" t="str">
+        <v>null</v>
+      </c>
+      <c r="K145" t="str">
+        <v>null</v>
+      </c>
+      <c r="L145" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
       </c>
       <c r="B146" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3754,15 +5929,30 @@
         <v>null</v>
       </c>
       <c r="F146" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G146" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="H146" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="I146" t="str">
+        <v>null</v>
+      </c>
+      <c r="J146" t="str">
+        <v>null</v>
+      </c>
+      <c r="K146" t="str">
+        <v>null</v>
+      </c>
+      <c r="L146" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
       </c>
       <c r="B147" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3777,15 +5967,30 @@
         <v>null</v>
       </c>
       <c r="F147" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G147" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="H147" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="I147" t="str">
+        <v>null</v>
+      </c>
+      <c r="J147" t="str">
+        <v>null</v>
+      </c>
+      <c r="K147" t="str">
+        <v>null</v>
+      </c>
+      <c r="L147" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N</v>
       </c>
       <c r="B148" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3800,38 +6005,372 @@
         <v>null</v>
       </c>
       <c r="F148" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
       </c>
       <c r="G148" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H148" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I148" t="str">
+        <v>null</v>
+      </c>
+      <c r="J148" t="str">
+        <v>null</v>
+      </c>
+      <c r="K148" t="str">
+        <v>null</v>
+      </c>
+      <c r="L148" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
       </c>
       <c r="B149" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C149" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="D149" t="str">
+        <v>null</v>
+      </c>
+      <c r="E149" t="str">
+        <v>null</v>
+      </c>
+      <c r="F149" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="G149" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="H149" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="I149" t="str">
+        <v>null</v>
+      </c>
+      <c r="J149" t="str">
+        <v>null</v>
+      </c>
+      <c r="K149" t="str">
+        <v>null</v>
+      </c>
+      <c r="L149" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+      </c>
+      <c r="B150" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C150" t="str">
+        <v>null</v>
+      </c>
+      <c r="D150" t="str">
+        <v>null</v>
+      </c>
+      <c r="E150" t="str">
+        <v>null</v>
+      </c>
+      <c r="F150" t="str">
+        <v>null</v>
+      </c>
+      <c r="G150" t="str">
+        <v>null</v>
+      </c>
+      <c r="H150" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
+      </c>
+      <c r="I150" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
+      </c>
+      <c r="J150" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
+      </c>
+      <c r="K150" t="str">
+        <v>null</v>
+      </c>
+      <c r="L150" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+      </c>
+      <c r="B151" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C151" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="D151" t="str">
+        <v>null</v>
+      </c>
+      <c r="E151" t="str">
+        <v>C&amp;L Harmonized classification</v>
+      </c>
+      <c r="F151" t="str">
+        <v>null</v>
+      </c>
+      <c r="G151" t="str">
+        <v>null</v>
+      </c>
+      <c r="H151" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
+      </c>
+      <c r="I151" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
+      </c>
+      <c r="J151" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
+      </c>
+      <c r="K151" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="L151" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+      </c>
+      <c r="B152" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C152" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="D152" t="str">
+        <v>null</v>
+      </c>
+      <c r="E152" t="str">
+        <v>edlists.org List I</v>
+      </c>
+      <c r="F152" t="str">
+        <v>null</v>
+      </c>
+      <c r="G152" t="str">
+        <v>null</v>
+      </c>
+      <c r="H152" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
+      </c>
+      <c r="I152" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
+      </c>
+      <c r="J152" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
+      </c>
+      <c r="K152" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="L152" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+      </c>
+      <c r="B153" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C153" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="D153" t="str">
+        <v>null</v>
+      </c>
+      <c r="E153" t="str">
+        <v>eigen</v>
+      </c>
+      <c r="F153" t="str">
+        <v>null</v>
+      </c>
+      <c r="G153" t="str">
+        <v>null</v>
+      </c>
+      <c r="H153" t="str">
+        <v>null</v>
+      </c>
+      <c r="I153" t="str">
+        <v>null</v>
+      </c>
+      <c r="J153" t="str">
+        <v>null</v>
+      </c>
+      <c r="K153" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="L153" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/pop_regulation</v>
+      </c>
+      <c r="B154" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C154" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="D154" t="str">
+        <v>null</v>
+      </c>
+      <c r="E154" t="str">
+        <v>POP Regulation</v>
+      </c>
+      <c r="F154" t="str">
+        <v>null</v>
+      </c>
+      <c r="G154" t="str">
+        <v>null</v>
+      </c>
+      <c r="H154" t="str">
+        <v>null</v>
+      </c>
+      <c r="I154" t="str">
+        <v>null</v>
+      </c>
+      <c r="J154" t="str">
+        <v>null</v>
+      </c>
+      <c r="K154" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="L154" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+      </c>
+      <c r="B155" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C155" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="D155" t="str">
+        <v>null</v>
+      </c>
+      <c r="E155" t="str">
+        <v>REACH SVHC Candidate list</v>
+      </c>
+      <c r="F155" t="str">
+        <v>null</v>
+      </c>
+      <c r="G155" t="str">
+        <v>null</v>
+      </c>
+      <c r="H155" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
+      </c>
+      <c r="I155" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
+      </c>
+      <c r="J155" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
+      </c>
+      <c r="K155" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="L155" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+      </c>
+      <c r="B156" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C156" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="D156" t="str">
+        <v>null</v>
+      </c>
+      <c r="E156" t="str">
+        <v>UBA PMT</v>
+      </c>
+      <c r="F156" t="str">
+        <v>null</v>
+      </c>
+      <c r="G156" t="str">
+        <v>null</v>
+      </c>
+      <c r="H156" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
+      </c>
+      <c r="I156" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
+      </c>
+      <c r="J156" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
+      </c>
+      <c r="K156" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="L156" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+      </c>
+      <c r="B157" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
-      <c r="C149" t="str">
-        <v>null</v>
-      </c>
-      <c r="D149" t="str">
-        <v>null</v>
-      </c>
-      <c r="E149" t="str">
+      <c r="C157" t="str">
+        <v>null</v>
+      </c>
+      <c r="D157" t="str">
+        <v>null</v>
+      </c>
+      <c r="E157" t="str">
         <v>Codelijst zorgwekkende stoffen</v>
       </c>
-      <c r="F149" t="str">
-        <v>null</v>
-      </c>
-      <c r="G149" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
+      <c r="F157" t="str">
+        <v>null</v>
+      </c>
+      <c r="G157" t="str">
+        <v>null</v>
+      </c>
+      <c r="H157" t="str">
+        <v>null</v>
+      </c>
+      <c r="I157" t="str">
+        <v>null</v>
+      </c>
+      <c r="J157" t="str">
+        <v>null</v>
+      </c>
+      <c r="K157" t="str">
+        <v>null</v>
+      </c>
+      <c r="L157" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/pop_regulation</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G149"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L157"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/zorgwekkende_stof/zorgwekkende_stof.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/zorgwekkende_stof/zorgwekkende_stof.xlsx
@@ -419,19 +419,19 @@
         <v>prefLabel</v>
       </c>
       <c r="F1" t="str">
-        <v>broader</v>
+        <v>narrower</v>
       </c>
       <c r="G1" t="str">
-        <v>broaderTransitive</v>
+        <v>narrowerTransitive</v>
       </c>
       <c r="H1" t="str">
         <v>semanticRelation</v>
       </c>
       <c r="I1" t="str">
-        <v>narrower</v>
+        <v>broader</v>
       </c>
       <c r="J1" t="str">
-        <v>narrowerTransitive</v>
+        <v>broaderTransitive</v>
       </c>
       <c r="K1" t="str">
         <v>topConceptOf</v>
@@ -632,28 +632,28 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/</v>
       </c>
       <c r="B7" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Collection|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>null</v>
       </c>
       <c r="D7" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
       </c>
       <c r="E7" t="str">
         <v>null</v>
       </c>
       <c r="F7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
       </c>
       <c r="G7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
       </c>
       <c r="H7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
       </c>
       <c r="I7" t="str">
         <v>null</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N</v>
       </c>
       <c r="B8" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -685,19 +685,19 @@
         <v>null</v>
       </c>
       <c r="F8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I8" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="J8" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="K8" t="str">
         <v>null</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N</v>
       </c>
       <c r="B9" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -723,19 +723,19 @@
         <v>null</v>
       </c>
       <c r="F9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="G9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="H9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I9" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J9" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K9" t="str">
         <v>null</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B10" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -761,19 +761,19 @@
         <v>null</v>
       </c>
       <c r="F10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I10" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J10" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K10" t="str">
         <v>null</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N</v>
       </c>
       <c r="B11" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -799,19 +799,19 @@
         <v>null</v>
       </c>
       <c r="F11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="G11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="H11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I11" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J11" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K11" t="str">
         <v>null</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N</v>
       </c>
       <c r="B12" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -837,19 +837,19 @@
         <v>null</v>
       </c>
       <c r="F12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="G12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="H12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I12" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="J12" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="K12" t="str">
         <v>null</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N</v>
       </c>
       <c r="B13" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -875,19 +875,19 @@
         <v>null</v>
       </c>
       <c r="F13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I13" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J13" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K13" t="str">
         <v>null</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N</v>
       </c>
       <c r="B14" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -913,19 +913,19 @@
         <v>null</v>
       </c>
       <c r="F14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="G14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="H14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I14" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J14" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K14" t="str">
         <v>null</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N</v>
       </c>
       <c r="B15" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -951,19 +951,19 @@
         <v>null</v>
       </c>
       <c r="F15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I15" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="J15" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="K15" t="str">
         <v>null</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N</v>
       </c>
       <c r="B16" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -989,19 +989,19 @@
         <v>null</v>
       </c>
       <c r="F16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I16" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J16" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K16" t="str">
         <v>null</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N</v>
       </c>
       <c r="B17" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1027,19 +1027,19 @@
         <v>null</v>
       </c>
       <c r="F17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="G17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="H17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I17" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J17" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K17" t="str">
         <v>null</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N</v>
       </c>
       <c r="B18" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1065,19 +1065,19 @@
         <v>null</v>
       </c>
       <c r="F18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I18" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="J18" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="K18" t="str">
         <v>null</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N</v>
       </c>
       <c r="B19" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1103,19 +1103,19 @@
         <v>null</v>
       </c>
       <c r="F19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="G19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="H19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I19" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J19" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K19" t="str">
         <v>null</v>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N</v>
       </c>
       <c r="B20" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1141,19 +1141,19 @@
         <v>null</v>
       </c>
       <c r="F20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="G20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="H20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I20" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J20" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K20" t="str">
         <v>null</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N</v>
       </c>
       <c r="B21" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1179,19 +1179,19 @@
         <v>null</v>
       </c>
       <c r="F21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="G21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="H21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I21" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="J21" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="K21" t="str">
         <v>null</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N</v>
       </c>
       <c r="B22" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1217,19 +1217,19 @@
         <v>null</v>
       </c>
       <c r="F22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I22" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="J22" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="K22" t="str">
         <v>null</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N</v>
       </c>
       <c r="B23" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1255,19 +1255,19 @@
         <v>null</v>
       </c>
       <c r="F23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="G23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="H23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I23" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J23" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K23" t="str">
         <v>null</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N</v>
       </c>
       <c r="B24" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1293,19 +1293,19 @@
         <v>null</v>
       </c>
       <c r="F24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="G24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="H24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I24" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J24" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K24" t="str">
         <v>null</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N</v>
       </c>
       <c r="B25" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1331,19 +1331,19 @@
         <v>null</v>
       </c>
       <c r="F25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>null</v>
       </c>
       <c r="G25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>null</v>
       </c>
       <c r="H25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I25" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="J25" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="K25" t="str">
         <v>null</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N</v>
       </c>
       <c r="B26" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1369,19 +1369,19 @@
         <v>null</v>
       </c>
       <c r="F26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="I26" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="J26" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="K26" t="str">
         <v>null</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N</v>
       </c>
       <c r="B27" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1407,19 +1407,19 @@
         <v>null</v>
       </c>
       <c r="F27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I27" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J27" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K27" t="str">
         <v>null</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N</v>
       </c>
       <c r="B28" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1445,19 +1445,19 @@
         <v>null</v>
       </c>
       <c r="F28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I28" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J28" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K28" t="str">
         <v>null</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N</v>
       </c>
       <c r="B29" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1483,19 +1483,19 @@
         <v>null</v>
       </c>
       <c r="F29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I29" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J29" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K29" t="str">
         <v>null</v>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N</v>
       </c>
       <c r="B30" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1521,19 +1521,19 @@
         <v>null</v>
       </c>
       <c r="F30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I30" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J30" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K30" t="str">
         <v>null</v>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N</v>
       </c>
       <c r="B31" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1559,19 +1559,19 @@
         <v>null</v>
       </c>
       <c r="F31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K31" t="str">
         <v>null</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N</v>
       </c>
       <c r="B32" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1597,19 +1597,19 @@
         <v>null</v>
       </c>
       <c r="F32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="G32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="H32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I32" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J32" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K32" t="str">
         <v>null</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N</v>
       </c>
       <c r="B33" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1635,19 +1635,19 @@
         <v>null</v>
       </c>
       <c r="F33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K33" t="str">
         <v>null</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N</v>
       </c>
       <c r="B34" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1673,19 +1673,19 @@
         <v>null</v>
       </c>
       <c r="F34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I34" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J34" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K34" t="str">
         <v>null</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N</v>
       </c>
       <c r="B35" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1711,19 +1711,19 @@
         <v>null</v>
       </c>
       <c r="F35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K35" t="str">
         <v>null</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N</v>
       </c>
       <c r="B36" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1749,19 +1749,19 @@
         <v>null</v>
       </c>
       <c r="F36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K36" t="str">
         <v>null</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N</v>
       </c>
       <c r="B37" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1787,19 +1787,19 @@
         <v>null</v>
       </c>
       <c r="F37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K37" t="str">
         <v>null</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N</v>
       </c>
       <c r="B38" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1825,19 +1825,19 @@
         <v>null</v>
       </c>
       <c r="F38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K38" t="str">
         <v>null</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N</v>
       </c>
       <c r="B39" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1863,19 +1863,19 @@
         <v>null</v>
       </c>
       <c r="F39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="G39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="H39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I39" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J39" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K39" t="str">
         <v>null</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N</v>
       </c>
       <c r="B40" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1901,19 +1901,19 @@
         <v>null</v>
       </c>
       <c r="F40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="J40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="K40" t="str">
         <v>null</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N</v>
       </c>
       <c r="B41" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1939,19 +1939,19 @@
         <v>null</v>
       </c>
       <c r="F41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="G41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="H41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I41" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J41" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K41" t="str">
         <v>null</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N</v>
       </c>
       <c r="B42" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1977,19 +1977,19 @@
         <v>null</v>
       </c>
       <c r="F42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="G42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="H42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I42" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="J42" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="K42" t="str">
         <v>null</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N</v>
       </c>
       <c r="B43" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2015,19 +2015,19 @@
         <v>null</v>
       </c>
       <c r="F43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I43" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J43" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K43" t="str">
         <v>null</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N</v>
       </c>
       <c r="B44" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2053,19 +2053,19 @@
         <v>null</v>
       </c>
       <c r="F44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>null</v>
       </c>
       <c r="G44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>null</v>
       </c>
       <c r="H44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I44" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J44" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K44" t="str">
         <v>null</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N</v>
       </c>
       <c r="B45" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2091,19 +2091,19 @@
         <v>null</v>
       </c>
       <c r="F45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="I45" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="J45" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="K45" t="str">
         <v>null</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N</v>
       </c>
       <c r="B46" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2129,19 +2129,19 @@
         <v>null</v>
       </c>
       <c r="F46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>null</v>
       </c>
       <c r="G46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>null</v>
       </c>
       <c r="H46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I46" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J46" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K46" t="str">
         <v>null</v>
@@ -2152,7 +2152,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B47" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2167,19 +2167,19 @@
         <v>null</v>
       </c>
       <c r="F47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="I47" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="J47" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="K47" t="str">
         <v>null</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N</v>
       </c>
       <c r="B48" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2205,19 +2205,19 @@
         <v>null</v>
       </c>
       <c r="F48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I48" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J48" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K48" t="str">
         <v>null</v>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B49" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2243,19 +2243,19 @@
         <v>null</v>
       </c>
       <c r="F49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="G49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="H49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I49" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J49" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K49" t="str">
         <v>null</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N</v>
       </c>
       <c r="B50" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2281,19 +2281,19 @@
         <v>null</v>
       </c>
       <c r="F50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I50" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J50" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K50" t="str">
         <v>null</v>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N</v>
       </c>
       <c r="B51" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2319,19 +2319,19 @@
         <v>null</v>
       </c>
       <c r="F51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I51" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J51" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K51" t="str">
         <v>null</v>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N</v>
       </c>
       <c r="B52" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2357,19 +2357,19 @@
         <v>null</v>
       </c>
       <c r="F52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>null</v>
       </c>
       <c r="G52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>null</v>
       </c>
       <c r="H52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I52" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J52" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K52" t="str">
         <v>null</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B53" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2395,19 +2395,19 @@
         <v>null</v>
       </c>
       <c r="F53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="I53" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="J53" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="K53" t="str">
         <v>null</v>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N</v>
       </c>
       <c r="B54" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2433,19 +2433,19 @@
         <v>null</v>
       </c>
       <c r="F54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I54" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J54" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K54" t="str">
         <v>null</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N</v>
       </c>
       <c r="B55" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2471,19 +2471,19 @@
         <v>null</v>
       </c>
       <c r="F55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="G55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="H55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I55" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J55" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K55" t="str">
         <v>null</v>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N</v>
       </c>
       <c r="B56" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2509,19 +2509,19 @@
         <v>null</v>
       </c>
       <c r="F56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="G56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="H56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I56" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J56" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K56" t="str">
         <v>null</v>
@@ -2532,7 +2532,7 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N</v>
       </c>
       <c r="B57" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2547,19 +2547,19 @@
         <v>null</v>
       </c>
       <c r="F57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I57" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J57" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K57" t="str">
         <v>null</v>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N</v>
       </c>
       <c r="B58" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2585,19 +2585,19 @@
         <v>null</v>
       </c>
       <c r="F58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="G58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="H58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I58" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J58" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K58" t="str">
         <v>null</v>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N</v>
       </c>
       <c r="B59" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2623,19 +2623,19 @@
         <v>null</v>
       </c>
       <c r="F59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="G59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="H59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I59" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="J59" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="K59" t="str">
         <v>null</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N</v>
       </c>
       <c r="B60" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2661,19 +2661,19 @@
         <v>null</v>
       </c>
       <c r="F60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I60" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J60" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K60" t="str">
         <v>null</v>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N</v>
       </c>
       <c r="B61" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2699,19 +2699,19 @@
         <v>null</v>
       </c>
       <c r="F61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I61" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J61" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K61" t="str">
         <v>null</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N</v>
       </c>
       <c r="B62" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2737,19 +2737,19 @@
         <v>null</v>
       </c>
       <c r="F62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I62" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J62" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K62" t="str">
         <v>null</v>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N</v>
       </c>
       <c r="B63" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2775,19 +2775,19 @@
         <v>null</v>
       </c>
       <c r="F63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I63" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J63" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K63" t="str">
         <v>null</v>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B64" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2813,19 +2813,19 @@
         <v>null</v>
       </c>
       <c r="F64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I64" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J64" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K64" t="str">
         <v>null</v>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N</v>
       </c>
       <c r="B65" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2851,19 +2851,19 @@
         <v>null</v>
       </c>
       <c r="F65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I65" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J65" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K65" t="str">
         <v>null</v>
@@ -2874,7 +2874,7 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N</v>
       </c>
       <c r="B66" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2889,19 +2889,19 @@
         <v>null</v>
       </c>
       <c r="F66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>null</v>
       </c>
       <c r="G66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>null</v>
       </c>
       <c r="H66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I66" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J66" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K66" t="str">
         <v>null</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N</v>
       </c>
       <c r="B67" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2927,19 +2927,19 @@
         <v>null</v>
       </c>
       <c r="F67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="I67" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="J67" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="K67" t="str">
         <v>null</v>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N</v>
       </c>
       <c r="B68" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2965,19 +2965,19 @@
         <v>null</v>
       </c>
       <c r="F68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="G68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="H68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I68" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J68" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K68" t="str">
         <v>null</v>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B69" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3003,19 +3003,19 @@
         <v>null</v>
       </c>
       <c r="F69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I69" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="J69" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="K69" t="str">
         <v>null</v>
@@ -3026,7 +3026,7 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N</v>
       </c>
       <c r="B70" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3041,19 +3041,19 @@
         <v>null</v>
       </c>
       <c r="F70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="G70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="H70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I70" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J70" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K70" t="str">
         <v>null</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N</v>
       </c>
       <c r="B71" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3079,19 +3079,19 @@
         <v>null</v>
       </c>
       <c r="F71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="G71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="H71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I71" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="J71" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="K71" t="str">
         <v>null</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N</v>
       </c>
       <c r="B72" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3117,19 +3117,19 @@
         <v>null</v>
       </c>
       <c r="F72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="G72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="H72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I72" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J72" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K72" t="str">
         <v>null</v>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N</v>
       </c>
       <c r="B73" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3155,19 +3155,19 @@
         <v>null</v>
       </c>
       <c r="F73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="G73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="H73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I73" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J73" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K73" t="str">
         <v>null</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N</v>
       </c>
       <c r="B74" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3193,19 +3193,19 @@
         <v>null</v>
       </c>
       <c r="F74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I74" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J74" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K74" t="str">
         <v>null</v>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N</v>
       </c>
       <c r="B75" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3231,19 +3231,19 @@
         <v>null</v>
       </c>
       <c r="F75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I75" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J75" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K75" t="str">
         <v>null</v>
@@ -3254,7 +3254,7 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N</v>
       </c>
       <c r="B76" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3269,19 +3269,19 @@
         <v>null</v>
       </c>
       <c r="F76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I76" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J76" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K76" t="str">
         <v>null</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N</v>
       </c>
       <c r="B77" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3307,19 +3307,19 @@
         <v>null</v>
       </c>
       <c r="F77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I77" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J77" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K77" t="str">
         <v>null</v>
@@ -3330,7 +3330,7 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N</v>
       </c>
       <c r="B78" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3345,19 +3345,19 @@
         <v>null</v>
       </c>
       <c r="F78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="G78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="H78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I78" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J78" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K78" t="str">
         <v>null</v>
@@ -3368,7 +3368,7 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N</v>
       </c>
       <c r="B79" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3383,19 +3383,19 @@
         <v>null</v>
       </c>
       <c r="F79" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="G79" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="H79" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I79" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J79" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K79" t="str">
         <v>null</v>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N</v>
       </c>
       <c r="B80" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3421,19 +3421,19 @@
         <v>null</v>
       </c>
       <c r="F80" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G80" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H80" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I80" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="J80" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="K80" t="str">
         <v>null</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N</v>
       </c>
       <c r="B81" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3459,19 +3459,19 @@
         <v>null</v>
       </c>
       <c r="F81" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="G81" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="H81" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I81" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J81" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K81" t="str">
         <v>null</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N</v>
       </c>
       <c r="B82" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3497,19 +3497,19 @@
         <v>null</v>
       </c>
       <c r="F82" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G82" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H82" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I82" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="J82" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="K82" t="str">
         <v>null</v>
@@ -3520,7 +3520,7 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B83" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3535,19 +3535,19 @@
         <v>null</v>
       </c>
       <c r="F83" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="G83" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="H83" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I83" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J83" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K83" t="str">
         <v>null</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N</v>
       </c>
       <c r="B84" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3573,19 +3573,19 @@
         <v>null</v>
       </c>
       <c r="F84" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G84" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H84" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I84" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="J84" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="K84" t="str">
         <v>null</v>
@@ -3596,7 +3596,7 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N</v>
       </c>
       <c r="B85" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3611,19 +3611,19 @@
         <v>null</v>
       </c>
       <c r="F85" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G85" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H85" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I85" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J85" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K85" t="str">
         <v>null</v>
@@ -3634,7 +3634,7 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N</v>
       </c>
       <c r="B86" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3649,19 +3649,19 @@
         <v>null</v>
       </c>
       <c r="F86" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G86" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H86" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I86" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J86" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K86" t="str">
         <v>null</v>
@@ -3672,7 +3672,7 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N</v>
       </c>
       <c r="B87" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3687,19 +3687,19 @@
         <v>null</v>
       </c>
       <c r="F87" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G87" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H87" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I87" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J87" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K87" t="str">
         <v>null</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N</v>
       </c>
       <c r="B88" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3725,19 +3725,19 @@
         <v>null</v>
       </c>
       <c r="F88" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="G88" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="H88" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I88" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J88" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K88" t="str">
         <v>null</v>
@@ -3748,7 +3748,7 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N</v>
       </c>
       <c r="B89" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3763,19 +3763,19 @@
         <v>null</v>
       </c>
       <c r="F89" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="G89" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="H89" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I89" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J89" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K89" t="str">
         <v>null</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N</v>
       </c>
       <c r="B90" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3801,19 +3801,19 @@
         <v>null</v>
       </c>
       <c r="F90" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G90" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H90" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I90" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J90" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K90" t="str">
         <v>null</v>
@@ -3824,7 +3824,7 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N</v>
       </c>
       <c r="B91" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3839,19 +3839,19 @@
         <v>null</v>
       </c>
       <c r="F91" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G91" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H91" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I91" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J91" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K91" t="str">
         <v>null</v>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N</v>
       </c>
       <c r="B92" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3877,19 +3877,19 @@
         <v>null</v>
       </c>
       <c r="F92" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="G92" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="H92" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I92" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J92" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K92" t="str">
         <v>null</v>
@@ -3900,7 +3900,7 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N</v>
       </c>
       <c r="B93" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3915,19 +3915,19 @@
         <v>null</v>
       </c>
       <c r="F93" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G93" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H93" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I93" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="J93" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="K93" t="str">
         <v>null</v>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N</v>
       </c>
       <c r="B94" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3953,19 +3953,19 @@
         <v>null</v>
       </c>
       <c r="F94" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G94" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H94" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I94" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J94" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K94" t="str">
         <v>null</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N</v>
       </c>
       <c r="B95" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3991,19 +3991,19 @@
         <v>null</v>
       </c>
       <c r="F95" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G95" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H95" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I95" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J95" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K95" t="str">
         <v>null</v>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B96" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4029,19 +4029,19 @@
         <v>null</v>
       </c>
       <c r="F96" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G96" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H96" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I96" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J96" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K96" t="str">
         <v>null</v>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N</v>
       </c>
       <c r="B97" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4067,19 +4067,19 @@
         <v>null</v>
       </c>
       <c r="F97" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G97" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H97" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I97" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J97" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K97" t="str">
         <v>null</v>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B98" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4105,19 +4105,19 @@
         <v>null</v>
       </c>
       <c r="F98" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="G98" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="H98" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I98" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J98" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K98" t="str">
         <v>null</v>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N</v>
       </c>
       <c r="B99" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4143,19 +4143,19 @@
         <v>null</v>
       </c>
       <c r="F99" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G99" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H99" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I99" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J99" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K99" t="str">
         <v>null</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N</v>
       </c>
       <c r="B100" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4181,19 +4181,19 @@
         <v>null</v>
       </c>
       <c r="F100" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G100" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H100" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I100" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J100" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K100" t="str">
         <v>null</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N</v>
       </c>
       <c r="B101" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4219,19 +4219,19 @@
         <v>null</v>
       </c>
       <c r="F101" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G101" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H101" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I101" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J101" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K101" t="str">
         <v>null</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N</v>
       </c>
       <c r="B102" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4257,19 +4257,19 @@
         <v>null</v>
       </c>
       <c r="F102" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="G102" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="H102" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I102" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J102" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K102" t="str">
         <v>null</v>
@@ -4280,7 +4280,7 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N</v>
       </c>
       <c r="B103" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4295,19 +4295,19 @@
         <v>null</v>
       </c>
       <c r="F103" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G103" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H103" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I103" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="J103" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="K103" t="str">
         <v>null</v>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N</v>
       </c>
       <c r="B104" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4333,19 +4333,19 @@
         <v>null</v>
       </c>
       <c r="F104" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G104" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H104" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I104" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J104" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K104" t="str">
         <v>null</v>
@@ -4356,7 +4356,7 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N</v>
       </c>
       <c r="B105" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4371,19 +4371,19 @@
         <v>null</v>
       </c>
       <c r="F105" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G105" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H105" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I105" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J105" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K105" t="str">
         <v>null</v>
@@ -4394,7 +4394,7 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N</v>
       </c>
       <c r="B106" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4409,19 +4409,19 @@
         <v>null</v>
       </c>
       <c r="F106" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="G106" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="H106" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I106" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J106" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K106" t="str">
         <v>null</v>
@@ -4432,7 +4432,7 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N</v>
       </c>
       <c r="B107" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4447,19 +4447,19 @@
         <v>null</v>
       </c>
       <c r="F107" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G107" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H107" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I107" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="J107" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="K107" t="str">
         <v>null</v>
@@ -4470,7 +4470,7 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N</v>
       </c>
       <c r="B108" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4485,19 +4485,19 @@
         <v>null</v>
       </c>
       <c r="F108" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="G108" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="H108" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I108" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J108" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K108" t="str">
         <v>null</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N</v>
       </c>
       <c r="B109" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4523,19 +4523,19 @@
         <v>null</v>
       </c>
       <c r="F109" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="G109" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="H109" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I109" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J109" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K109" t="str">
         <v>null</v>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N</v>
       </c>
       <c r="B110" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4561,19 +4561,19 @@
         <v>null</v>
       </c>
       <c r="F110" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="G110" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="H110" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I110" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J110" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K110" t="str">
         <v>null</v>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N</v>
       </c>
       <c r="B111" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4599,19 +4599,19 @@
         <v>null</v>
       </c>
       <c r="F111" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G111" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H111" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I111" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="J111" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="K111" t="str">
         <v>null</v>
@@ -4622,7 +4622,7 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N</v>
       </c>
       <c r="B112" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4637,19 +4637,19 @@
         <v>null</v>
       </c>
       <c r="F112" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G112" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H112" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I112" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J112" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K112" t="str">
         <v>null</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B113" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4675,19 +4675,19 @@
         <v>null</v>
       </c>
       <c r="F113" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G113" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H113" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I113" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J113" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K113" t="str">
         <v>null</v>
@@ -4698,7 +4698,7 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N</v>
       </c>
       <c r="B114" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4713,19 +4713,19 @@
         <v>null</v>
       </c>
       <c r="F114" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G114" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H114" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I114" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J114" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K114" t="str">
         <v>null</v>
@@ -4736,7 +4736,7 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N</v>
       </c>
       <c r="B115" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4751,19 +4751,19 @@
         <v>null</v>
       </c>
       <c r="F115" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="G115" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="H115" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I115" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J115" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K115" t="str">
         <v>null</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N</v>
       </c>
       <c r="B116" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4789,19 +4789,19 @@
         <v>null</v>
       </c>
       <c r="F116" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>null</v>
       </c>
       <c r="G116" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>null</v>
       </c>
       <c r="H116" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I116" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="J116" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="K116" t="str">
         <v>null</v>
@@ -4812,7 +4812,7 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N</v>
       </c>
       <c r="B117" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4827,19 +4827,19 @@
         <v>null</v>
       </c>
       <c r="F117" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G117" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H117" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="I117" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="J117" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="K117" t="str">
         <v>null</v>
@@ -4850,7 +4850,7 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N</v>
       </c>
       <c r="B118" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4865,19 +4865,19 @@
         <v>null</v>
       </c>
       <c r="F118" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="G118" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="H118" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I118" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J118" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K118" t="str">
         <v>null</v>
@@ -4888,7 +4888,7 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N</v>
       </c>
       <c r="B119" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4903,19 +4903,19 @@
         <v>null</v>
       </c>
       <c r="F119" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="G119" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="H119" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I119" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="J119" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="K119" t="str">
         <v>null</v>
@@ -4926,7 +4926,7 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N</v>
       </c>
       <c r="B120" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4941,19 +4941,19 @@
         <v>null</v>
       </c>
       <c r="F120" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G120" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H120" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I120" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="J120" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="K120" t="str">
         <v>null</v>
@@ -4964,7 +4964,7 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N</v>
       </c>
       <c r="B121" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4979,19 +4979,19 @@
         <v>null</v>
       </c>
       <c r="F121" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="G121" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="H121" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I121" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J121" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K121" t="str">
         <v>null</v>
@@ -5002,7 +5002,7 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N</v>
       </c>
       <c r="B122" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5017,19 +5017,19 @@
         <v>null</v>
       </c>
       <c r="F122" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G122" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H122" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I122" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J122" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K122" t="str">
         <v>null</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N</v>
       </c>
       <c r="B123" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5055,19 +5055,19 @@
         <v>null</v>
       </c>
       <c r="F123" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G123" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H123" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I123" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J123" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K123" t="str">
         <v>null</v>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N</v>
       </c>
       <c r="B124" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5093,19 +5093,19 @@
         <v>null</v>
       </c>
       <c r="F124" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G124" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H124" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I124" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J124" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K124" t="str">
         <v>null</v>
@@ -5116,7 +5116,7 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N</v>
       </c>
       <c r="B125" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5131,19 +5131,19 @@
         <v>null</v>
       </c>
       <c r="F125" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G125" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H125" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I125" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J125" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K125" t="str">
         <v>null</v>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N</v>
       </c>
       <c r="B126" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5169,19 +5169,19 @@
         <v>null</v>
       </c>
       <c r="F126" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="G126" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="H126" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I126" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J126" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K126" t="str">
         <v>null</v>
@@ -5192,7 +5192,7 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N</v>
       </c>
       <c r="B127" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5207,19 +5207,19 @@
         <v>null</v>
       </c>
       <c r="F127" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G127" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H127" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I127" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="J127" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="K127" t="str">
         <v>null</v>
@@ -5230,7 +5230,7 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N</v>
       </c>
       <c r="B128" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5245,19 +5245,19 @@
         <v>null</v>
       </c>
       <c r="F128" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="G128" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="H128" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I128" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J128" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K128" t="str">
         <v>null</v>
@@ -5268,7 +5268,7 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N</v>
       </c>
       <c r="B129" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5283,19 +5283,19 @@
         <v>null</v>
       </c>
       <c r="F129" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G129" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H129" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I129" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="J129" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="K129" t="str">
         <v>null</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N</v>
       </c>
       <c r="B130" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5321,19 +5321,19 @@
         <v>null</v>
       </c>
       <c r="F130" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G130" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H130" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I130" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J130" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K130" t="str">
         <v>null</v>
@@ -5344,7 +5344,7 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N</v>
       </c>
       <c r="B131" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5359,19 +5359,19 @@
         <v>null</v>
       </c>
       <c r="F131" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G131" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H131" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I131" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J131" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K131" t="str">
         <v>null</v>
@@ -5382,7 +5382,7 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N</v>
       </c>
       <c r="B132" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5397,19 +5397,19 @@
         <v>null</v>
       </c>
       <c r="F132" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G132" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H132" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I132" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J132" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K132" t="str">
         <v>null</v>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N</v>
       </c>
       <c r="B133" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5435,19 +5435,19 @@
         <v>null</v>
       </c>
       <c r="F133" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="G133" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="H133" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I133" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J133" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K133" t="str">
         <v>null</v>
@@ -5458,7 +5458,7 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N</v>
       </c>
       <c r="B134" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5473,19 +5473,19 @@
         <v>null</v>
       </c>
       <c r="F134" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G134" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H134" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I134" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J134" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K134" t="str">
         <v>null</v>
@@ -5496,7 +5496,7 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B135" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5511,19 +5511,19 @@
         <v>null</v>
       </c>
       <c r="F135" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G135" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H135" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I135" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J135" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K135" t="str">
         <v>null</v>
@@ -5534,7 +5534,7 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N</v>
       </c>
       <c r="B136" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5549,19 +5549,19 @@
         <v>null</v>
       </c>
       <c r="F136" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G136" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H136" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I136" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J136" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K136" t="str">
         <v>null</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N</v>
       </c>
       <c r="B137" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5587,19 +5587,19 @@
         <v>null</v>
       </c>
       <c r="F137" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G137" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H137" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I137" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J137" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K137" t="str">
         <v>null</v>
@@ -5610,7 +5610,7 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N</v>
       </c>
       <c r="B138" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5625,19 +5625,19 @@
         <v>null</v>
       </c>
       <c r="F138" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="G138" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="H138" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I138" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J138" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K138" t="str">
         <v>null</v>
@@ -5648,7 +5648,7 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N</v>
       </c>
       <c r="B139" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5663,19 +5663,19 @@
         <v>null</v>
       </c>
       <c r="F139" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G139" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H139" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I139" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J139" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K139" t="str">
         <v>null</v>
@@ -5686,7 +5686,7 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N</v>
       </c>
       <c r="B140" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5701,19 +5701,19 @@
         <v>null</v>
       </c>
       <c r="F140" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G140" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H140" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I140" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J140" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K140" t="str">
         <v>null</v>
@@ -5724,7 +5724,7 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B141" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5739,19 +5739,19 @@
         <v>null</v>
       </c>
       <c r="F141" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G141" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H141" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I141" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J141" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K141" t="str">
         <v>null</v>
@@ -5762,7 +5762,7 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N</v>
       </c>
       <c r="B142" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5777,19 +5777,19 @@
         <v>null</v>
       </c>
       <c r="F142" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G142" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H142" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I142" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J142" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K142" t="str">
         <v>null</v>
@@ -5800,7 +5800,7 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
       </c>
       <c r="B143" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5815,19 +5815,19 @@
         <v>null</v>
       </c>
       <c r="F143" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G143" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H143" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I143" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J143" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K143" t="str">
         <v>null</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N</v>
       </c>
       <c r="B144" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5853,19 +5853,19 @@
         <v>null</v>
       </c>
       <c r="F144" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="G144" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="H144" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I144" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J144" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K144" t="str">
         <v>null</v>
@@ -5876,7 +5876,7 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B145" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5891,19 +5891,19 @@
         <v>null</v>
       </c>
       <c r="F145" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G145" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H145" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I145" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="J145" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="K145" t="str">
         <v>null</v>
@@ -5914,7 +5914,7 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N</v>
       </c>
       <c r="B146" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5929,19 +5929,19 @@
         <v>null</v>
       </c>
       <c r="F146" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G146" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H146" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I146" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J146" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K146" t="str">
         <v>null</v>
@@ -5952,7 +5952,7 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
       </c>
       <c r="B147" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5967,19 +5967,19 @@
         <v>null</v>
       </c>
       <c r="F147" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="G147" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="H147" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I147" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J147" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K147" t="str">
         <v>null</v>
@@ -5990,7 +5990,7 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
       </c>
       <c r="B148" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6005,19 +6005,19 @@
         <v>null</v>
       </c>
       <c r="F148" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G148" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H148" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I148" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="J148" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="K148" t="str">
         <v>null</v>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N</v>
       </c>
       <c r="B149" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6043,19 +6043,19 @@
         <v>null</v>
       </c>
       <c r="F149" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G149" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H149" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I149" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J149" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K149" t="str">
         <v>null</v>
@@ -6066,13 +6066,13 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
       </c>
       <c r="B150" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C150" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D150" t="str">
         <v>null</v>
@@ -6087,13 +6087,13 @@
         <v>null</v>
       </c>
       <c r="H150" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I150" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J150" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K150" t="str">
         <v>null</v>
@@ -6119,19 +6119,19 @@
         <v>C&amp;L Harmonized classification</v>
       </c>
       <c r="F151" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
       </c>
       <c r="G151" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
       </c>
       <c r="H151" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
       </c>
       <c r="I151" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="J151" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="K151" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
@@ -6157,19 +6157,19 @@
         <v>edlists.org List I</v>
       </c>
       <c r="F152" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
       </c>
       <c r="G152" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
       </c>
       <c r="H152" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
       </c>
       <c r="I152" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="J152" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="K152" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
@@ -6195,13 +6195,13 @@
         <v>eigen</v>
       </c>
       <c r="F153" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
       </c>
       <c r="G153" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
       </c>
       <c r="H153" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
       </c>
       <c r="I153" t="str">
         <v>null</v>
@@ -6271,19 +6271,19 @@
         <v>REACH SVHC Candidate list</v>
       </c>
       <c r="F155" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
       </c>
       <c r="G155" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
       </c>
       <c r="H155" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
       </c>
       <c r="I155" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="J155" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="K155" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
@@ -6309,19 +6309,19 @@
         <v>UBA PMT</v>
       </c>
       <c r="F156" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
       </c>
       <c r="G156" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
       </c>
       <c r="H156" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
       </c>
       <c r="I156" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="J156" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="K156" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
@@ -6365,7 +6365,7 @@
         <v>null</v>
       </c>
       <c r="L157" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/pop_regulation</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/pop_regulation</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/zorgwekkende_stof/zorgwekkende_stof.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/zorgwekkende_stof/zorgwekkende_stof.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L157"/>
+  <dimension ref="A1:L156"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -419,19 +419,19 @@
         <v>prefLabel</v>
       </c>
       <c r="F1" t="str">
-        <v>narrower</v>
+        <v>broader</v>
       </c>
       <c r="G1" t="str">
-        <v>narrowerTransitive</v>
+        <v>broaderTransitive</v>
       </c>
       <c r="H1" t="str">
         <v>semanticRelation</v>
       </c>
       <c r="I1" t="str">
-        <v>broader</v>
+        <v>narrower</v>
       </c>
       <c r="J1" t="str">
-        <v>broaderTransitive</v>
+        <v>narrowerTransitive</v>
       </c>
       <c r="K1" t="str">
         <v>topConceptOf</v>
@@ -632,28 +632,28 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N</v>
       </c>
       <c r="B7" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Collection|http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C7" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="D7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="E7" t="str">
         <v>null</v>
       </c>
       <c r="F7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="H7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I7" t="str">
         <v>null</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N</v>
       </c>
       <c r="B8" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -685,19 +685,19 @@
         <v>null</v>
       </c>
       <c r="F8" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G8" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="J8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="K8" t="str">
         <v>null</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B9" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -723,19 +723,19 @@
         <v>null</v>
       </c>
       <c r="F9" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G9" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K9" t="str">
         <v>null</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N</v>
       </c>
       <c r="B10" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -761,19 +761,19 @@
         <v>null</v>
       </c>
       <c r="F10" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G10" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="J10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="K10" t="str">
         <v>null</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N</v>
       </c>
       <c r="B11" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -799,19 +799,19 @@
         <v>null</v>
       </c>
       <c r="F11" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G11" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="H11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K11" t="str">
         <v>null</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N</v>
       </c>
       <c r="B12" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -837,19 +837,19 @@
         <v>null</v>
       </c>
       <c r="F12" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G12" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="J12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="K12" t="str">
         <v>null</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N</v>
       </c>
       <c r="B13" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -875,19 +875,19 @@
         <v>null</v>
       </c>
       <c r="F13" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G13" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="J13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="K13" t="str">
         <v>null</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N</v>
       </c>
       <c r="B14" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -913,19 +913,19 @@
         <v>null</v>
       </c>
       <c r="F14" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G14" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="H14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K14" t="str">
         <v>null</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N</v>
       </c>
       <c r="B15" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -951,19 +951,19 @@
         <v>null</v>
       </c>
       <c r="F15" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G15" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="J15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="K15" t="str">
         <v>null</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N</v>
       </c>
       <c r="B16" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -989,19 +989,19 @@
         <v>null</v>
       </c>
       <c r="F16" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G16" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K16" t="str">
         <v>null</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N</v>
       </c>
       <c r="B17" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1027,19 +1027,19 @@
         <v>null</v>
       </c>
       <c r="F17" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G17" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="H17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K17" t="str">
         <v>null</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N</v>
       </c>
       <c r="B18" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1065,19 +1065,19 @@
         <v>null</v>
       </c>
       <c r="F18" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G18" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="J18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="K18" t="str">
         <v>null</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N</v>
       </c>
       <c r="B19" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1103,19 +1103,19 @@
         <v>null</v>
       </c>
       <c r="F19" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G19" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K19" t="str">
         <v>null</v>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N</v>
       </c>
       <c r="B20" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1141,19 +1141,19 @@
         <v>null</v>
       </c>
       <c r="F20" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G20" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="H20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="J20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="K20" t="str">
         <v>null</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N</v>
       </c>
       <c r="B21" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1179,19 +1179,19 @@
         <v>null</v>
       </c>
       <c r="F21" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G21" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="H21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="J21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="K21" t="str">
         <v>null</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N</v>
       </c>
       <c r="B22" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1217,19 +1217,19 @@
         <v>null</v>
       </c>
       <c r="F22" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G22" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="J22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="K22" t="str">
         <v>null</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N</v>
       </c>
       <c r="B23" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1255,19 +1255,19 @@
         <v>null</v>
       </c>
       <c r="F23" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G23" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K23" t="str">
         <v>null</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N</v>
       </c>
       <c r="B24" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1293,19 +1293,19 @@
         <v>null</v>
       </c>
       <c r="F24" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G24" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="H24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="J24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="K24" t="str">
         <v>null</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N</v>
       </c>
       <c r="B25" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1331,19 +1331,19 @@
         <v>null</v>
       </c>
       <c r="F25" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="G25" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="H25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="I25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="J25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="K25" t="str">
         <v>null</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N</v>
       </c>
       <c r="B26" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1369,19 +1369,19 @@
         <v>null</v>
       </c>
       <c r="F26" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G26" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>null</v>
       </c>
       <c r="J26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>null</v>
       </c>
       <c r="K26" t="str">
         <v>null</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N</v>
       </c>
       <c r="B27" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1407,19 +1407,19 @@
         <v>null</v>
       </c>
       <c r="F27" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G27" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K27" t="str">
         <v>null</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N</v>
       </c>
       <c r="B28" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1445,19 +1445,19 @@
         <v>null</v>
       </c>
       <c r="F28" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G28" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K28" t="str">
         <v>null</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N</v>
       </c>
       <c r="B29" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1483,19 +1483,19 @@
         <v>null</v>
       </c>
       <c r="F29" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G29" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H29" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K29" t="str">
         <v>null</v>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N</v>
       </c>
       <c r="B30" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1521,19 +1521,19 @@
         <v>null</v>
       </c>
       <c r="F30" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G30" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H30" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K30" t="str">
         <v>null</v>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N</v>
       </c>
       <c r="B31" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1559,19 +1559,19 @@
         <v>null</v>
       </c>
       <c r="F31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K31" t="str">
         <v>null</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N</v>
       </c>
       <c r="B32" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1597,19 +1597,19 @@
         <v>null</v>
       </c>
       <c r="F32" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G32" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K32" t="str">
         <v>null</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N</v>
       </c>
       <c r="B33" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1635,19 +1635,19 @@
         <v>null</v>
       </c>
       <c r="F33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="J33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="K33" t="str">
         <v>null</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N</v>
       </c>
       <c r="B34" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1673,19 +1673,19 @@
         <v>null</v>
       </c>
       <c r="F34" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G34" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K34" t="str">
         <v>null</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N</v>
       </c>
       <c r="B35" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1711,19 +1711,19 @@
         <v>null</v>
       </c>
       <c r="F35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K35" t="str">
         <v>null</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N</v>
       </c>
       <c r="B36" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1749,19 +1749,19 @@
         <v>null</v>
       </c>
       <c r="F36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H36" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K36" t="str">
         <v>null</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N</v>
       </c>
       <c r="B37" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1787,19 +1787,19 @@
         <v>null</v>
       </c>
       <c r="F37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K37" t="str">
         <v>null</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N</v>
       </c>
       <c r="B38" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1825,19 +1825,19 @@
         <v>null</v>
       </c>
       <c r="F38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K38" t="str">
         <v>null</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N</v>
       </c>
       <c r="B39" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1863,19 +1863,19 @@
         <v>null</v>
       </c>
       <c r="F39" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G39" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="H39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K39" t="str">
         <v>null</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N</v>
       </c>
       <c r="B40" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1901,19 +1901,19 @@
         <v>null</v>
       </c>
       <c r="F40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="J40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="K40" t="str">
         <v>null</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N</v>
       </c>
       <c r="B41" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1939,19 +1939,19 @@
         <v>null</v>
       </c>
       <c r="F41" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G41" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="H41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K41" t="str">
         <v>null</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N</v>
       </c>
       <c r="B42" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1977,19 +1977,19 @@
         <v>null</v>
       </c>
       <c r="F42" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G42" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="J42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="K42" t="str">
         <v>null</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N</v>
       </c>
       <c r="B43" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2015,19 +2015,19 @@
         <v>null</v>
       </c>
       <c r="F43" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G43" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="J43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="K43" t="str">
         <v>null</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N</v>
       </c>
       <c r="B44" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2053,19 +2053,19 @@
         <v>null</v>
       </c>
       <c r="F44" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="G44" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="H44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="I44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K44" t="str">
         <v>null</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N</v>
       </c>
       <c r="B45" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2091,19 +2091,19 @@
         <v>null</v>
       </c>
       <c r="F45" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G45" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>null</v>
       </c>
       <c r="J45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>null</v>
       </c>
       <c r="K45" t="str">
         <v>null</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B46" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2129,19 +2129,19 @@
         <v>null</v>
       </c>
       <c r="F46" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="G46" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="H46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="I46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K46" t="str">
         <v>null</v>
@@ -2152,7 +2152,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N</v>
       </c>
       <c r="B47" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2167,19 +2167,19 @@
         <v>null</v>
       </c>
       <c r="F47" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G47" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>null</v>
       </c>
       <c r="J47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>null</v>
       </c>
       <c r="K47" t="str">
         <v>null</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B48" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2205,19 +2205,19 @@
         <v>null</v>
       </c>
       <c r="F48" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G48" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K48" t="str">
         <v>null</v>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N</v>
       </c>
       <c r="B49" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2243,19 +2243,19 @@
         <v>null</v>
       </c>
       <c r="F49" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G49" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K49" t="str">
         <v>null</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N</v>
       </c>
       <c r="B50" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2281,19 +2281,19 @@
         <v>null</v>
       </c>
       <c r="F50" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G50" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="J50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="K50" t="str">
         <v>null</v>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N</v>
       </c>
       <c r="B51" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2319,19 +2319,19 @@
         <v>null</v>
       </c>
       <c r="F51" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G51" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K51" t="str">
         <v>null</v>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B52" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2357,19 +2357,19 @@
         <v>null</v>
       </c>
       <c r="F52" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="G52" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="H52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="I52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K52" t="str">
         <v>null</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N</v>
       </c>
       <c r="B53" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2395,19 +2395,19 @@
         <v>null</v>
       </c>
       <c r="F53" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G53" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>null</v>
       </c>
       <c r="J53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>null</v>
       </c>
       <c r="K53" t="str">
         <v>null</v>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N</v>
       </c>
       <c r="B54" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2433,19 +2433,19 @@
         <v>null</v>
       </c>
       <c r="F54" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G54" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K54" t="str">
         <v>null</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N</v>
       </c>
       <c r="B55" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2471,19 +2471,19 @@
         <v>null</v>
       </c>
       <c r="F55" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G55" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K55" t="str">
         <v>null</v>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N</v>
       </c>
       <c r="B56" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2509,19 +2509,19 @@
         <v>null</v>
       </c>
       <c r="F56" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G56" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="J56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="K56" t="str">
         <v>null</v>
@@ -2532,7 +2532,7 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N</v>
       </c>
       <c r="B57" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2547,19 +2547,19 @@
         <v>null</v>
       </c>
       <c r="F57" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G57" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="J57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="K57" t="str">
         <v>null</v>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N</v>
       </c>
       <c r="B58" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2585,19 +2585,19 @@
         <v>null</v>
       </c>
       <c r="F58" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G58" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="H58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K58" t="str">
         <v>null</v>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N</v>
       </c>
       <c r="B59" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2623,19 +2623,19 @@
         <v>null</v>
       </c>
       <c r="F59" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G59" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="J59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="K59" t="str">
         <v>null</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N</v>
       </c>
       <c r="B60" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2661,19 +2661,19 @@
         <v>null</v>
       </c>
       <c r="F60" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G60" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="J60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="K60" t="str">
         <v>null</v>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N</v>
       </c>
       <c r="B61" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2699,19 +2699,19 @@
         <v>null</v>
       </c>
       <c r="F61" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G61" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H61" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K61" t="str">
         <v>null</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N</v>
       </c>
       <c r="B62" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2737,19 +2737,19 @@
         <v>null</v>
       </c>
       <c r="F62" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G62" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K62" t="str">
         <v>null</v>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B63" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2775,19 +2775,19 @@
         <v>null</v>
       </c>
       <c r="F63" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G63" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K63" t="str">
         <v>null</v>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N</v>
       </c>
       <c r="B64" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2813,19 +2813,19 @@
         <v>null</v>
       </c>
       <c r="F64" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G64" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K64" t="str">
         <v>null</v>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N</v>
       </c>
       <c r="B65" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2851,19 +2851,19 @@
         <v>null</v>
       </c>
       <c r="F65" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G65" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K65" t="str">
         <v>null</v>
@@ -2874,7 +2874,7 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N</v>
       </c>
       <c r="B66" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2889,19 +2889,19 @@
         <v>null</v>
       </c>
       <c r="F66" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="G66" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="H66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="I66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K66" t="str">
         <v>null</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N</v>
       </c>
       <c r="B67" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2927,19 +2927,19 @@
         <v>null</v>
       </c>
       <c r="F67" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G67" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>null</v>
       </c>
       <c r="J67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>null</v>
       </c>
       <c r="K67" t="str">
         <v>null</v>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B68" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2965,19 +2965,19 @@
         <v>null</v>
       </c>
       <c r="F68" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G68" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="H68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K68" t="str">
         <v>null</v>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N</v>
       </c>
       <c r="B69" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3003,19 +3003,19 @@
         <v>null</v>
       </c>
       <c r="F69" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G69" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="J69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="K69" t="str">
         <v>null</v>
@@ -3026,7 +3026,7 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N</v>
       </c>
       <c r="B70" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3041,19 +3041,19 @@
         <v>null</v>
       </c>
       <c r="F70" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G70" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="H70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K70" t="str">
         <v>null</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N</v>
       </c>
       <c r="B71" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3079,19 +3079,19 @@
         <v>null</v>
       </c>
       <c r="F71" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G71" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="J71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="K71" t="str">
         <v>null</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N</v>
       </c>
       <c r="B72" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3117,19 +3117,19 @@
         <v>null</v>
       </c>
       <c r="F72" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G72" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="J72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="K72" t="str">
         <v>null</v>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N</v>
       </c>
       <c r="B73" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3155,19 +3155,19 @@
         <v>null</v>
       </c>
       <c r="F73" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G73" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="J73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="K73" t="str">
         <v>null</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N</v>
       </c>
       <c r="B74" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3193,19 +3193,19 @@
         <v>null</v>
       </c>
       <c r="F74" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G74" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="J74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="K74" t="str">
         <v>null</v>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N</v>
       </c>
       <c r="B75" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3231,19 +3231,19 @@
         <v>null</v>
       </c>
       <c r="F75" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G75" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H75" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K75" t="str">
         <v>null</v>
@@ -3254,7 +3254,7 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N</v>
       </c>
       <c r="B76" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3269,19 +3269,19 @@
         <v>null</v>
       </c>
       <c r="F76" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G76" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H76" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K76" t="str">
         <v>null</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N</v>
       </c>
       <c r="B77" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3307,19 +3307,19 @@
         <v>null</v>
       </c>
       <c r="F77" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G77" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H77" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K77" t="str">
         <v>null</v>
@@ -3330,7 +3330,7 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N</v>
       </c>
       <c r="B78" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3345,19 +3345,19 @@
         <v>null</v>
       </c>
       <c r="F78" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G78" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K78" t="str">
         <v>null</v>
@@ -3368,7 +3368,7 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N</v>
       </c>
       <c r="B79" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3383,19 +3383,19 @@
         <v>null</v>
       </c>
       <c r="F79" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G79" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="H79" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I79" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="J79" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="K79" t="str">
         <v>null</v>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N</v>
       </c>
       <c r="B80" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3421,19 +3421,19 @@
         <v>null</v>
       </c>
       <c r="F80" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G80" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H80" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I80" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="J80" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="K80" t="str">
         <v>null</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N</v>
       </c>
       <c r="B81" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3459,19 +3459,19 @@
         <v>null</v>
       </c>
       <c r="F81" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G81" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="H81" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I81" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J81" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K81" t="str">
         <v>null</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B82" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3497,19 +3497,19 @@
         <v>null</v>
       </c>
       <c r="F82" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G82" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H82" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I82" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="J82" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="K82" t="str">
         <v>null</v>
@@ -3520,7 +3520,7 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N</v>
       </c>
       <c r="B83" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3535,19 +3535,19 @@
         <v>null</v>
       </c>
       <c r="F83" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G83" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="H83" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I83" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J83" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K83" t="str">
         <v>null</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N</v>
       </c>
       <c r="B84" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3573,19 +3573,19 @@
         <v>null</v>
       </c>
       <c r="F84" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G84" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H84" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I84" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="J84" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="K84" t="str">
         <v>null</v>
@@ -3596,7 +3596,7 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N</v>
       </c>
       <c r="B85" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3611,19 +3611,19 @@
         <v>null</v>
       </c>
       <c r="F85" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G85" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H85" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I85" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J85" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K85" t="str">
         <v>null</v>
@@ -3634,7 +3634,7 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N</v>
       </c>
       <c r="B86" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3649,19 +3649,19 @@
         <v>null</v>
       </c>
       <c r="F86" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G86" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H86" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I86" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J86" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K86" t="str">
         <v>null</v>
@@ -3672,7 +3672,7 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N</v>
       </c>
       <c r="B87" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3687,19 +3687,19 @@
         <v>null</v>
       </c>
       <c r="F87" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G87" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H87" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I87" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J87" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K87" t="str">
         <v>null</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N</v>
       </c>
       <c r="B88" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3725,19 +3725,19 @@
         <v>null</v>
       </c>
       <c r="F88" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G88" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H88" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I88" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J88" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K88" t="str">
         <v>null</v>
@@ -3748,7 +3748,7 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N</v>
       </c>
       <c r="B89" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3763,19 +3763,19 @@
         <v>null</v>
       </c>
       <c r="F89" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G89" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H89" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I89" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="J89" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="K89" t="str">
         <v>null</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N</v>
       </c>
       <c r="B90" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3801,19 +3801,19 @@
         <v>null</v>
       </c>
       <c r="F90" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G90" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H90" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I90" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="J90" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="K90" t="str">
         <v>null</v>
@@ -3824,7 +3824,7 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N</v>
       </c>
       <c r="B91" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3839,19 +3839,19 @@
         <v>null</v>
       </c>
       <c r="F91" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G91" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H91" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I91" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J91" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K91" t="str">
         <v>null</v>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N</v>
       </c>
       <c r="B92" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3877,19 +3877,19 @@
         <v>null</v>
       </c>
       <c r="F92" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G92" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="H92" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I92" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J92" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K92" t="str">
         <v>null</v>
@@ -3900,7 +3900,7 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N</v>
       </c>
       <c r="B93" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3915,19 +3915,19 @@
         <v>null</v>
       </c>
       <c r="F93" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G93" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H93" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I93" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="J93" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="K93" t="str">
         <v>null</v>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N</v>
       </c>
       <c r="B94" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3953,19 +3953,19 @@
         <v>null</v>
       </c>
       <c r="F94" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G94" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H94" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I94" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J94" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K94" t="str">
         <v>null</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B95" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3991,19 +3991,19 @@
         <v>null</v>
       </c>
       <c r="F95" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G95" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H95" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I95" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J95" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K95" t="str">
         <v>null</v>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N</v>
       </c>
       <c r="B96" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4029,19 +4029,19 @@
         <v>null</v>
       </c>
       <c r="F96" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G96" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H96" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I96" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J96" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K96" t="str">
         <v>null</v>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B97" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4067,19 +4067,19 @@
         <v>null</v>
       </c>
       <c r="F97" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G97" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H97" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I97" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J97" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K97" t="str">
         <v>null</v>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N</v>
       </c>
       <c r="B98" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4105,19 +4105,19 @@
         <v>null</v>
       </c>
       <c r="F98" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G98" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H98" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I98" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J98" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K98" t="str">
         <v>null</v>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N</v>
       </c>
       <c r="B99" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4143,19 +4143,19 @@
         <v>null</v>
       </c>
       <c r="F99" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G99" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H99" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I99" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="J99" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="K99" t="str">
         <v>null</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N</v>
       </c>
       <c r="B100" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4181,19 +4181,19 @@
         <v>null</v>
       </c>
       <c r="F100" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G100" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H100" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I100" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J100" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K100" t="str">
         <v>null</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N</v>
       </c>
       <c r="B101" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4219,19 +4219,19 @@
         <v>null</v>
       </c>
       <c r="F101" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G101" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H101" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I101" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J101" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K101" t="str">
         <v>null</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N</v>
       </c>
       <c r="B102" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4257,19 +4257,19 @@
         <v>null</v>
       </c>
       <c r="F102" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G102" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="H102" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I102" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J102" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K102" t="str">
         <v>null</v>
@@ -4280,7 +4280,7 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N</v>
       </c>
       <c r="B103" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4295,19 +4295,19 @@
         <v>null</v>
       </c>
       <c r="F103" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G103" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H103" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I103" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="J103" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="K103" t="str">
         <v>null</v>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N</v>
       </c>
       <c r="B104" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4333,19 +4333,19 @@
         <v>null</v>
       </c>
       <c r="F104" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G104" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H104" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I104" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J104" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K104" t="str">
         <v>null</v>
@@ -4356,7 +4356,7 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N</v>
       </c>
       <c r="B105" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4371,19 +4371,19 @@
         <v>null</v>
       </c>
       <c r="F105" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G105" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H105" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I105" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J105" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K105" t="str">
         <v>null</v>
@@ -4394,7 +4394,7 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N</v>
       </c>
       <c r="B106" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4409,19 +4409,19 @@
         <v>null</v>
       </c>
       <c r="F106" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G106" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="H106" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I106" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J106" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K106" t="str">
         <v>null</v>
@@ -4432,7 +4432,7 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N</v>
       </c>
       <c r="B107" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4447,19 +4447,19 @@
         <v>null</v>
       </c>
       <c r="F107" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G107" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H107" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I107" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="J107" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="K107" t="str">
         <v>null</v>
@@ -4470,7 +4470,7 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N</v>
       </c>
       <c r="B108" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4485,19 +4485,19 @@
         <v>null</v>
       </c>
       <c r="F108" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G108" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H108" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I108" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J108" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K108" t="str">
         <v>null</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N</v>
       </c>
       <c r="B109" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4523,19 +4523,19 @@
         <v>null</v>
       </c>
       <c r="F109" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G109" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H109" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I109" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="J109" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="K109" t="str">
         <v>null</v>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N</v>
       </c>
       <c r="B110" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4561,19 +4561,19 @@
         <v>null</v>
       </c>
       <c r="F110" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G110" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="H110" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I110" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="J110" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="K110" t="str">
         <v>null</v>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N</v>
       </c>
       <c r="B111" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4599,19 +4599,19 @@
         <v>null</v>
       </c>
       <c r="F111" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G111" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H111" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I111" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="J111" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="K111" t="str">
         <v>null</v>
@@ -4622,7 +4622,7 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B112" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4637,19 +4637,19 @@
         <v>null</v>
       </c>
       <c r="F112" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G112" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H112" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I112" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J112" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K112" t="str">
         <v>null</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N</v>
       </c>
       <c r="B113" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4675,19 +4675,19 @@
         <v>null</v>
       </c>
       <c r="F113" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G113" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H113" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I113" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J113" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K113" t="str">
         <v>null</v>
@@ -4698,7 +4698,7 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N</v>
       </c>
       <c r="B114" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4713,19 +4713,19 @@
         <v>null</v>
       </c>
       <c r="F114" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G114" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H114" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I114" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J114" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K114" t="str">
         <v>null</v>
@@ -4736,7 +4736,7 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N</v>
       </c>
       <c r="B115" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4751,19 +4751,19 @@
         <v>null</v>
       </c>
       <c r="F115" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G115" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="H115" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I115" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J115" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K115" t="str">
         <v>null</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N</v>
       </c>
       <c r="B116" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4789,19 +4789,19 @@
         <v>null</v>
       </c>
       <c r="F116" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="G116" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="H116" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="I116" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="J116" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="K116" t="str">
         <v>null</v>
@@ -4812,7 +4812,7 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N</v>
       </c>
       <c r="B117" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4827,19 +4827,19 @@
         <v>null</v>
       </c>
       <c r="F117" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G117" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H117" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I117" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>null</v>
       </c>
       <c r="J117" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>null</v>
       </c>
       <c r="K117" t="str">
         <v>null</v>
@@ -4850,7 +4850,7 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N</v>
       </c>
       <c r="B118" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4865,19 +4865,19 @@
         <v>null</v>
       </c>
       <c r="F118" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G118" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="H118" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I118" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J118" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K118" t="str">
         <v>null</v>
@@ -4888,7 +4888,7 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N</v>
       </c>
       <c r="B119" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4903,19 +4903,19 @@
         <v>null</v>
       </c>
       <c r="F119" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G119" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="H119" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I119" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="J119" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="K119" t="str">
         <v>null</v>
@@ -4926,7 +4926,7 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N</v>
       </c>
       <c r="B120" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4941,19 +4941,19 @@
         <v>null</v>
       </c>
       <c r="F120" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G120" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H120" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I120" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="J120" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="K120" t="str">
         <v>null</v>
@@ -4964,7 +4964,7 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N</v>
       </c>
       <c r="B121" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4979,19 +4979,19 @@
         <v>null</v>
       </c>
       <c r="F121" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G121" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H121" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I121" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J121" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K121" t="str">
         <v>null</v>
@@ -5002,7 +5002,7 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N</v>
       </c>
       <c r="B122" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5017,19 +5017,19 @@
         <v>null</v>
       </c>
       <c r="F122" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G122" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H122" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I122" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="J122" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="K122" t="str">
         <v>null</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N</v>
       </c>
       <c r="B123" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5055,19 +5055,19 @@
         <v>null</v>
       </c>
       <c r="F123" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G123" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H123" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I123" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J123" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K123" t="str">
         <v>null</v>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N</v>
       </c>
       <c r="B124" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5093,19 +5093,19 @@
         <v>null</v>
       </c>
       <c r="F124" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G124" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H124" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I124" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J124" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K124" t="str">
         <v>null</v>
@@ -5116,7 +5116,7 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N</v>
       </c>
       <c r="B125" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5131,19 +5131,19 @@
         <v>null</v>
       </c>
       <c r="F125" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G125" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H125" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I125" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J125" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K125" t="str">
         <v>null</v>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N</v>
       </c>
       <c r="B126" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5169,19 +5169,19 @@
         <v>null</v>
       </c>
       <c r="F126" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G126" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="H126" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I126" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J126" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K126" t="str">
         <v>null</v>
@@ -5192,7 +5192,7 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N</v>
       </c>
       <c r="B127" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5207,19 +5207,19 @@
         <v>null</v>
       </c>
       <c r="F127" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G127" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H127" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I127" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="J127" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="K127" t="str">
         <v>null</v>
@@ -5230,7 +5230,7 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N</v>
       </c>
       <c r="B128" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5245,19 +5245,19 @@
         <v>null</v>
       </c>
       <c r="F128" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G128" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="H128" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I128" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J128" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K128" t="str">
         <v>null</v>
@@ -5268,7 +5268,7 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N</v>
       </c>
       <c r="B129" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5283,19 +5283,19 @@
         <v>null</v>
       </c>
       <c r="F129" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G129" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H129" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I129" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="J129" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="K129" t="str">
         <v>null</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N</v>
       </c>
       <c r="B130" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5321,19 +5321,19 @@
         <v>null</v>
       </c>
       <c r="F130" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G130" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H130" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I130" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J130" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K130" t="str">
         <v>null</v>
@@ -5344,7 +5344,7 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N</v>
       </c>
       <c r="B131" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5359,19 +5359,19 @@
         <v>null</v>
       </c>
       <c r="F131" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G131" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H131" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I131" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J131" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K131" t="str">
         <v>null</v>
@@ -5382,7 +5382,7 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N</v>
       </c>
       <c r="B132" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5397,19 +5397,19 @@
         <v>null</v>
       </c>
       <c r="F132" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G132" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H132" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I132" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J132" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K132" t="str">
         <v>null</v>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N</v>
       </c>
       <c r="B133" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5435,19 +5435,19 @@
         <v>null</v>
       </c>
       <c r="F133" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G133" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H133" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I133" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J133" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K133" t="str">
         <v>null</v>
@@ -5458,7 +5458,7 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B134" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5473,19 +5473,19 @@
         <v>null</v>
       </c>
       <c r="F134" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G134" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H134" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I134" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="J134" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="K134" t="str">
         <v>null</v>
@@ -5496,7 +5496,7 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N</v>
       </c>
       <c r="B135" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5511,19 +5511,19 @@
         <v>null</v>
       </c>
       <c r="F135" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G135" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H135" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I135" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J135" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K135" t="str">
         <v>null</v>
@@ -5534,7 +5534,7 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N</v>
       </c>
       <c r="B136" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5549,19 +5549,19 @@
         <v>null</v>
       </c>
       <c r="F136" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G136" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H136" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I136" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J136" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K136" t="str">
         <v>null</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N</v>
       </c>
       <c r="B137" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5587,19 +5587,19 @@
         <v>null</v>
       </c>
       <c r="F137" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G137" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H137" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I137" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J137" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K137" t="str">
         <v>null</v>
@@ -5610,7 +5610,7 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N</v>
       </c>
       <c r="B138" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5625,19 +5625,19 @@
         <v>null</v>
       </c>
       <c r="F138" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G138" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H138" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I138" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J138" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K138" t="str">
         <v>null</v>
@@ -5648,7 +5648,7 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N</v>
       </c>
       <c r="B139" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5663,19 +5663,19 @@
         <v>null</v>
       </c>
       <c r="F139" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G139" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H139" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I139" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="J139" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>null</v>
       </c>
       <c r="K139" t="str">
         <v>null</v>
@@ -5686,7 +5686,7 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B140" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5701,19 +5701,19 @@
         <v>null</v>
       </c>
       <c r="F140" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G140" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H140" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I140" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J140" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K140" t="str">
         <v>null</v>
@@ -5724,7 +5724,7 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N</v>
       </c>
       <c r="B141" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5739,19 +5739,19 @@
         <v>null</v>
       </c>
       <c r="F141" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G141" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H141" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I141" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J141" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K141" t="str">
         <v>null</v>
@@ -5762,7 +5762,7 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
       </c>
       <c r="B142" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5777,19 +5777,19 @@
         <v>null</v>
       </c>
       <c r="F142" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G142" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H142" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I142" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J142" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K142" t="str">
         <v>null</v>
@@ -5800,7 +5800,7 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N</v>
       </c>
       <c r="B143" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5815,19 +5815,19 @@
         <v>null</v>
       </c>
       <c r="F143" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G143" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H143" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I143" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J143" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K143" t="str">
         <v>null</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B144" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5853,19 +5853,19 @@
         <v>null</v>
       </c>
       <c r="F144" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G144" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="H144" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I144" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J144" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K144" t="str">
         <v>null</v>
@@ -5876,7 +5876,7 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N</v>
       </c>
       <c r="B145" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5891,19 +5891,19 @@
         <v>null</v>
       </c>
       <c r="F145" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G145" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H145" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I145" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="J145" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="K145" t="str">
         <v>null</v>
@@ -5914,7 +5914,7 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
       </c>
       <c r="B146" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5929,19 +5929,19 @@
         <v>null</v>
       </c>
       <c r="F146" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G146" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H146" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I146" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J146" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K146" t="str">
         <v>null</v>
@@ -5952,7 +5952,7 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
       </c>
       <c r="B147" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5967,19 +5967,19 @@
         <v>null</v>
       </c>
       <c r="F147" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="G147" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="H147" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="I147" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="J147" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="K147" t="str">
         <v>null</v>
@@ -5990,7 +5990,7 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N</v>
       </c>
       <c r="B148" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6005,19 +6005,19 @@
         <v>null</v>
       </c>
       <c r="F148" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G148" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H148" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I148" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="J148" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="K148" t="str">
         <v>null</v>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
       </c>
       <c r="B149" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6043,19 +6043,19 @@
         <v>null</v>
       </c>
       <c r="F149" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G149" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H149" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I149" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="J149" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="K149" t="str">
         <v>null</v>
@@ -6066,7 +6066,7 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="B150" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6078,7 +6078,7 @@
         <v>null</v>
       </c>
       <c r="E150" t="str">
-        <v>null</v>
+        <v>C&amp;L Harmonized classification</v>
       </c>
       <c r="F150" t="str">
         <v>null</v>
@@ -6087,16 +6087,16 @@
         <v>null</v>
       </c>
       <c r="H150" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
       </c>
       <c r="I150" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
       </c>
       <c r="J150" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
       </c>
       <c r="K150" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="L150" t="str">
         <v>null</v>
@@ -6104,7 +6104,7 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="B151" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6116,22 +6116,22 @@
         <v>null</v>
       </c>
       <c r="E151" t="str">
-        <v>C&amp;L Harmonized classification</v>
+        <v>edlists.org List I</v>
       </c>
       <c r="F151" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="G151" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="H151" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
       </c>
       <c r="I151" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
       </c>
       <c r="J151" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
       </c>
       <c r="K151" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
@@ -6142,7 +6142,7 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="B152" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6154,22 +6154,22 @@
         <v>null</v>
       </c>
       <c r="E152" t="str">
-        <v>edlists.org List I</v>
+        <v>eigen</v>
       </c>
       <c r="F152" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="G152" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="H152" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
       </c>
       <c r="I152" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
       </c>
       <c r="J152" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
       </c>
       <c r="K152" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
@@ -6180,7 +6180,7 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/pop_regulation</v>
       </c>
       <c r="B153" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6192,16 +6192,16 @@
         <v>null</v>
       </c>
       <c r="E153" t="str">
-        <v>eigen</v>
+        <v>POP Regulation</v>
       </c>
       <c r="F153" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="G153" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="H153" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="I153" t="str">
         <v>null</v>
@@ -6218,7 +6218,7 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/pop_regulation</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="B154" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6230,7 +6230,7 @@
         <v>null</v>
       </c>
       <c r="E154" t="str">
-        <v>POP Regulation</v>
+        <v>REACH SVHC Candidate list</v>
       </c>
       <c r="F154" t="str">
         <v>null</v>
@@ -6239,13 +6239,13 @@
         <v>null</v>
       </c>
       <c r="H154" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
       </c>
       <c r="I154" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
       </c>
       <c r="J154" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
       </c>
       <c r="K154" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
@@ -6256,7 +6256,7 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
       </c>
       <c r="B155" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6268,22 +6268,22 @@
         <v>null</v>
       </c>
       <c r="E155" t="str">
-        <v>REACH SVHC Candidate list</v>
+        <v>UBA PMT</v>
       </c>
       <c r="F155" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="G155" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="H155" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
       </c>
       <c r="I155" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
       </c>
       <c r="J155" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
       </c>
       <c r="K155" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
@@ -6294,28 +6294,28 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
       </c>
       <c r="B156" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
       <c r="C156" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>null</v>
       </c>
       <c r="D156" t="str">
         <v>null</v>
       </c>
       <c r="E156" t="str">
-        <v>UBA PMT</v>
+        <v>Codelijst zorgwekkende stoffen</v>
       </c>
       <c r="F156" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="G156" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="H156" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="I156" t="str">
         <v>null</v>
@@ -6324,53 +6324,15 @@
         <v>null</v>
       </c>
       <c r="K156" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>null</v>
       </c>
       <c r="L156" t="str">
-        <v>null</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
-      </c>
-      <c r="B157" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
-      </c>
-      <c r="C157" t="str">
-        <v>null</v>
-      </c>
-      <c r="D157" t="str">
-        <v>null</v>
-      </c>
-      <c r="E157" t="str">
-        <v>Codelijst zorgwekkende stoffen</v>
-      </c>
-      <c r="F157" t="str">
-        <v>null</v>
-      </c>
-      <c r="G157" t="str">
-        <v>null</v>
-      </c>
-      <c r="H157" t="str">
-        <v>null</v>
-      </c>
-      <c r="I157" t="str">
-        <v>null</v>
-      </c>
-      <c r="J157" t="str">
-        <v>null</v>
-      </c>
-      <c r="K157" t="str">
-        <v>null</v>
-      </c>
-      <c r="L157" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/pop_regulation</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L157"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L156"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/zorgwekkende_stof/zorgwekkende_stof.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/zorgwekkende_stof/zorgwekkende_stof.xlsx
@@ -448,7 +448,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Collection</v>
       </c>
       <c r="C2" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D2" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
@@ -486,7 +486,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Collection</v>
       </c>
       <c r="C3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D3" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
@@ -524,7 +524,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Collection</v>
       </c>
       <c r="C4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D4" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
@@ -562,7 +562,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Collection</v>
       </c>
       <c r="C5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D5" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
@@ -600,7 +600,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Collection</v>
       </c>
       <c r="C6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D6" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
@@ -638,7 +638,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D7" t="str">
         <v>null</v>
@@ -676,7 +676,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D8" t="str">
         <v>null</v>
@@ -714,7 +714,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D9" t="str">
         <v>null</v>
@@ -752,7 +752,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D10" t="str">
         <v>null</v>
@@ -790,7 +790,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D11" t="str">
         <v>null</v>
@@ -828,7 +828,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D12" t="str">
         <v>null</v>
@@ -866,7 +866,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D13" t="str">
         <v>null</v>
@@ -904,7 +904,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D14" t="str">
         <v>null</v>
@@ -942,7 +942,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D15" t="str">
         <v>null</v>
@@ -980,7 +980,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D16" t="str">
         <v>null</v>
@@ -1018,7 +1018,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D17" t="str">
         <v>null</v>
@@ -1056,7 +1056,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D18" t="str">
         <v>null</v>
@@ -1094,7 +1094,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D19" t="str">
         <v>null</v>
@@ -1132,7 +1132,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D20" t="str">
         <v>null</v>
@@ -1170,7 +1170,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D21" t="str">
         <v>null</v>
@@ -1208,7 +1208,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D22" t="str">
         <v>null</v>
@@ -1246,7 +1246,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D23" t="str">
         <v>null</v>
@@ -1284,7 +1284,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D24" t="str">
         <v>null</v>
@@ -1322,7 +1322,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D25" t="str">
         <v>null</v>
@@ -1360,7 +1360,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D26" t="str">
         <v>null</v>
@@ -1398,7 +1398,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D27" t="str">
         <v>null</v>
@@ -1436,7 +1436,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D28" t="str">
         <v>null</v>
@@ -1474,7 +1474,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D29" t="str">
         <v>null</v>
@@ -1512,7 +1512,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D30" t="str">
         <v>null</v>
@@ -1550,7 +1550,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D31" t="str">
         <v>null</v>
@@ -1588,7 +1588,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D32" t="str">
         <v>null</v>
@@ -1626,7 +1626,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D33" t="str">
         <v>null</v>
@@ -1664,7 +1664,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D34" t="str">
         <v>null</v>
@@ -1702,7 +1702,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D35" t="str">
         <v>null</v>
@@ -1740,7 +1740,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D36" t="str">
         <v>null</v>
@@ -1778,7 +1778,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D37" t="str">
         <v>null</v>
@@ -1816,7 +1816,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D38" t="str">
         <v>null</v>
@@ -1854,7 +1854,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D39" t="str">
         <v>null</v>
@@ -1892,7 +1892,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D40" t="str">
         <v>null</v>
@@ -1930,7 +1930,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D41" t="str">
         <v>null</v>
@@ -1968,7 +1968,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D42" t="str">
         <v>null</v>
@@ -2006,7 +2006,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D43" t="str">
         <v>null</v>
@@ -2044,7 +2044,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D44" t="str">
         <v>null</v>
@@ -2082,7 +2082,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D45" t="str">
         <v>null</v>
@@ -2120,7 +2120,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D46" t="str">
         <v>null</v>
@@ -2158,7 +2158,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D47" t="str">
         <v>null</v>
@@ -2196,7 +2196,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D48" t="str">
         <v>null</v>
@@ -2234,7 +2234,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D49" t="str">
         <v>null</v>
@@ -2272,7 +2272,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D50" t="str">
         <v>null</v>
@@ -2310,7 +2310,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D51" t="str">
         <v>null</v>
@@ -2348,7 +2348,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D52" t="str">
         <v>null</v>
@@ -2386,7 +2386,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D53" t="str">
         <v>null</v>
@@ -2424,7 +2424,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D54" t="str">
         <v>null</v>
@@ -2462,7 +2462,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D55" t="str">
         <v>null</v>
@@ -2500,7 +2500,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D56" t="str">
         <v>null</v>
@@ -2538,7 +2538,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D57" t="str">
         <v>null</v>
@@ -2576,7 +2576,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D58" t="str">
         <v>null</v>
@@ -2614,7 +2614,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D59" t="str">
         <v>null</v>
@@ -2652,7 +2652,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D60" t="str">
         <v>null</v>
@@ -2690,7 +2690,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D61" t="str">
         <v>null</v>
@@ -2728,7 +2728,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D62" t="str">
         <v>null</v>
@@ -2766,7 +2766,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D63" t="str">
         <v>null</v>
@@ -2804,7 +2804,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D64" t="str">
         <v>null</v>
@@ -2842,7 +2842,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D65" t="str">
         <v>null</v>
@@ -2880,7 +2880,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D66" t="str">
         <v>null</v>
@@ -2918,7 +2918,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D67" t="str">
         <v>null</v>
@@ -2956,7 +2956,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D68" t="str">
         <v>null</v>
@@ -2994,7 +2994,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D69" t="str">
         <v>null</v>
@@ -3032,7 +3032,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D70" t="str">
         <v>null</v>
@@ -3070,7 +3070,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D71" t="str">
         <v>null</v>
@@ -3108,7 +3108,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D72" t="str">
         <v>null</v>
@@ -3146,7 +3146,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D73" t="str">
         <v>null</v>
@@ -3184,7 +3184,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D74" t="str">
         <v>null</v>
@@ -3222,7 +3222,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D75" t="str">
         <v>null</v>
@@ -3260,7 +3260,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D76" t="str">
         <v>null</v>
@@ -3298,7 +3298,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D77" t="str">
         <v>null</v>
@@ -3336,7 +3336,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D78" t="str">
         <v>null</v>
@@ -3374,7 +3374,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C79" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D79" t="str">
         <v>null</v>
@@ -3412,7 +3412,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C80" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D80" t="str">
         <v>null</v>
@@ -3450,7 +3450,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C81" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D81" t="str">
         <v>null</v>
@@ -3488,7 +3488,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C82" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D82" t="str">
         <v>null</v>
@@ -3526,7 +3526,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C83" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D83" t="str">
         <v>null</v>
@@ -3564,7 +3564,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C84" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D84" t="str">
         <v>null</v>
@@ -3602,7 +3602,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C85" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D85" t="str">
         <v>null</v>
@@ -3640,7 +3640,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C86" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D86" t="str">
         <v>null</v>
@@ -3678,7 +3678,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C87" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D87" t="str">
         <v>null</v>
@@ -3716,7 +3716,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C88" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D88" t="str">
         <v>null</v>
@@ -3754,7 +3754,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C89" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D89" t="str">
         <v>null</v>
@@ -3792,7 +3792,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C90" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D90" t="str">
         <v>null</v>
@@ -3830,7 +3830,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C91" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D91" t="str">
         <v>null</v>
@@ -3868,7 +3868,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C92" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D92" t="str">
         <v>null</v>
@@ -3906,7 +3906,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C93" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D93" t="str">
         <v>null</v>
@@ -3944,7 +3944,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C94" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D94" t="str">
         <v>null</v>
@@ -3982,7 +3982,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C95" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D95" t="str">
         <v>null</v>
@@ -4020,7 +4020,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C96" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D96" t="str">
         <v>null</v>
@@ -4058,7 +4058,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C97" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D97" t="str">
         <v>null</v>
@@ -4096,7 +4096,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C98" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D98" t="str">
         <v>null</v>
@@ -4134,7 +4134,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C99" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D99" t="str">
         <v>null</v>
@@ -4172,7 +4172,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C100" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D100" t="str">
         <v>null</v>
@@ -4210,7 +4210,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C101" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D101" t="str">
         <v>null</v>
@@ -4248,7 +4248,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C102" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D102" t="str">
         <v>null</v>
@@ -4286,7 +4286,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C103" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D103" t="str">
         <v>null</v>
@@ -4324,7 +4324,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C104" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D104" t="str">
         <v>null</v>
@@ -4362,7 +4362,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C105" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D105" t="str">
         <v>null</v>
@@ -4400,7 +4400,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C106" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D106" t="str">
         <v>null</v>
@@ -4438,7 +4438,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C107" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D107" t="str">
         <v>null</v>
@@ -4476,7 +4476,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C108" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D108" t="str">
         <v>null</v>
@@ -4514,7 +4514,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C109" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D109" t="str">
         <v>null</v>
@@ -4552,7 +4552,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C110" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D110" t="str">
         <v>null</v>
@@ -4590,7 +4590,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C111" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D111" t="str">
         <v>null</v>
@@ -4628,7 +4628,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C112" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D112" t="str">
         <v>null</v>
@@ -4666,7 +4666,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C113" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D113" t="str">
         <v>null</v>
@@ -4704,7 +4704,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C114" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D114" t="str">
         <v>null</v>
@@ -4742,7 +4742,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C115" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D115" t="str">
         <v>null</v>
@@ -4780,7 +4780,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C116" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D116" t="str">
         <v>null</v>
@@ -4818,7 +4818,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C117" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D117" t="str">
         <v>null</v>
@@ -4856,7 +4856,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C118" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D118" t="str">
         <v>null</v>
@@ -4894,7 +4894,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C119" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D119" t="str">
         <v>null</v>
@@ -4932,7 +4932,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C120" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D120" t="str">
         <v>null</v>
@@ -4970,7 +4970,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C121" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D121" t="str">
         <v>null</v>
@@ -5008,7 +5008,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C122" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D122" t="str">
         <v>null</v>
@@ -5046,7 +5046,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C123" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D123" t="str">
         <v>null</v>
@@ -5084,7 +5084,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C124" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D124" t="str">
         <v>null</v>
@@ -5122,7 +5122,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C125" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D125" t="str">
         <v>null</v>
@@ -5160,7 +5160,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C126" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D126" t="str">
         <v>null</v>
@@ -5198,7 +5198,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C127" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D127" t="str">
         <v>null</v>
@@ -5236,7 +5236,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C128" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D128" t="str">
         <v>null</v>
@@ -5274,7 +5274,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C129" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D129" t="str">
         <v>null</v>
@@ -5312,7 +5312,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C130" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D130" t="str">
         <v>null</v>
@@ -5350,7 +5350,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C131" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D131" t="str">
         <v>null</v>
@@ -5388,7 +5388,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C132" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D132" t="str">
         <v>null</v>
@@ -5426,7 +5426,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C133" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D133" t="str">
         <v>null</v>
@@ -5464,7 +5464,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C134" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D134" t="str">
         <v>null</v>
@@ -5502,7 +5502,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C135" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D135" t="str">
         <v>null</v>
@@ -5540,7 +5540,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C136" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D136" t="str">
         <v>null</v>
@@ -5578,7 +5578,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C137" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D137" t="str">
         <v>null</v>
@@ -5616,7 +5616,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C138" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D138" t="str">
         <v>null</v>
@@ -5654,7 +5654,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C139" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D139" t="str">
         <v>null</v>
@@ -5692,7 +5692,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C140" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D140" t="str">
         <v>null</v>
@@ -5730,7 +5730,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C141" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D141" t="str">
         <v>null</v>
@@ -5768,7 +5768,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C142" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D142" t="str">
         <v>null</v>
@@ -5806,7 +5806,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C143" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D143" t="str">
         <v>null</v>
@@ -5844,7 +5844,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C144" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D144" t="str">
         <v>null</v>
@@ -5882,7 +5882,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C145" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D145" t="str">
         <v>null</v>
@@ -5920,7 +5920,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C146" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D146" t="str">
         <v>null</v>
@@ -5958,7 +5958,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C147" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D147" t="str">
         <v>null</v>
@@ -5996,7 +5996,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C148" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D148" t="str">
         <v>null</v>
@@ -6034,7 +6034,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C149" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D149" t="str">
         <v>null</v>
@@ -6072,7 +6072,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C150" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D150" t="str">
         <v>null</v>
@@ -6096,7 +6096,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
       </c>
       <c r="K150" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="L150" t="str">
         <v>null</v>
@@ -6110,7 +6110,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C151" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D151" t="str">
         <v>null</v>
@@ -6134,7 +6134,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
       </c>
       <c r="K151" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="L151" t="str">
         <v>null</v>
@@ -6148,7 +6148,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C152" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D152" t="str">
         <v>null</v>
@@ -6172,7 +6172,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
       </c>
       <c r="K152" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="L152" t="str">
         <v>null</v>
@@ -6186,7 +6186,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C153" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D153" t="str">
         <v>null</v>
@@ -6210,7 +6210,7 @@
         <v>null</v>
       </c>
       <c r="K153" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="L153" t="str">
         <v>null</v>
@@ -6224,7 +6224,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C154" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D154" t="str">
         <v>null</v>
@@ -6248,7 +6248,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
       </c>
       <c r="K154" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="L154" t="str">
         <v>null</v>
@@ -6262,7 +6262,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C155" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D155" t="str">
         <v>null</v>
@@ -6286,7 +6286,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
       </c>
       <c r="K155" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="L155" t="str">
         <v>null</v>
@@ -6294,7 +6294,7 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stoffen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="B156" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>

--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/zorgwekkende_stof/zorgwekkende_stof.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/zorgwekkende_stof/zorgwekkende_stof.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L156"/>
+  <dimension ref="A1:L152"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -492,7 +492,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
       </c>
       <c r="E3" t="str">
-        <v>edlists.org List I</v>
+        <v>EndocrineDisruptor_List_I</v>
       </c>
       <c r="F3" t="str">
         <v>null</v>
@@ -524,13 +524,13 @@
         <v>http://www.w3.org/2004/02/skos/core#Collection</v>
       </c>
       <c r="C4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N</v>
       </c>
       <c r="E4" t="str">
-        <v>eigen</v>
+        <v>null</v>
       </c>
       <c r="F4" t="str">
         <v>null</v>
@@ -565,7 +565,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
       </c>
       <c r="E5" t="str">
         <v>REACH SVHC Candidate list</v>
@@ -603,7 +603,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="E6" t="str">
         <v>UBA PMT</v>
@@ -647,13 +647,13 @@
         <v>null</v>
       </c>
       <c r="F7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I7" t="str">
         <v>null</v>
@@ -799,13 +799,13 @@
         <v>null</v>
       </c>
       <c r="F11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I11" t="str">
         <v>null</v>
@@ -875,13 +875,13 @@
         <v>null</v>
       </c>
       <c r="F13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I13" t="str">
         <v>null</v>
@@ -913,13 +913,13 @@
         <v>null</v>
       </c>
       <c r="F14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I14" t="str">
         <v>null</v>
@@ -951,13 +951,13 @@
         <v>null</v>
       </c>
       <c r="F15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I15" t="str">
         <v>null</v>
@@ -1027,13 +1027,13 @@
         <v>null</v>
       </c>
       <c r="F17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I17" t="str">
         <v>null</v>
@@ -1141,13 +1141,13 @@
         <v>null</v>
       </c>
       <c r="F20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I20" t="str">
         <v>null</v>
@@ -1179,13 +1179,13 @@
         <v>null</v>
       </c>
       <c r="F21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I21" t="str">
         <v>null</v>
@@ -1293,13 +1293,13 @@
         <v>null</v>
       </c>
       <c r="F24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I24" t="str">
         <v>null</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N</v>
       </c>
       <c r="B26" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1369,13 +1369,13 @@
         <v>null</v>
       </c>
       <c r="F26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I26" t="str">
         <v>null</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N</v>
       </c>
       <c r="B27" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1407,13 +1407,13 @@
         <v>null</v>
       </c>
       <c r="F27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I27" t="str">
         <v>null</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N</v>
       </c>
       <c r="B28" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N</v>
       </c>
       <c r="B29" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N</v>
       </c>
       <c r="B30" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1521,13 +1521,13 @@
         <v>null</v>
       </c>
       <c r="F30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I30" t="str">
         <v>null</v>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N</v>
       </c>
       <c r="B31" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1559,13 +1559,13 @@
         <v>null</v>
       </c>
       <c r="F31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I31" t="str">
         <v>null</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N</v>
       </c>
       <c r="B32" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1597,13 +1597,13 @@
         <v>null</v>
       </c>
       <c r="F32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I32" t="str">
         <v>null</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N</v>
       </c>
       <c r="B33" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N</v>
       </c>
       <c r="B34" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1673,13 +1673,13 @@
         <v>null</v>
       </c>
       <c r="F34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I34" t="str">
         <v>null</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N</v>
       </c>
       <c r="B35" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N</v>
       </c>
       <c r="B36" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1749,13 +1749,13 @@
         <v>null</v>
       </c>
       <c r="F36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I36" t="str">
         <v>null</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N</v>
       </c>
       <c r="B37" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1787,13 +1787,13 @@
         <v>null</v>
       </c>
       <c r="F37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I37" t="str">
         <v>null</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N</v>
       </c>
       <c r="B38" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1825,13 +1825,13 @@
         <v>null</v>
       </c>
       <c r="F38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I38" t="str">
         <v>null</v>
@@ -1848,13 +1848,13 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N</v>
       </c>
       <c r="B39" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D39" t="str">
         <v>null</v>
@@ -1863,13 +1863,13 @@
         <v>null</v>
       </c>
       <c r="F39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I39" t="str">
         <v>null</v>
@@ -1886,13 +1886,13 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N</v>
       </c>
       <c r="B40" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D40" t="str">
         <v>null</v>
@@ -1901,13 +1901,13 @@
         <v>null</v>
       </c>
       <c r="F40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I40" t="str">
         <v>null</v>
@@ -1924,13 +1924,13 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N</v>
       </c>
       <c r="B41" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D41" t="str">
         <v>null</v>
@@ -1939,13 +1939,13 @@
         <v>null</v>
       </c>
       <c r="F41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I41" t="str">
         <v>null</v>
@@ -1962,13 +1962,13 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N</v>
       </c>
       <c r="B42" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D42" t="str">
         <v>null</v>
@@ -1977,13 +1977,13 @@
         <v>null</v>
       </c>
       <c r="F42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="G42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="H42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="I42" t="str">
         <v>null</v>
@@ -2000,13 +2000,13 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N</v>
       </c>
       <c r="B43" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D43" t="str">
         <v>null</v>
@@ -2038,13 +2038,13 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B44" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D44" t="str">
         <v>null</v>
@@ -2076,13 +2076,13 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N</v>
       </c>
       <c r="B45" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D45" t="str">
         <v>null</v>
@@ -2091,13 +2091,13 @@
         <v>null</v>
       </c>
       <c r="F45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I45" t="str">
         <v>null</v>
@@ -2114,13 +2114,13 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B46" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D46" t="str">
         <v>null</v>
@@ -2129,13 +2129,13 @@
         <v>null</v>
       </c>
       <c r="F46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I46" t="str">
         <v>null</v>
@@ -2152,13 +2152,13 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N</v>
       </c>
       <c r="B47" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D47" t="str">
         <v>null</v>
@@ -2167,13 +2167,13 @@
         <v>null</v>
       </c>
       <c r="F47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I47" t="str">
         <v>null</v>
@@ -2190,13 +2190,13 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N</v>
       </c>
       <c r="B48" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D48" t="str">
         <v>null</v>
@@ -2205,13 +2205,13 @@
         <v>null</v>
       </c>
       <c r="F48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I48" t="str">
         <v>null</v>
@@ -2228,13 +2228,13 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N</v>
       </c>
       <c r="B49" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D49" t="str">
         <v>null</v>
@@ -2243,13 +2243,13 @@
         <v>null</v>
       </c>
       <c r="F49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I49" t="str">
         <v>null</v>
@@ -2266,13 +2266,13 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B50" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D50" t="str">
         <v>null</v>
@@ -2281,13 +2281,13 @@
         <v>null</v>
       </c>
       <c r="F50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="G50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="H50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="I50" t="str">
         <v>null</v>
@@ -2304,13 +2304,13 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N</v>
       </c>
       <c r="B51" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D51" t="str">
         <v>null</v>
@@ -2319,13 +2319,13 @@
         <v>null</v>
       </c>
       <c r="F51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I51" t="str">
         <v>null</v>
@@ -2342,13 +2342,13 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N</v>
       </c>
       <c r="B52" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D52" t="str">
         <v>null</v>
@@ -2357,13 +2357,13 @@
         <v>null</v>
       </c>
       <c r="F52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I52" t="str">
         <v>null</v>
@@ -2380,13 +2380,13 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N</v>
       </c>
       <c r="B53" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D53" t="str">
         <v>null</v>
@@ -2395,13 +2395,13 @@
         <v>null</v>
       </c>
       <c r="F53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I53" t="str">
         <v>null</v>
@@ -2418,13 +2418,13 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N</v>
       </c>
       <c r="B54" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D54" t="str">
         <v>null</v>
@@ -2433,13 +2433,13 @@
         <v>null</v>
       </c>
       <c r="F54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I54" t="str">
         <v>null</v>
@@ -2456,13 +2456,13 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N</v>
       </c>
       <c r="B55" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D55" t="str">
         <v>null</v>
@@ -2471,13 +2471,13 @@
         <v>null</v>
       </c>
       <c r="F55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I55" t="str">
         <v>null</v>
@@ -2494,13 +2494,13 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N</v>
       </c>
       <c r="B56" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D56" t="str">
         <v>null</v>
@@ -2509,13 +2509,13 @@
         <v>null</v>
       </c>
       <c r="F56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I56" t="str">
         <v>null</v>
@@ -2532,13 +2532,13 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N</v>
       </c>
       <c r="B57" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D57" t="str">
         <v>null</v>
@@ -2547,13 +2547,13 @@
         <v>null</v>
       </c>
       <c r="F57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I57" t="str">
         <v>null</v>
@@ -2570,13 +2570,13 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N</v>
       </c>
       <c r="B58" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D58" t="str">
         <v>null</v>
@@ -2585,13 +2585,13 @@
         <v>null</v>
       </c>
       <c r="F58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I58" t="str">
         <v>null</v>
@@ -2608,13 +2608,13 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N</v>
       </c>
       <c r="B59" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D59" t="str">
         <v>null</v>
@@ -2623,13 +2623,13 @@
         <v>null</v>
       </c>
       <c r="F59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I59" t="str">
         <v>null</v>
@@ -2646,13 +2646,13 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N</v>
       </c>
       <c r="B60" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D60" t="str">
         <v>null</v>
@@ -2684,13 +2684,13 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B61" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D61" t="str">
         <v>null</v>
@@ -2699,13 +2699,13 @@
         <v>null</v>
       </c>
       <c r="F61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I61" t="str">
         <v>null</v>
@@ -2722,13 +2722,13 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N</v>
       </c>
       <c r="B62" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D62" t="str">
         <v>null</v>
@@ -2737,13 +2737,13 @@
         <v>null</v>
       </c>
       <c r="F62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I62" t="str">
         <v>null</v>
@@ -2760,13 +2760,13 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N</v>
       </c>
       <c r="B63" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D63" t="str">
         <v>null</v>
@@ -2775,13 +2775,13 @@
         <v>null</v>
       </c>
       <c r="F63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I63" t="str">
         <v>null</v>
@@ -2798,13 +2798,13 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N</v>
       </c>
       <c r="B64" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D64" t="str">
         <v>null</v>
@@ -2813,13 +2813,13 @@
         <v>null</v>
       </c>
       <c r="F64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="G64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="H64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="I64" t="str">
         <v>null</v>
@@ -2836,13 +2836,13 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N</v>
       </c>
       <c r="B65" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D65" t="str">
         <v>null</v>
@@ -2874,13 +2874,13 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B66" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D66" t="str">
         <v>null</v>
@@ -2889,13 +2889,13 @@
         <v>null</v>
       </c>
       <c r="F66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I66" t="str">
         <v>null</v>
@@ -2912,13 +2912,13 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N</v>
       </c>
       <c r="B67" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D67" t="str">
         <v>null</v>
@@ -2927,13 +2927,13 @@
         <v>null</v>
       </c>
       <c r="F67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I67" t="str">
         <v>null</v>
@@ -2950,13 +2950,13 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N</v>
       </c>
       <c r="B68" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D68" t="str">
         <v>null</v>
@@ -2965,13 +2965,13 @@
         <v>null</v>
       </c>
       <c r="F68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I68" t="str">
         <v>null</v>
@@ -2988,13 +2988,13 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N</v>
       </c>
       <c r="B69" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D69" t="str">
         <v>null</v>
@@ -3003,13 +3003,13 @@
         <v>null</v>
       </c>
       <c r="F69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I69" t="str">
         <v>null</v>
@@ -3026,13 +3026,13 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N</v>
       </c>
       <c r="B70" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D70" t="str">
         <v>null</v>
@@ -3041,13 +3041,13 @@
         <v>null</v>
       </c>
       <c r="F70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I70" t="str">
         <v>null</v>
@@ -3064,13 +3064,13 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N</v>
       </c>
       <c r="B71" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D71" t="str">
         <v>null</v>
@@ -3102,13 +3102,13 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N</v>
       </c>
       <c r="B72" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D72" t="str">
         <v>null</v>
@@ -3117,13 +3117,13 @@
         <v>null</v>
       </c>
       <c r="F72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I72" t="str">
         <v>null</v>
@@ -3140,13 +3140,13 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N</v>
       </c>
       <c r="B73" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D73" t="str">
         <v>null</v>
@@ -3155,13 +3155,13 @@
         <v>null</v>
       </c>
       <c r="F73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I73" t="str">
         <v>null</v>
@@ -3178,13 +3178,13 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N</v>
       </c>
       <c r="B74" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D74" t="str">
         <v>null</v>
@@ -3216,13 +3216,13 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N</v>
       </c>
       <c r="B75" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D75" t="str">
         <v>null</v>
@@ -3254,13 +3254,13 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N</v>
       </c>
       <c r="B76" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D76" t="str">
         <v>null</v>
@@ -3269,13 +3269,13 @@
         <v>null</v>
       </c>
       <c r="F76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I76" t="str">
         <v>null</v>
@@ -3292,13 +3292,13 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N</v>
       </c>
       <c r="B77" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D77" t="str">
         <v>null</v>
@@ -3330,13 +3330,13 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N</v>
       </c>
       <c r="B78" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D78" t="str">
         <v>null</v>
@@ -3345,13 +3345,13 @@
         <v>null</v>
       </c>
       <c r="F78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I78" t="str">
         <v>null</v>
@@ -3368,13 +3368,13 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N</v>
       </c>
       <c r="B79" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C79" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D79" t="str">
         <v>null</v>
@@ -3383,13 +3383,13 @@
         <v>null</v>
       </c>
       <c r="F79" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G79" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H79" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I79" t="str">
         <v>null</v>
@@ -3406,13 +3406,13 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B80" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C80" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D80" t="str">
         <v>null</v>
@@ -3421,13 +3421,13 @@
         <v>null</v>
       </c>
       <c r="F80" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G80" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H80" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I80" t="str">
         <v>null</v>
@@ -3444,13 +3444,13 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N</v>
       </c>
       <c r="B81" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C81" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D81" t="str">
         <v>null</v>
@@ -3459,13 +3459,13 @@
         <v>null</v>
       </c>
       <c r="F81" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G81" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H81" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I81" t="str">
         <v>null</v>
@@ -3482,13 +3482,13 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N</v>
       </c>
       <c r="B82" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C82" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D82" t="str">
         <v>null</v>
@@ -3520,13 +3520,13 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N</v>
       </c>
       <c r="B83" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C83" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D83" t="str">
         <v>null</v>
@@ -3535,13 +3535,13 @@
         <v>null</v>
       </c>
       <c r="F83" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G83" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H83" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I83" t="str">
         <v>null</v>
@@ -3558,13 +3558,13 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N</v>
       </c>
       <c r="B84" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C84" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D84" t="str">
         <v>null</v>
@@ -3596,13 +3596,13 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N</v>
       </c>
       <c r="B85" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C85" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D85" t="str">
         <v>null</v>
@@ -3611,13 +3611,13 @@
         <v>null</v>
       </c>
       <c r="F85" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G85" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H85" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I85" t="str">
         <v>null</v>
@@ -3634,13 +3634,13 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N</v>
       </c>
       <c r="B86" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C86" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D86" t="str">
         <v>null</v>
@@ -3649,13 +3649,13 @@
         <v>null</v>
       </c>
       <c r="F86" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G86" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H86" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I86" t="str">
         <v>null</v>
@@ -3672,13 +3672,13 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N</v>
       </c>
       <c r="B87" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C87" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D87" t="str">
         <v>null</v>
@@ -3710,13 +3710,13 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N</v>
       </c>
       <c r="B88" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C88" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D88" t="str">
         <v>null</v>
@@ -3725,13 +3725,13 @@
         <v>null</v>
       </c>
       <c r="F88" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G88" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H88" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I88" t="str">
         <v>null</v>
@@ -3748,13 +3748,13 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N</v>
       </c>
       <c r="B89" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C89" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D89" t="str">
         <v>null</v>
@@ -3763,13 +3763,13 @@
         <v>null</v>
       </c>
       <c r="F89" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G89" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H89" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I89" t="str">
         <v>null</v>
@@ -3786,13 +3786,13 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N</v>
       </c>
       <c r="B90" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C90" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D90" t="str">
         <v>null</v>
@@ -3824,13 +3824,13 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N</v>
       </c>
       <c r="B91" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C91" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D91" t="str">
         <v>null</v>
@@ -3839,13 +3839,13 @@
         <v>null</v>
       </c>
       <c r="F91" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G91" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H91" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I91" t="str">
         <v>null</v>
@@ -3862,13 +3862,13 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B92" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C92" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D92" t="str">
         <v>null</v>
@@ -3877,13 +3877,13 @@
         <v>null</v>
       </c>
       <c r="F92" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G92" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H92" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I92" t="str">
         <v>null</v>
@@ -3900,13 +3900,13 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N</v>
       </c>
       <c r="B93" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C93" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D93" t="str">
         <v>null</v>
@@ -3938,13 +3938,13 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B94" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C94" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D94" t="str">
         <v>null</v>
@@ -3953,13 +3953,13 @@
         <v>null</v>
       </c>
       <c r="F94" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G94" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H94" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I94" t="str">
         <v>null</v>
@@ -3976,13 +3976,13 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N</v>
       </c>
       <c r="B95" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C95" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D95" t="str">
         <v>null</v>
@@ -3991,13 +3991,13 @@
         <v>null</v>
       </c>
       <c r="F95" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G95" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H95" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I95" t="str">
         <v>null</v>
@@ -4014,13 +4014,13 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N</v>
       </c>
       <c r="B96" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C96" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D96" t="str">
         <v>null</v>
@@ -4029,13 +4029,13 @@
         <v>null</v>
       </c>
       <c r="F96" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G96" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H96" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I96" t="str">
         <v>null</v>
@@ -4052,13 +4052,13 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N</v>
       </c>
       <c r="B97" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C97" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D97" t="str">
         <v>null</v>
@@ -4067,13 +4067,13 @@
         <v>null</v>
       </c>
       <c r="F97" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G97" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H97" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I97" t="str">
         <v>null</v>
@@ -4090,13 +4090,13 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N</v>
       </c>
       <c r="B98" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C98" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D98" t="str">
         <v>null</v>
@@ -4105,13 +4105,13 @@
         <v>null</v>
       </c>
       <c r="F98" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G98" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H98" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I98" t="str">
         <v>null</v>
@@ -4128,13 +4128,13 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N</v>
       </c>
       <c r="B99" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C99" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D99" t="str">
         <v>null</v>
@@ -4143,13 +4143,13 @@
         <v>null</v>
       </c>
       <c r="F99" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G99" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H99" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I99" t="str">
         <v>null</v>
@@ -4166,13 +4166,13 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N</v>
       </c>
       <c r="B100" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C100" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D100" t="str">
         <v>null</v>
@@ -4181,13 +4181,13 @@
         <v>null</v>
       </c>
       <c r="F100" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G100" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H100" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I100" t="str">
         <v>null</v>
@@ -4204,13 +4204,13 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N</v>
       </c>
       <c r="B101" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C101" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D101" t="str">
         <v>null</v>
@@ -4219,13 +4219,13 @@
         <v>null</v>
       </c>
       <c r="F101" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G101" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H101" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I101" t="str">
         <v>null</v>
@@ -4242,13 +4242,13 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N</v>
       </c>
       <c r="B102" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C102" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D102" t="str">
         <v>null</v>
@@ -4257,13 +4257,13 @@
         <v>null</v>
       </c>
       <c r="F102" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G102" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H102" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I102" t="str">
         <v>null</v>
@@ -4280,13 +4280,13 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N</v>
       </c>
       <c r="B103" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C103" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D103" t="str">
         <v>null</v>
@@ -4295,13 +4295,13 @@
         <v>null</v>
       </c>
       <c r="F103" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G103" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H103" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I103" t="str">
         <v>null</v>
@@ -4318,13 +4318,13 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N</v>
       </c>
       <c r="B104" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C104" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D104" t="str">
         <v>null</v>
@@ -4333,13 +4333,13 @@
         <v>null</v>
       </c>
       <c r="F104" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G104" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H104" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I104" t="str">
         <v>null</v>
@@ -4356,13 +4356,13 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N</v>
       </c>
       <c r="B105" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C105" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D105" t="str">
         <v>null</v>
@@ -4371,13 +4371,13 @@
         <v>null</v>
       </c>
       <c r="F105" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G105" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H105" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I105" t="str">
         <v>null</v>
@@ -4394,13 +4394,13 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N</v>
       </c>
       <c r="B106" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C106" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D106" t="str">
         <v>null</v>
@@ -4409,13 +4409,13 @@
         <v>null</v>
       </c>
       <c r="F106" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G106" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H106" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I106" t="str">
         <v>null</v>
@@ -4432,13 +4432,13 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N</v>
       </c>
       <c r="B107" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C107" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D107" t="str">
         <v>null</v>
@@ -4470,13 +4470,13 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N</v>
       </c>
       <c r="B108" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C108" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D108" t="str">
         <v>null</v>
@@ -4485,13 +4485,13 @@
         <v>null</v>
       </c>
       <c r="F108" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G108" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H108" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I108" t="str">
         <v>null</v>
@@ -4508,13 +4508,13 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B109" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C109" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D109" t="str">
         <v>null</v>
@@ -4523,13 +4523,13 @@
         <v>null</v>
       </c>
       <c r="F109" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G109" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H109" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I109" t="str">
         <v>null</v>
@@ -4546,13 +4546,13 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N</v>
       </c>
       <c r="B110" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C110" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D110" t="str">
         <v>null</v>
@@ -4561,13 +4561,13 @@
         <v>null</v>
       </c>
       <c r="F110" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G110" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H110" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I110" t="str">
         <v>null</v>
@@ -4584,13 +4584,13 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N</v>
       </c>
       <c r="B111" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C111" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D111" t="str">
         <v>null</v>
@@ -4599,13 +4599,13 @@
         <v>null</v>
       </c>
       <c r="F111" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G111" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H111" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I111" t="str">
         <v>null</v>
@@ -4622,13 +4622,13 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N</v>
       </c>
       <c r="B112" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C112" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D112" t="str">
         <v>null</v>
@@ -4637,13 +4637,13 @@
         <v>null</v>
       </c>
       <c r="F112" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G112" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H112" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I112" t="str">
         <v>null</v>
@@ -4660,13 +4660,13 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N</v>
       </c>
       <c r="B113" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C113" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D113" t="str">
         <v>null</v>
@@ -4675,13 +4675,13 @@
         <v>null</v>
       </c>
       <c r="F113" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="G113" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="H113" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="I113" t="str">
         <v>null</v>
@@ -4698,13 +4698,13 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N</v>
       </c>
       <c r="B114" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C114" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D114" t="str">
         <v>null</v>
@@ -4713,13 +4713,13 @@
         <v>null</v>
       </c>
       <c r="F114" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G114" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H114" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I114" t="str">
         <v>null</v>
@@ -4736,13 +4736,13 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N</v>
       </c>
       <c r="B115" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C115" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D115" t="str">
         <v>null</v>
@@ -4751,13 +4751,13 @@
         <v>null</v>
       </c>
       <c r="F115" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G115" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H115" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I115" t="str">
         <v>null</v>
@@ -4774,13 +4774,13 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N</v>
       </c>
       <c r="B116" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C116" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D116" t="str">
         <v>null</v>
@@ -4789,13 +4789,13 @@
         <v>null</v>
       </c>
       <c r="F116" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G116" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H116" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I116" t="str">
         <v>null</v>
@@ -4812,13 +4812,13 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N</v>
       </c>
       <c r="B117" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C117" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D117" t="str">
         <v>null</v>
@@ -4827,13 +4827,13 @@
         <v>null</v>
       </c>
       <c r="F117" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G117" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H117" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I117" t="str">
         <v>null</v>
@@ -4850,13 +4850,13 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N</v>
       </c>
       <c r="B118" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C118" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D118" t="str">
         <v>null</v>
@@ -4865,13 +4865,13 @@
         <v>null</v>
       </c>
       <c r="F118" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G118" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H118" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I118" t="str">
         <v>null</v>
@@ -4888,13 +4888,13 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N</v>
       </c>
       <c r="B119" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C119" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D119" t="str">
         <v>null</v>
@@ -4903,13 +4903,13 @@
         <v>null</v>
       </c>
       <c r="F119" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G119" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H119" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I119" t="str">
         <v>null</v>
@@ -4926,13 +4926,13 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N</v>
       </c>
       <c r="B120" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C120" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D120" t="str">
         <v>null</v>
@@ -4941,13 +4941,13 @@
         <v>null</v>
       </c>
       <c r="F120" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G120" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H120" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I120" t="str">
         <v>null</v>
@@ -4964,13 +4964,13 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N</v>
       </c>
       <c r="B121" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C121" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D121" t="str">
         <v>null</v>
@@ -4979,13 +4979,13 @@
         <v>null</v>
       </c>
       <c r="F121" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G121" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H121" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I121" t="str">
         <v>null</v>
@@ -5002,13 +5002,13 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N</v>
       </c>
       <c r="B122" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C122" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D122" t="str">
         <v>null</v>
@@ -5040,13 +5040,13 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N</v>
       </c>
       <c r="B123" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C123" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D123" t="str">
         <v>null</v>
@@ -5078,13 +5078,13 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N</v>
       </c>
       <c r="B124" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C124" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D124" t="str">
         <v>null</v>
@@ -5093,13 +5093,13 @@
         <v>null</v>
       </c>
       <c r="F124" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G124" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H124" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I124" t="str">
         <v>null</v>
@@ -5116,13 +5116,13 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N</v>
       </c>
       <c r="B125" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C125" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D125" t="str">
         <v>null</v>
@@ -5154,13 +5154,13 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N</v>
       </c>
       <c r="B126" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C126" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D126" t="str">
         <v>null</v>
@@ -5169,13 +5169,13 @@
         <v>null</v>
       </c>
       <c r="F126" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G126" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H126" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I126" t="str">
         <v>null</v>
@@ -5192,13 +5192,13 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N</v>
       </c>
       <c r="B127" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C127" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D127" t="str">
         <v>null</v>
@@ -5207,13 +5207,13 @@
         <v>null</v>
       </c>
       <c r="F127" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G127" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H127" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I127" t="str">
         <v>null</v>
@@ -5230,13 +5230,13 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N</v>
       </c>
       <c r="B128" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C128" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D128" t="str">
         <v>null</v>
@@ -5245,13 +5245,13 @@
         <v>null</v>
       </c>
       <c r="F128" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G128" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H128" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I128" t="str">
         <v>null</v>
@@ -5268,13 +5268,13 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N</v>
       </c>
       <c r="B129" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C129" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D129" t="str">
         <v>null</v>
@@ -5306,13 +5306,13 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N</v>
       </c>
       <c r="B130" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C130" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D130" t="str">
         <v>null</v>
@@ -5321,13 +5321,13 @@
         <v>null</v>
       </c>
       <c r="F130" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G130" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H130" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I130" t="str">
         <v>null</v>
@@ -5344,13 +5344,13 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B131" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C131" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D131" t="str">
         <v>null</v>
@@ -5359,13 +5359,13 @@
         <v>null</v>
       </c>
       <c r="F131" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G131" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H131" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I131" t="str">
         <v>null</v>
@@ -5382,13 +5382,13 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N</v>
       </c>
       <c r="B132" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C132" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D132" t="str">
         <v>null</v>
@@ -5397,13 +5397,13 @@
         <v>null</v>
       </c>
       <c r="F132" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G132" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H132" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I132" t="str">
         <v>null</v>
@@ -5420,13 +5420,13 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N</v>
       </c>
       <c r="B133" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C133" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D133" t="str">
         <v>null</v>
@@ -5435,13 +5435,13 @@
         <v>null</v>
       </c>
       <c r="F133" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G133" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H133" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I133" t="str">
         <v>null</v>
@@ -5458,13 +5458,13 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N</v>
       </c>
       <c r="B134" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C134" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D134" t="str">
         <v>null</v>
@@ -5473,13 +5473,13 @@
         <v>null</v>
       </c>
       <c r="F134" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G134" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H134" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I134" t="str">
         <v>null</v>
@@ -5496,13 +5496,13 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N</v>
       </c>
       <c r="B135" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C135" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D135" t="str">
         <v>null</v>
@@ -5511,13 +5511,13 @@
         <v>null</v>
       </c>
       <c r="F135" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="G135" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H135" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I135" t="str">
         <v>null</v>
@@ -5534,13 +5534,13 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N</v>
       </c>
       <c r="B136" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C136" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D136" t="str">
         <v>null</v>
@@ -5549,13 +5549,13 @@
         <v>null</v>
       </c>
       <c r="F136" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G136" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H136" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I136" t="str">
         <v>null</v>
@@ -5572,13 +5572,13 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B137" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C137" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D137" t="str">
         <v>null</v>
@@ -5610,13 +5610,13 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N</v>
       </c>
       <c r="B138" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C138" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D138" t="str">
         <v>null</v>
@@ -5625,13 +5625,13 @@
         <v>null</v>
       </c>
       <c r="F138" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G138" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H138" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I138" t="str">
         <v>null</v>
@@ -5648,13 +5648,13 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
       </c>
       <c r="B139" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C139" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D139" t="str">
         <v>null</v>
@@ -5663,13 +5663,13 @@
         <v>null</v>
       </c>
       <c r="F139" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G139" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H139" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I139" t="str">
         <v>null</v>
@@ -5686,13 +5686,13 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N</v>
       </c>
       <c r="B140" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C140" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D140" t="str">
         <v>null</v>
@@ -5724,13 +5724,13 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B141" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C141" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D141" t="str">
         <v>null</v>
@@ -5739,13 +5739,13 @@
         <v>null</v>
       </c>
       <c r="F141" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="G141" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H141" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I141" t="str">
         <v>null</v>
@@ -5762,13 +5762,13 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N</v>
       </c>
       <c r="B142" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C142" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D142" t="str">
         <v>null</v>
@@ -5777,13 +5777,13 @@
         <v>null</v>
       </c>
       <c r="F142" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G142" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H142" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I142" t="str">
         <v>null</v>
@@ -5800,13 +5800,13 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
       </c>
       <c r="B143" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C143" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D143" t="str">
         <v>null</v>
@@ -5815,13 +5815,13 @@
         <v>null</v>
       </c>
       <c r="F143" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="G143" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H143" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I143" t="str">
         <v>null</v>
@@ -5838,13 +5838,13 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
       </c>
       <c r="B144" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C144" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D144" t="str">
         <v>null</v>
@@ -5853,13 +5853,13 @@
         <v>null</v>
       </c>
       <c r="F144" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="G144" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="H144" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="I144" t="str">
         <v>null</v>
@@ -5876,13 +5876,13 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N</v>
       </c>
       <c r="B145" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C145" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D145" t="str">
         <v>null</v>
@@ -5891,13 +5891,13 @@
         <v>null</v>
       </c>
       <c r="F145" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G145" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H145" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="I145" t="str">
         <v>null</v>
@@ -5914,13 +5914,13 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
       </c>
       <c r="B146" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C146" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D146" t="str">
         <v>null</v>
@@ -5929,13 +5929,13 @@
         <v>null</v>
       </c>
       <c r="F146" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="G146" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H146" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="I146" t="str">
         <v>null</v>
@@ -5952,7 +5952,7 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="B147" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5964,25 +5964,25 @@
         <v>null</v>
       </c>
       <c r="E147" t="str">
-        <v>null</v>
+        <v>C&amp;L Harmonized classification</v>
       </c>
       <c r="F147" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="G147" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>null</v>
       </c>
       <c r="H147" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
       </c>
       <c r="I147" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
       </c>
       <c r="J147" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
       </c>
       <c r="K147" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="L147" t="str">
         <v>null</v>
@@ -5990,7 +5990,7 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="B148" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6002,25 +6002,25 @@
         <v>null</v>
       </c>
       <c r="E148" t="str">
-        <v>null</v>
+        <v>edlists.org List I</v>
       </c>
       <c r="F148" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G148" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H148" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
       </c>
       <c r="I148" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
       </c>
       <c r="J148" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
       </c>
       <c r="K148" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="L148" t="str">
         <v>null</v>
@@ -6028,13 +6028,13 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="B149" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C149" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D149" t="str">
         <v>null</v>
@@ -6043,19 +6043,19 @@
         <v>null</v>
       </c>
       <c r="F149" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="G149" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>null</v>
       </c>
       <c r="H149" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N</v>
       </c>
       <c r="I149" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N</v>
       </c>
       <c r="J149" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N</v>
       </c>
       <c r="K149" t="str">
         <v>null</v>
@@ -6066,7 +6066,7 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/pop_regulation</v>
       </c>
       <c r="B150" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6078,7 +6078,7 @@
         <v>null</v>
       </c>
       <c r="E150" t="str">
-        <v>C&amp;L Harmonized classification</v>
+        <v>POP Regulation</v>
       </c>
       <c r="F150" t="str">
         <v>null</v>
@@ -6087,13 +6087,13 @@
         <v>null</v>
       </c>
       <c r="H150" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="I150" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="J150" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="K150" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -6104,7 +6104,7 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="B151" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6116,7 +6116,7 @@
         <v>null</v>
       </c>
       <c r="E151" t="str">
-        <v>edlists.org List I</v>
+        <v>REACH SVHC Candidate list</v>
       </c>
       <c r="F151" t="str">
         <v>null</v>
@@ -6125,13 +6125,13 @@
         <v>null</v>
       </c>
       <c r="H151" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
       </c>
       <c r="I151" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
       </c>
       <c r="J151" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
       </c>
       <c r="K151" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -6142,19 +6142,19 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="B152" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
       <c r="C152" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D152" t="str">
         <v>null</v>
       </c>
       <c r="E152" t="str">
-        <v>eigen</v>
+        <v>Codelijst zorgwekkende stoffen</v>
       </c>
       <c r="F152" t="str">
         <v>null</v>
@@ -6163,176 +6163,24 @@
         <v>null</v>
       </c>
       <c r="H152" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="I152" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="J152" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DVKJHBMWWAPEIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HBGGXOJOCNVPFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXHVJJICTQNCMI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="K152" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="L152" t="str">
-        <v>null</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/pop_regulation</v>
-      </c>
-      <c r="B153" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
-      </c>
-      <c r="C153" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
-      </c>
-      <c r="D153" t="str">
-        <v>null</v>
-      </c>
-      <c r="E153" t="str">
-        <v>POP Regulation</v>
-      </c>
-      <c r="F153" t="str">
-        <v>null</v>
-      </c>
-      <c r="G153" t="str">
-        <v>null</v>
-      </c>
-      <c r="H153" t="str">
-        <v>null</v>
-      </c>
-      <c r="I153" t="str">
-        <v>null</v>
-      </c>
-      <c r="J153" t="str">
-        <v>null</v>
-      </c>
-      <c r="K153" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
-      </c>
-      <c r="L153" t="str">
-        <v>null</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
-      </c>
-      <c r="B154" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
-      </c>
-      <c r="C154" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
-      </c>
-      <c r="D154" t="str">
-        <v>null</v>
-      </c>
-      <c r="E154" t="str">
-        <v>REACH SVHC Candidate list</v>
-      </c>
-      <c r="F154" t="str">
-        <v>null</v>
-      </c>
-      <c r="G154" t="str">
-        <v>null</v>
-      </c>
-      <c r="H154" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
-      </c>
-      <c r="I154" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
-      </c>
-      <c r="J154" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
-      </c>
-      <c r="K154" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
-      </c>
-      <c r="L154" t="str">
-        <v>null</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt</v>
-      </c>
-      <c r="B155" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
-      </c>
-      <c r="C155" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
-      </c>
-      <c r="D155" t="str">
-        <v>null</v>
-      </c>
-      <c r="E155" t="str">
-        <v>UBA PMT</v>
-      </c>
-      <c r="F155" t="str">
-        <v>null</v>
-      </c>
-      <c r="G155" t="str">
-        <v>null</v>
-      </c>
-      <c r="H155" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
-      </c>
-      <c r="I155" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
-      </c>
-      <c r="J155" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
-      </c>
-      <c r="K155" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
-      </c>
-      <c r="L155" t="str">
-        <v>null</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
-      </c>
-      <c r="B156" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
-      </c>
-      <c r="C156" t="str">
-        <v>null</v>
-      </c>
-      <c r="D156" t="str">
-        <v>null</v>
-      </c>
-      <c r="E156" t="str">
-        <v>Codelijst zorgwekkende stoffen</v>
-      </c>
-      <c r="F156" t="str">
-        <v>null</v>
-      </c>
-      <c r="G156" t="str">
-        <v>null</v>
-      </c>
-      <c r="H156" t="str">
-        <v>null</v>
-      </c>
-      <c r="I156" t="str">
-        <v>null</v>
-      </c>
-      <c r="J156" t="str">
-        <v>null</v>
-      </c>
-      <c r="K156" t="str">
-        <v>null</v>
-      </c>
-      <c r="L156" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/uba_pmt|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/pop_regulation</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/pop_regulation</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L156"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L152"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/zorgwekkende_stof/zorgwekkende_stof.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/zorgwekkende_stof/zorgwekkende_stof.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L152"/>
+  <dimension ref="A1:M151"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -419,24 +419,27 @@
         <v>prefLabel</v>
       </c>
       <c r="F1" t="str">
+        <v>altLabel</v>
+      </c>
+      <c r="G1" t="str">
         <v>broader</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>broaderTransitive</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>semanticRelation</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>narrower</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>narrowerTransitive</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>topConceptOf</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>hasTopConcept</v>
       </c>
     </row>
@@ -477,6 +480,9 @@
       <c r="L2" t="str">
         <v>null</v>
       </c>
+      <c r="M2" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -515,6 +521,9 @@
       <c r="L3" t="str">
         <v>null</v>
       </c>
+      <c r="M3" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -553,6 +562,9 @@
       <c r="L4" t="str">
         <v>null</v>
       </c>
+      <c r="M4" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -591,13 +603,16 @@
       <c r="L5" t="str">
         <v>null</v>
       </c>
+      <c r="M5" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/collection/zorgwekkende_stof/uba_pmt</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N</v>
       </c>
       <c r="B6" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Collection</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C6" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -606,19 +621,19 @@
         <v>null</v>
       </c>
       <c r="E6" t="str">
-        <v>UBA PMT</v>
+        <v>null</v>
       </c>
       <c r="F6" t="str">
-        <v>null</v>
+        <v>2,2,3-trifluoro-3-[1,1,2,2,3,3-hexafluoro-3-(trifluoromethoxy)propoxy]propanoic acid</v>
       </c>
       <c r="G6" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H6" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I6" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J6" t="str">
         <v>null</v>
@@ -627,12 +642,15 @@
         <v>null</v>
       </c>
       <c r="L6" t="str">
+        <v>null</v>
+      </c>
+      <c r="M6" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N</v>
       </c>
       <c r="B7" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -647,16 +665,16 @@
         <v>null</v>
       </c>
       <c r="F7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>1,2-Benzenedicarboxylic acid, dihexyl ester, branched and linear</v>
       </c>
       <c r="G7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I7" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J7" t="str">
         <v>null</v>
@@ -665,12 +683,15 @@
         <v>null</v>
       </c>
       <c r="L7" t="str">
+        <v>null</v>
+      </c>
+      <c r="M7" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B8" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -685,16 +706,16 @@
         <v>null</v>
       </c>
       <c r="F8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>beryllium</v>
       </c>
       <c r="G8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I8" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J8" t="str">
         <v>null</v>
@@ -703,12 +724,15 @@
         <v>null</v>
       </c>
       <c r="L8" t="str">
+        <v>null</v>
+      </c>
+      <c r="M8" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N</v>
       </c>
       <c r="B9" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -723,16 +747,16 @@
         <v>null</v>
       </c>
       <c r="F9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>Pyrene</v>
       </c>
       <c r="G9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I9" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J9" t="str">
         <v>null</v>
@@ -741,12 +765,15 @@
         <v>null</v>
       </c>
       <c r="L9" t="str">
+        <v>null</v>
+      </c>
+      <c r="M9" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N</v>
       </c>
       <c r="B10" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -761,16 +788,16 @@
         <v>null</v>
       </c>
       <c r="F10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>1-chloro-2-nitrobenzene</v>
       </c>
       <c r="G10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I10" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J10" t="str">
         <v>null</v>
@@ -779,12 +806,15 @@
         <v>null</v>
       </c>
       <c r="L10" t="str">
+        <v>null</v>
+      </c>
+      <c r="M10" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N</v>
       </c>
       <c r="B11" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -799,16 +829,16 @@
         <v>null</v>
       </c>
       <c r="F11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>1-chloro-2,3-epoxypropane|epichlorhydrin</v>
       </c>
       <c r="G11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I11" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J11" t="str">
         <v>null</v>
@@ -817,12 +847,15 @@
         <v>null</v>
       </c>
       <c r="L11" t="str">
+        <v>null</v>
+      </c>
+      <c r="M11" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N</v>
       </c>
       <c r="B12" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -837,7 +870,7 @@
         <v>null</v>
       </c>
       <c r="F12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>Chloroethylene</v>
       </c>
       <c r="G12" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
@@ -846,7 +879,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I12" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J12" t="str">
         <v>null</v>
@@ -855,12 +888,15 @@
         <v>null</v>
       </c>
       <c r="L12" t="str">
+        <v>null</v>
+      </c>
+      <c r="M12" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N</v>
       </c>
       <c r="B13" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -875,16 +911,16 @@
         <v>null</v>
       </c>
       <c r="F13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>tert-butyl methyl ether</v>
       </c>
       <c r="G13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I13" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J13" t="str">
         <v>null</v>
@@ -893,12 +929,15 @@
         <v>null</v>
       </c>
       <c r="L13" t="str">
+        <v>null</v>
+      </c>
+      <c r="M13" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N</v>
       </c>
       <c r="B14" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -913,16 +952,16 @@
         <v>null</v>
       </c>
       <c r="F14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>1,2,3-trichloropropane</v>
       </c>
       <c r="G14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I14" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J14" t="str">
         <v>null</v>
@@ -931,12 +970,15 @@
         <v>null</v>
       </c>
       <c r="L14" t="str">
+        <v>null</v>
+      </c>
+      <c r="M14" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N</v>
       </c>
       <c r="B15" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -951,16 +993,16 @@
         <v>null</v>
       </c>
       <c r="F15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>2,3,3,3-tetrafluoro-2-(heptafluoropropoxy)propionic acid</v>
       </c>
       <c r="G15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I15" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J15" t="str">
         <v>null</v>
@@ -969,12 +1011,15 @@
         <v>null</v>
       </c>
       <c r="L15" t="str">
+        <v>null</v>
+      </c>
+      <c r="M15" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N</v>
       </c>
       <c r="B16" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -989,16 +1034,16 @@
         <v>null</v>
       </c>
       <c r="F16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>Acenaphthene</v>
       </c>
       <c r="G16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I16" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J16" t="str">
         <v>null</v>
@@ -1007,12 +1052,15 @@
         <v>null</v>
       </c>
       <c r="L16" t="str">
+        <v>null</v>
+      </c>
+      <c r="M16" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N</v>
       </c>
       <c r="B17" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1027,16 +1075,16 @@
         <v>null</v>
       </c>
       <c r="F17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Tricosafluorododecanoic acid</v>
       </c>
       <c r="G17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I17" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J17" t="str">
         <v>null</v>
@@ -1045,12 +1093,15 @@
         <v>null</v>
       </c>
       <c r="L17" t="str">
+        <v>null</v>
+      </c>
+      <c r="M17" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N</v>
       </c>
       <c r="B18" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1065,16 +1116,16 @@
         <v>null</v>
       </c>
       <c r="F18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>4-chloro-&lt;i&gt;o&lt;/i&gt;-toluidine</v>
       </c>
       <c r="G18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I18" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J18" t="str">
         <v>null</v>
@@ -1083,12 +1134,15 @@
         <v>null</v>
       </c>
       <c r="L18" t="str">
+        <v>null</v>
+      </c>
+      <c r="M18" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N</v>
       </c>
       <c r="B19" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1103,16 +1157,16 @@
         <v>null</v>
       </c>
       <c r="F19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>Tetrachloroethylene</v>
       </c>
       <c r="G19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I19" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J19" t="str">
         <v>null</v>
@@ -1121,12 +1175,15 @@
         <v>null</v>
       </c>
       <c r="L19" t="str">
+        <v>null</v>
+      </c>
+      <c r="M19" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N</v>
       </c>
       <c r="B20" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1141,7 +1198,7 @@
         <v>null</v>
       </c>
       <c r="F20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>1-chloro-4-nitrobenzene</v>
       </c>
       <c r="G20" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -1150,7 +1207,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I20" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J20" t="str">
         <v>null</v>
@@ -1159,12 +1216,15 @@
         <v>null</v>
       </c>
       <c r="L20" t="str">
+        <v>null</v>
+      </c>
+      <c r="M20" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N</v>
       </c>
       <c r="B21" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1179,7 +1239,7 @@
         <v>null</v>
       </c>
       <c r="F21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Aclonifen</v>
       </c>
       <c r="G21" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -1188,7 +1248,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I21" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J21" t="str">
         <v>null</v>
@@ -1197,12 +1257,15 @@
         <v>null</v>
       </c>
       <c r="L21" t="str">
+        <v>null</v>
+      </c>
+      <c r="M21" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N</v>
       </c>
       <c r="B22" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1217,16 +1280,16 @@
         <v>null</v>
       </c>
       <c r="F22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>1,3-dichloro-2-propanol</v>
       </c>
       <c r="G22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I22" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J22" t="str">
         <v>null</v>
@@ -1235,12 +1298,15 @@
         <v>null</v>
       </c>
       <c r="L22" t="str">
+        <v>null</v>
+      </c>
+      <c r="M22" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N</v>
       </c>
       <c r="B23" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1255,16 +1321,16 @@
         <v>null</v>
       </c>
       <c r="F23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>2-methylpropan-2-ol</v>
       </c>
       <c r="G23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I23" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J23" t="str">
         <v>null</v>
@@ -1273,12 +1339,15 @@
         <v>null</v>
       </c>
       <c r="L23" t="str">
+        <v>null</v>
+      </c>
+      <c r="M23" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N</v>
       </c>
       <c r="B24" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1293,16 +1362,16 @@
         <v>null</v>
       </c>
       <c r="F24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>DBP|dibutyl phthalate</v>
       </c>
       <c r="G24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="H24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="I24" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="J24" t="str">
         <v>null</v>
@@ -1311,12 +1380,15 @@
         <v>null</v>
       </c>
       <c r="L24" t="str">
+        <v>null</v>
+      </c>
+      <c r="M24" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N</v>
       </c>
       <c r="B25" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1331,16 +1403,16 @@
         <v>null</v>
       </c>
       <c r="F25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>benz[&lt;i&gt;a&lt;/i&gt;]anthracene</v>
       </c>
       <c r="G25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I25" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J25" t="str">
         <v>null</v>
@@ -1349,12 +1421,15 @@
         <v>null</v>
       </c>
       <c r="L25" t="str">
+        <v>null</v>
+      </c>
+      <c r="M25" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N</v>
       </c>
       <c r="B26" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1369,16 +1444,16 @@
         <v>null</v>
       </c>
       <c r="F26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>1,2,3,4,6,7,8,9-Octachlorodibenzo-p-dioxin</v>
       </c>
       <c r="G26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I26" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J26" t="str">
         <v>null</v>
@@ -1387,12 +1462,15 @@
         <v>null</v>
       </c>
       <c r="L26" t="str">
+        <v>null</v>
+      </c>
+      <c r="M26" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N</v>
       </c>
       <c r="B27" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1407,7 +1485,7 @@
         <v>null</v>
       </c>
       <c r="F27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Chlorfenvinphos</v>
       </c>
       <c r="G27" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -1416,7 +1494,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I27" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J27" t="str">
         <v>null</v>
@@ -1425,12 +1503,15 @@
         <v>null</v>
       </c>
       <c r="L27" t="str">
+        <v>null</v>
+      </c>
+      <c r="M27" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N</v>
       </c>
       <c r="B28" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1445,7 +1526,7 @@
         <v>null</v>
       </c>
       <c r="F28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>1,2,3,7,8-Pentachlorodibenzo-p-dioxin</v>
       </c>
       <c r="G28" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -1454,7 +1535,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I28" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J28" t="str">
         <v>null</v>
@@ -1463,12 +1544,15 @@
         <v>null</v>
       </c>
       <c r="L28" t="str">
+        <v>null</v>
+      </c>
+      <c r="M28" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N</v>
       </c>
       <c r="B29" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1483,16 +1567,16 @@
         <v>null</v>
       </c>
       <c r="F29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>1,2-epoxypropane|methyloxirane|propylene oxide</v>
       </c>
       <c r="G29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I29" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J29" t="str">
         <v>null</v>
@@ -1501,12 +1585,15 @@
         <v>null</v>
       </c>
       <c r="L29" t="str">
+        <v>null</v>
+      </c>
+      <c r="M29" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N</v>
       </c>
       <c r="B30" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1521,16 +1608,16 @@
         <v>null</v>
       </c>
       <c r="F30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>cobalt</v>
       </c>
       <c r="G30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I30" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J30" t="str">
         <v>null</v>
@@ -1539,12 +1626,15 @@
         <v>null</v>
       </c>
       <c r="L30" t="str">
+        <v>null</v>
+      </c>
+      <c r="M30" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N</v>
       </c>
       <c r="B31" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1559,16 +1649,16 @@
         <v>null</v>
       </c>
       <c r="F31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>Fluoranthene</v>
       </c>
       <c r="G31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J31" t="str">
         <v>null</v>
@@ -1577,12 +1667,15 @@
         <v>null</v>
       </c>
       <c r="L31" t="str">
+        <v>null</v>
+      </c>
+      <c r="M31" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N</v>
       </c>
       <c r="B32" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1597,7 +1690,7 @@
         <v>null</v>
       </c>
       <c r="F32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>Benzo(g,h,i)perylene</v>
       </c>
       <c r="G32" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
@@ -1606,7 +1699,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I32" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J32" t="str">
         <v>null</v>
@@ -1615,12 +1708,15 @@
         <v>null</v>
       </c>
       <c r="L32" t="str">
+        <v>null</v>
+      </c>
+      <c r="M32" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N</v>
       </c>
       <c r="B33" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1635,16 +1731,16 @@
         <v>null</v>
       </c>
       <c r="F33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>Cybutryne</v>
       </c>
       <c r="G33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J33" t="str">
         <v>null</v>
@@ -1653,12 +1749,15 @@
         <v>null</v>
       </c>
       <c r="L33" t="str">
+        <v>null</v>
+      </c>
+      <c r="M33" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N</v>
       </c>
       <c r="B34" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1673,7 +1772,7 @@
         <v>null</v>
       </c>
       <c r="F34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Chloroform</v>
       </c>
       <c r="G34" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -1682,7 +1781,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I34" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J34" t="str">
         <v>null</v>
@@ -1691,12 +1790,15 @@
         <v>null</v>
       </c>
       <c r="L34" t="str">
+        <v>null</v>
+      </c>
+      <c r="M34" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N</v>
       </c>
       <c r="B35" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1711,16 +1813,16 @@
         <v>null</v>
       </c>
       <c r="F35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Benzidine</v>
       </c>
       <c r="G35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J35" t="str">
         <v>null</v>
@@ -1729,12 +1831,15 @@
         <v>null</v>
       </c>
       <c r="L35" t="str">
+        <v>null</v>
+      </c>
+      <c r="M35" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N</v>
       </c>
       <c r="B36" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1749,16 +1854,16 @@
         <v>null</v>
       </c>
       <c r="F36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>2,4-dichlorophenol</v>
       </c>
       <c r="G36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J36" t="str">
         <v>null</v>
@@ -1767,12 +1872,15 @@
         <v>null</v>
       </c>
       <c r="L36" t="str">
+        <v>null</v>
+      </c>
+      <c r="M36" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N</v>
       </c>
       <c r="B37" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1787,7 +1895,7 @@
         <v>null</v>
       </c>
       <c r="F37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>2,3,7,8-Tetrachlorodibenzo-p-dioxin</v>
       </c>
       <c r="G37" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -1796,7 +1904,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J37" t="str">
         <v>null</v>
@@ -1805,18 +1913,21 @@
         <v>null</v>
       </c>
       <c r="L37" t="str">
+        <v>null</v>
+      </c>
+      <c r="M37" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N</v>
       </c>
       <c r="B38" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D38" t="str">
         <v>null</v>
@@ -1825,7 +1936,7 @@
         <v>null</v>
       </c>
       <c r="F38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Chloroethane</v>
       </c>
       <c r="G38" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -1834,7 +1945,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J38" t="str">
         <v>null</v>
@@ -1843,12 +1954,15 @@
         <v>null</v>
       </c>
       <c r="L38" t="str">
+        <v>null</v>
+      </c>
+      <c r="M38" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N</v>
       </c>
       <c r="B39" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1863,16 +1977,16 @@
         <v>null</v>
       </c>
       <c r="F39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>3,3'-dichlorobenzidine|3,3'-dichlorobiphenyl-4,4'-ylenediamine</v>
       </c>
       <c r="G39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I39" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J39" t="str">
         <v>null</v>
@@ -1881,12 +1995,15 @@
         <v>null</v>
       </c>
       <c r="L39" t="str">
+        <v>null</v>
+      </c>
+      <c r="M39" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N</v>
       </c>
       <c r="B40" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1901,16 +2018,16 @@
         <v>null</v>
       </c>
       <c r="F40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>2,2'-dichloro-4,4'-methylenedianiline</v>
       </c>
       <c r="G40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J40" t="str">
         <v>null</v>
@@ -1919,12 +2036,15 @@
         <v>null</v>
       </c>
       <c r="L40" t="str">
+        <v>null</v>
+      </c>
+      <c r="M40" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N</v>
       </c>
       <c r="B41" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1939,16 +2059,16 @@
         <v>null</v>
       </c>
       <c r="F41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>4,4'-isopropylidenediphenol; Bisphenol A</v>
       </c>
       <c r="G41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="H41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="I41" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="J41" t="str">
         <v>null</v>
@@ -1957,12 +2077,15 @@
         <v>null</v>
       </c>
       <c r="L41" t="str">
+        <v>null</v>
+      </c>
+      <c r="M41" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N</v>
       </c>
       <c r="B42" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1977,16 +2100,16 @@
         <v>null</v>
       </c>
       <c r="F42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>Dipentyl phthalate (DPP)</v>
       </c>
       <c r="G42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I42" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J42" t="str">
         <v>null</v>
@@ -1995,12 +2118,15 @@
         <v>null</v>
       </c>
       <c r="L42" t="str">
+        <v>null</v>
+      </c>
+      <c r="M42" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B43" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2015,16 +2141,16 @@
         <v>null</v>
       </c>
       <c r="F43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>Benzyl butyl phthalate (BBP)</v>
       </c>
       <c r="G43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="H43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="I43" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="J43" t="str">
         <v>null</v>
@@ -2033,12 +2159,15 @@
         <v>null</v>
       </c>
       <c r="L43" t="str">
+        <v>null</v>
+      </c>
+      <c r="M43" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N</v>
       </c>
       <c r="B44" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2053,16 +2182,16 @@
         <v>null</v>
       </c>
       <c r="F44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>Terbutryn</v>
       </c>
       <c r="G44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I44" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J44" t="str">
         <v>null</v>
@@ -2071,12 +2200,15 @@
         <v>null</v>
       </c>
       <c r="L44" t="str">
+        <v>null</v>
+      </c>
+      <c r="M44" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B45" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2091,16 +2223,16 @@
         <v>null</v>
       </c>
       <c r="F45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Diisopentyl phthalate</v>
       </c>
       <c r="G45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I45" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J45" t="str">
         <v>null</v>
@@ -2109,12 +2241,15 @@
         <v>null</v>
       </c>
       <c r="L45" t="str">
+        <v>null</v>
+      </c>
+      <c r="M45" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N</v>
       </c>
       <c r="B46" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2129,16 +2264,16 @@
         <v>null</v>
       </c>
       <c r="F46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>2-naphthylamine</v>
       </c>
       <c r="G46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I46" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J46" t="str">
         <v>null</v>
@@ -2147,12 +2282,15 @@
         <v>null</v>
       </c>
       <c r="L46" t="str">
+        <v>null</v>
+      </c>
+      <c r="M46" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N</v>
       </c>
       <c r="B47" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2167,16 +2305,16 @@
         <v>null</v>
       </c>
       <c r="F47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>1,2,3,6,7,8-Hexachlorodibenzofuran</v>
       </c>
       <c r="G47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I47" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J47" t="str">
         <v>null</v>
@@ -2185,12 +2323,15 @@
         <v>null</v>
       </c>
       <c r="L47" t="str">
+        <v>null</v>
+      </c>
+      <c r="M47" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N</v>
       </c>
       <c r="B48" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2205,16 +2346,16 @@
         <v>null</v>
       </c>
       <c r="F48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>1,1,2,2,3,3,4,4,4-nonafluorobutane-1-sulphonic acid</v>
       </c>
       <c r="G48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I48" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J48" t="str">
         <v>null</v>
@@ -2223,12 +2364,15 @@
         <v>null</v>
       </c>
       <c r="L48" t="str">
+        <v>null</v>
+      </c>
+      <c r="M48" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B49" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2243,16 +2387,16 @@
         <v>null</v>
       </c>
       <c r="F49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>Phenol, 4-nonyl-, branched</v>
       </c>
       <c r="G49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="H49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="I49" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="J49" t="str">
         <v>null</v>
@@ -2261,12 +2405,15 @@
         <v>null</v>
       </c>
       <c r="L49" t="str">
+        <v>null</v>
+      </c>
+      <c r="M49" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N</v>
       </c>
       <c r="B50" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2281,16 +2428,16 @@
         <v>null</v>
       </c>
       <c r="F50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>Perfluoroheptanoic acid; tridecafluoroheptanoic acid</v>
       </c>
       <c r="G50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I50" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J50" t="str">
         <v>null</v>
@@ -2299,12 +2446,15 @@
         <v>null</v>
       </c>
       <c r="L50" t="str">
+        <v>null</v>
+      </c>
+      <c r="M50" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N</v>
       </c>
       <c r="B51" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2319,16 +2469,16 @@
         <v>null</v>
       </c>
       <c r="F51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>Cypermethrin;zeta-Cypermethrin</v>
       </c>
       <c r="G51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I51" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J51" t="str">
         <v>null</v>
@@ -2337,12 +2487,15 @@
         <v>null</v>
       </c>
       <c r="L51" t="str">
+        <v>null</v>
+      </c>
+      <c r="M51" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N</v>
       </c>
       <c r="B52" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2357,16 +2510,16 @@
         <v>null</v>
       </c>
       <c r="F52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>1,3-butadiene|buta-1,3-diene</v>
       </c>
       <c r="G52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I52" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J52" t="str">
         <v>null</v>
@@ -2375,12 +2528,15 @@
         <v>null</v>
       </c>
       <c r="L52" t="str">
+        <v>null</v>
+      </c>
+      <c r="M52" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N</v>
       </c>
       <c r="B53" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2395,7 +2551,7 @@
         <v>null</v>
       </c>
       <c r="F53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>benzyl chloride|α-chlorotoluene</v>
       </c>
       <c r="G53" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
@@ -2404,7 +2560,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I53" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J53" t="str">
         <v>null</v>
@@ -2413,12 +2569,15 @@
         <v>null</v>
       </c>
       <c r="L53" t="str">
+        <v>null</v>
+      </c>
+      <c r="M53" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N</v>
       </c>
       <c r="B54" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2433,16 +2592,16 @@
         <v>null</v>
       </c>
       <c r="F54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>Dihexyl phthalate</v>
       </c>
       <c r="G54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I54" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J54" t="str">
         <v>null</v>
@@ -2451,12 +2610,15 @@
         <v>null</v>
       </c>
       <c r="L54" t="str">
+        <v>null</v>
+      </c>
+      <c r="M54" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N</v>
       </c>
       <c r="B55" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2471,16 +2633,16 @@
         <v>null</v>
       </c>
       <c r="F55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>trans-dichloroethylene</v>
       </c>
       <c r="G55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I55" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J55" t="str">
         <v>null</v>
@@ -2489,12 +2651,15 @@
         <v>null</v>
       </c>
       <c r="L55" t="str">
+        <v>null</v>
+      </c>
+      <c r="M55" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N</v>
       </c>
       <c r="B56" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2509,16 +2674,16 @@
         <v>null</v>
       </c>
       <c r="F56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>1,2-dichloropropane|propylene dichloride</v>
       </c>
       <c r="G56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I56" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J56" t="str">
         <v>null</v>
@@ -2527,12 +2692,15 @@
         <v>null</v>
       </c>
       <c r="L56" t="str">
+        <v>null</v>
+      </c>
+      <c r="M56" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N</v>
       </c>
       <c r="B57" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2547,16 +2715,16 @@
         <v>null</v>
       </c>
       <c r="F57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>2,3,7,8-Tetrachlorodibenzofuran</v>
       </c>
       <c r="G57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I57" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J57" t="str">
         <v>null</v>
@@ -2565,12 +2733,15 @@
         <v>null</v>
       </c>
       <c r="L57" t="str">
+        <v>null</v>
+      </c>
+      <c r="M57" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N</v>
       </c>
       <c r="B58" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2585,7 +2756,7 @@
         <v>null</v>
       </c>
       <c r="F58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>1,2,3,7,8,9-Hexachlorodibenzo-p-dioxin</v>
       </c>
       <c r="G58" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -2594,7 +2765,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I58" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J58" t="str">
         <v>null</v>
@@ -2603,12 +2774,15 @@
         <v>null</v>
       </c>
       <c r="L58" t="str">
+        <v>null</v>
+      </c>
+      <c r="M58" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N</v>
       </c>
       <c r="B59" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2623,7 +2797,7 @@
         <v>null</v>
       </c>
       <c r="F59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>1,1-Dichloroethene</v>
       </c>
       <c r="G59" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -2632,7 +2806,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I59" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J59" t="str">
         <v>null</v>
@@ -2641,12 +2815,15 @@
         <v>null</v>
       </c>
       <c r="L59" t="str">
+        <v>null</v>
+      </c>
+      <c r="M59" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B60" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2661,16 +2838,16 @@
         <v>null</v>
       </c>
       <c r="F60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Dibenzo[a,h]anthracene (DBAhA)</v>
       </c>
       <c r="G60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I60" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J60" t="str">
         <v>null</v>
@@ -2679,12 +2856,15 @@
         <v>null</v>
       </c>
       <c r="L60" t="str">
+        <v>null</v>
+      </c>
+      <c r="M60" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N</v>
       </c>
       <c r="B61" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2699,16 +2879,16 @@
         <v>null</v>
       </c>
       <c r="F61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>Pentacosafluorotridecanoic acid</v>
       </c>
       <c r="G61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I61" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J61" t="str">
         <v>null</v>
@@ -2717,12 +2897,15 @@
         <v>null</v>
       </c>
       <c r="L61" t="str">
+        <v>null</v>
+      </c>
+      <c r="M61" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N</v>
       </c>
       <c r="B62" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2737,16 +2920,16 @@
         <v>null</v>
       </c>
       <c r="F62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>1,2,3,4,7,8-Hexachlorodibenzofuran</v>
       </c>
       <c r="G62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I62" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J62" t="str">
         <v>null</v>
@@ -2755,12 +2938,15 @@
         <v>null</v>
       </c>
       <c r="L62" t="str">
+        <v>null</v>
+      </c>
+      <c r="M62" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N</v>
       </c>
       <c r="B63" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2775,16 +2961,16 @@
         <v>null</v>
       </c>
       <c r="F63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Diisobutyl phthalate</v>
       </c>
       <c r="G63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="H63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="I63" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="J63" t="str">
         <v>null</v>
@@ -2793,12 +2979,15 @@
         <v>null</v>
       </c>
       <c r="L63" t="str">
+        <v>null</v>
+      </c>
+      <c r="M63" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N</v>
       </c>
       <c r="B64" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2813,16 +3002,16 @@
         <v>null</v>
       </c>
       <c r="F64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>Di-n-octyl phthalate (DNOP)</v>
       </c>
       <c r="G64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I64" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J64" t="str">
         <v>null</v>
@@ -2831,12 +3020,15 @@
         <v>null</v>
       </c>
       <c r="L64" t="str">
+        <v>null</v>
+      </c>
+      <c r="M64" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B65" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2851,7 +3043,7 @@
         <v>null</v>
       </c>
       <c r="F65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Chlorobenzene</v>
       </c>
       <c r="G65" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -2860,7 +3052,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I65" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J65" t="str">
         <v>null</v>
@@ -2869,12 +3061,15 @@
         <v>null</v>
       </c>
       <c r="L65" t="str">
+        <v>null</v>
+      </c>
+      <c r="M65" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N</v>
       </c>
       <c r="B66" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2889,16 +3084,16 @@
         <v>null</v>
       </c>
       <c r="F66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Anthracene</v>
       </c>
       <c r="G66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I66" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J66" t="str">
         <v>null</v>
@@ -2907,12 +3102,15 @@
         <v>null</v>
       </c>
       <c r="L66" t="str">
+        <v>null</v>
+      </c>
+      <c r="M66" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N</v>
       </c>
       <c r="B67" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2927,16 +3125,16 @@
         <v>null</v>
       </c>
       <c r="F67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>Atrazine</v>
       </c>
       <c r="G67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I67" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J67" t="str">
         <v>null</v>
@@ -2945,12 +3143,15 @@
         <v>null</v>
       </c>
       <c r="L67" t="str">
+        <v>null</v>
+      </c>
+      <c r="M67" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N</v>
       </c>
       <c r="B68" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2965,16 +3166,16 @@
         <v>null</v>
       </c>
       <c r="F68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>acrylonitrile</v>
       </c>
       <c r="G68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I68" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J68" t="str">
         <v>null</v>
@@ -2983,12 +3184,15 @@
         <v>null</v>
       </c>
       <c r="L68" t="str">
+        <v>null</v>
+      </c>
+      <c r="M68" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N</v>
       </c>
       <c r="B69" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3003,7 +3207,7 @@
         <v>null</v>
       </c>
       <c r="F69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>aziridine|ethyleneimine</v>
       </c>
       <c r="G69" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
@@ -3012,7 +3216,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I69" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J69" t="str">
         <v>null</v>
@@ -3021,12 +3225,15 @@
         <v>null</v>
       </c>
       <c r="L69" t="str">
+        <v>null</v>
+      </c>
+      <c r="M69" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N</v>
       </c>
       <c r="B70" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3041,7 +3248,7 @@
         <v>null</v>
       </c>
       <c r="F70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>Hydrazine</v>
       </c>
       <c r="G70" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
@@ -3050,7 +3257,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I70" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J70" t="str">
         <v>null</v>
@@ -3059,12 +3266,15 @@
         <v>null</v>
       </c>
       <c r="L70" t="str">
+        <v>null</v>
+      </c>
+      <c r="M70" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N</v>
       </c>
       <c r="B71" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3079,16 +3289,16 @@
         <v>null</v>
       </c>
       <c r="F71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>1,4-Dichlorobenzene</v>
       </c>
       <c r="G71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I71" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J71" t="str">
         <v>null</v>
@@ -3097,12 +3307,15 @@
         <v>null</v>
       </c>
       <c r="L71" t="str">
+        <v>null</v>
+      </c>
+      <c r="M71" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N</v>
       </c>
       <c r="B72" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3117,7 +3330,7 @@
         <v>null</v>
       </c>
       <c r="F72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Simazine</v>
       </c>
       <c r="G72" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -3126,7 +3339,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I72" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J72" t="str">
         <v>null</v>
@@ -3135,12 +3348,15 @@
         <v>null</v>
       </c>
       <c r="L72" t="str">
+        <v>null</v>
+      </c>
+      <c r="M72" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N</v>
       </c>
       <c r="B73" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3155,7 +3371,7 @@
         <v>null</v>
       </c>
       <c r="F73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Dichlorvos</v>
       </c>
       <c r="G73" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -3164,7 +3380,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I73" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J73" t="str">
         <v>null</v>
@@ -3173,12 +3389,15 @@
         <v>null</v>
       </c>
       <c r="L73" t="str">
+        <v>null</v>
+      </c>
+      <c r="M73" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N</v>
       </c>
       <c r="B74" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3193,7 +3412,7 @@
         <v>null</v>
       </c>
       <c r="F74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>2,3,4,7,8-Pentachlorodibenzofuran</v>
       </c>
       <c r="G74" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -3202,7 +3421,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I74" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J74" t="str">
         <v>null</v>
@@ -3211,12 +3430,15 @@
         <v>null</v>
       </c>
       <c r="L74" t="str">
+        <v>null</v>
+      </c>
+      <c r="M74" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N</v>
       </c>
       <c r="B75" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3231,16 +3453,16 @@
         <v>null</v>
       </c>
       <c r="F75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>1,2-dibromoethane</v>
       </c>
       <c r="G75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I75" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J75" t="str">
         <v>null</v>
@@ -3249,12 +3471,15 @@
         <v>null</v>
       </c>
       <c r="L75" t="str">
+        <v>null</v>
+      </c>
+      <c r="M75" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N</v>
       </c>
       <c r="B76" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3269,16 +3494,16 @@
         <v>null</v>
       </c>
       <c r="F76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>4-chloro-2-nitroaniline</v>
       </c>
       <c r="G76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I76" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J76" t="str">
         <v>null</v>
@@ -3287,12 +3512,15 @@
         <v>null</v>
       </c>
       <c r="L76" t="str">
+        <v>null</v>
+      </c>
+      <c r="M76" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N</v>
       </c>
       <c r="B77" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3307,16 +3535,16 @@
         <v>null</v>
       </c>
       <c r="F77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Nonadecafluorodecanoic acid</v>
       </c>
       <c r="G77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I77" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J77" t="str">
         <v>null</v>
@@ -3325,12 +3553,15 @@
         <v>null</v>
       </c>
       <c r="L77" t="str">
+        <v>null</v>
+      </c>
+      <c r="M77" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N</v>
       </c>
       <c r="B78" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3345,16 +3576,16 @@
         <v>null</v>
       </c>
       <c r="F78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>3-chloroaniline</v>
       </c>
       <c r="G78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I78" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J78" t="str">
         <v>null</v>
@@ -3363,12 +3594,15 @@
         <v>null</v>
       </c>
       <c r="L78" t="str">
+        <v>null</v>
+      </c>
+      <c r="M78" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B79" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3383,7 +3617,7 @@
         <v>null</v>
       </c>
       <c r="F79" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Isoproturon</v>
       </c>
       <c r="G79" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -3392,7 +3626,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I79" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J79" t="str">
         <v>null</v>
@@ -3401,12 +3635,15 @@
         <v>null</v>
       </c>
       <c r="L79" t="str">
+        <v>null</v>
+      </c>
+      <c r="M79" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N</v>
       </c>
       <c r="B80" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3421,7 +3658,7 @@
         <v>null</v>
       </c>
       <c r="F80" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Dichlorodifluoromethane</v>
       </c>
       <c r="G80" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -3430,7 +3667,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I80" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J80" t="str">
         <v>null</v>
@@ -3439,12 +3676,15 @@
         <v>null</v>
       </c>
       <c r="L80" t="str">
+        <v>null</v>
+      </c>
+      <c r="M80" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N</v>
       </c>
       <c r="B81" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3459,7 +3699,7 @@
         <v>null</v>
       </c>
       <c r="F81" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Undecafluorohexanoic acid</v>
       </c>
       <c r="G81" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -3468,7 +3708,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I81" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J81" t="str">
         <v>null</v>
@@ -3477,12 +3717,15 @@
         <v>null</v>
       </c>
       <c r="L81" t="str">
+        <v>null</v>
+      </c>
+      <c r="M81" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N</v>
       </c>
       <c r="B82" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3497,7 +3740,7 @@
         <v>null</v>
       </c>
       <c r="F82" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>1,2,3,7,8,9-Hexachlorodibenzofuran</v>
       </c>
       <c r="G82" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -3506,7 +3749,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I82" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J82" t="str">
         <v>null</v>
@@ -3515,12 +3758,15 @@
         <v>null</v>
       </c>
       <c r="L82" t="str">
+        <v>null</v>
+      </c>
+      <c r="M82" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N</v>
       </c>
       <c r="B83" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3535,7 +3781,7 @@
         <v>null</v>
       </c>
       <c r="F83" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>1,1,2,2-Tetrachloroethane</v>
       </c>
       <c r="G83" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -3544,7 +3790,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I83" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J83" t="str">
         <v>null</v>
@@ -3553,12 +3799,15 @@
         <v>null</v>
       </c>
       <c r="L83" t="str">
+        <v>null</v>
+      </c>
+      <c r="M83" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N</v>
       </c>
       <c r="B84" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3573,16 +3822,16 @@
         <v>null</v>
       </c>
       <c r="F84" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Mercury</v>
       </c>
       <c r="G84" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H84" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I84" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J84" t="str">
         <v>null</v>
@@ -3591,12 +3840,15 @@
         <v>null</v>
       </c>
       <c r="L84" t="str">
+        <v>null</v>
+      </c>
+      <c r="M84" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N</v>
       </c>
       <c r="B85" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3611,7 +3863,7 @@
         <v>null</v>
       </c>
       <c r="F85" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>4-chloroaniline</v>
       </c>
       <c r="G85" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
@@ -3620,7 +3872,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I85" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J85" t="str">
         <v>null</v>
@@ -3629,12 +3881,15 @@
         <v>null</v>
       </c>
       <c r="L85" t="str">
+        <v>null</v>
+      </c>
+      <c r="M85" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N</v>
       </c>
       <c r="B86" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3649,16 +3904,16 @@
         <v>null</v>
       </c>
       <c r="F86" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>1,1,1,2-Tetrachloroethane</v>
       </c>
       <c r="G86" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H86" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I86" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J86" t="str">
         <v>null</v>
@@ -3667,12 +3922,15 @@
         <v>null</v>
       </c>
       <c r="L86" t="str">
+        <v>null</v>
+      </c>
+      <c r="M86" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N</v>
       </c>
       <c r="B87" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3687,16 +3945,16 @@
         <v>null</v>
       </c>
       <c r="F87" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Perfluorohexane-1-sulphonic acid</v>
       </c>
       <c r="G87" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H87" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I87" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J87" t="str">
         <v>null</v>
@@ -3705,12 +3963,15 @@
         <v>null</v>
       </c>
       <c r="L87" t="str">
+        <v>null</v>
+      </c>
+      <c r="M87" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N</v>
       </c>
       <c r="B88" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3725,16 +3986,16 @@
         <v>null</v>
       </c>
       <c r="F88" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>1,2-dichlorobenzene</v>
       </c>
       <c r="G88" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H88" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I88" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J88" t="str">
         <v>null</v>
@@ -3743,12 +4004,15 @@
         <v>null</v>
       </c>
       <c r="L88" t="str">
+        <v>null</v>
+      </c>
+      <c r="M88" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N</v>
       </c>
       <c r="B89" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3763,7 +4027,7 @@
         <v>null</v>
       </c>
       <c r="F89" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>1,2,3,4,6,7,8,9-Octachlorodibenzofuran</v>
       </c>
       <c r="G89" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -3772,7 +4036,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I89" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J89" t="str">
         <v>null</v>
@@ -3781,12 +4045,15 @@
         <v>null</v>
       </c>
       <c r="L89" t="str">
+        <v>null</v>
+      </c>
+      <c r="M89" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N</v>
       </c>
       <c r="B90" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3801,16 +4068,16 @@
         <v>null</v>
       </c>
       <c r="F90" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>1,2-Benzenedicarboxylic acid, di-C6-8-branched alkyl esters, C7-rich</v>
       </c>
       <c r="G90" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H90" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I90" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J90" t="str">
         <v>null</v>
@@ -3819,12 +4086,15 @@
         <v>null</v>
       </c>
       <c r="L90" t="str">
+        <v>null</v>
+      </c>
+      <c r="M90" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B91" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3839,7 +4109,7 @@
         <v>null</v>
       </c>
       <c r="F91" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>o-toluidine</v>
       </c>
       <c r="G91" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
@@ -3848,7 +4118,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I91" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J91" t="str">
         <v>null</v>
@@ -3857,12 +4127,15 @@
         <v>null</v>
       </c>
       <c r="L91" t="str">
+        <v>null</v>
+      </c>
+      <c r="M91" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N</v>
       </c>
       <c r="B92" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3877,16 +4150,16 @@
         <v>null</v>
       </c>
       <c r="F92" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>Arsenic</v>
       </c>
       <c r="G92" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H92" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I92" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J92" t="str">
         <v>null</v>
@@ -3895,12 +4168,15 @@
         <v>null</v>
       </c>
       <c r="L92" t="str">
+        <v>null</v>
+      </c>
+      <c r="M92" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B93" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3915,16 +4191,16 @@
         <v>null</v>
       </c>
       <c r="F93" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Heptacosafluorotetradecanoic acid</v>
       </c>
       <c r="G93" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H93" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I93" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J93" t="str">
         <v>null</v>
@@ -3933,12 +4209,15 @@
         <v>null</v>
       </c>
       <c r="L93" t="str">
+        <v>null</v>
+      </c>
+      <c r="M93" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N</v>
       </c>
       <c r="B94" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3953,16 +4232,16 @@
         <v>null</v>
       </c>
       <c r="F94" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>Cumene</v>
       </c>
       <c r="G94" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H94" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I94" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J94" t="str">
         <v>null</v>
@@ -3971,12 +4250,15 @@
         <v>null</v>
       </c>
       <c r="L94" t="str">
+        <v>null</v>
+      </c>
+      <c r="M94" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N</v>
       </c>
       <c r="B95" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3991,16 +4273,16 @@
         <v>null</v>
       </c>
       <c r="F95" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>1,4-dioxane</v>
       </c>
       <c r="G95" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H95" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I95" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J95" t="str">
         <v>null</v>
@@ -4009,12 +4291,15 @@
         <v>null</v>
       </c>
       <c r="L95" t="str">
+        <v>null</v>
+      </c>
+      <c r="M95" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N</v>
       </c>
       <c r="B96" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4029,16 +4314,16 @@
         <v>null</v>
       </c>
       <c r="F96" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>1,2,3,7,8-Pentachlorodibenzofuran</v>
       </c>
       <c r="G96" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H96" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I96" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J96" t="str">
         <v>null</v>
@@ -4047,12 +4332,15 @@
         <v>null</v>
       </c>
       <c r="L96" t="str">
+        <v>null</v>
+      </c>
+      <c r="M96" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N</v>
       </c>
       <c r="B97" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4067,7 +4355,7 @@
         <v>null</v>
       </c>
       <c r="F97" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Chlorpyrifos</v>
       </c>
       <c r="G97" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -4076,7 +4364,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I97" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J97" t="str">
         <v>null</v>
@@ -4085,12 +4373,15 @@
         <v>null</v>
       </c>
       <c r="L97" t="str">
+        <v>null</v>
+      </c>
+      <c r="M97" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N</v>
       </c>
       <c r="B98" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4105,7 +4396,7 @@
         <v>null</v>
       </c>
       <c r="F98" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>3,4-dichloroaniline</v>
       </c>
       <c r="G98" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -4114,7 +4405,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I98" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J98" t="str">
         <v>null</v>
@@ -4123,12 +4414,15 @@
         <v>null</v>
       </c>
       <c r="L98" t="str">
+        <v>null</v>
+      </c>
+      <c r="M98" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N</v>
       </c>
       <c r="B99" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4143,16 +4437,16 @@
         <v>null</v>
       </c>
       <c r="F99" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>1-Methyl-2-pyrrolidone (NMP)</v>
       </c>
       <c r="G99" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H99" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I99" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J99" t="str">
         <v>null</v>
@@ -4161,12 +4455,15 @@
         <v>null</v>
       </c>
       <c r="L99" t="str">
+        <v>null</v>
+      </c>
+      <c r="M99" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N</v>
       </c>
       <c r="B100" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4181,16 +4478,16 @@
         <v>null</v>
       </c>
       <c r="F100" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>Henicosafluoroundecanoic acid</v>
       </c>
       <c r="G100" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H100" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I100" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J100" t="str">
         <v>null</v>
@@ -4199,12 +4496,15 @@
         <v>null</v>
       </c>
       <c r="L100" t="str">
+        <v>null</v>
+      </c>
+      <c r="M100" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N</v>
       </c>
       <c r="B101" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4219,16 +4519,16 @@
         <v>null</v>
       </c>
       <c r="F101" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>Bifenox</v>
       </c>
       <c r="G101" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H101" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I101" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J101" t="str">
         <v>null</v>
@@ -4237,12 +4537,15 @@
         <v>null</v>
       </c>
       <c r="L101" t="str">
+        <v>null</v>
+      </c>
+      <c r="M101" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N</v>
       </c>
       <c r="B102" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4257,7 +4560,7 @@
         <v>null</v>
       </c>
       <c r="F102" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>1,1,2-trichloroethane</v>
       </c>
       <c r="G102" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -4266,7 +4569,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I102" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J102" t="str">
         <v>null</v>
@@ -4275,12 +4578,15 @@
         <v>null</v>
       </c>
       <c r="L102" t="str">
+        <v>null</v>
+      </c>
+      <c r="M102" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N</v>
       </c>
       <c r="B103" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4295,7 +4601,7 @@
         <v>null</v>
       </c>
       <c r="F103" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Naphthalene</v>
       </c>
       <c r="G103" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -4304,7 +4610,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I103" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J103" t="str">
         <v>null</v>
@@ -4313,12 +4619,15 @@
         <v>null</v>
       </c>
       <c r="L103" t="str">
+        <v>null</v>
+      </c>
+      <c r="M103" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N</v>
       </c>
       <c r="B104" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4333,16 +4642,16 @@
         <v>null</v>
       </c>
       <c r="F104" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>carbon monoxide</v>
       </c>
       <c r="G104" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H104" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I104" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J104" t="str">
         <v>null</v>
@@ -4351,12 +4660,15 @@
         <v>null</v>
       </c>
       <c r="L104" t="str">
+        <v>null</v>
+      </c>
+      <c r="M104" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N</v>
       </c>
       <c r="B105" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4371,7 +4683,7 @@
         <v>null</v>
       </c>
       <c r="F105" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>Benzene</v>
       </c>
       <c r="G105" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
@@ -4380,7 +4692,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I105" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J105" t="str">
         <v>null</v>
@@ -4389,12 +4701,15 @@
         <v>null</v>
       </c>
       <c r="L105" t="str">
+        <v>null</v>
+      </c>
+      <c r="M105" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N</v>
       </c>
       <c r="B106" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4409,16 +4724,16 @@
         <v>null</v>
       </c>
       <c r="F106" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>1,1,1-trichloroethane</v>
       </c>
       <c r="G106" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H106" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I106" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J106" t="str">
         <v>null</v>
@@ -4427,12 +4742,15 @@
         <v>null</v>
       </c>
       <c r="L106" t="str">
+        <v>null</v>
+      </c>
+      <c r="M106" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N</v>
       </c>
       <c r="B107" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4447,16 +4765,16 @@
         <v>null</v>
       </c>
       <c r="F107" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Perfluorononan-1-oic-acid</v>
       </c>
       <c r="G107" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H107" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I107" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J107" t="str">
         <v>null</v>
@@ -4465,12 +4783,15 @@
         <v>null</v>
       </c>
       <c r="L107" t="str">
+        <v>null</v>
+      </c>
+      <c r="M107" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B108" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4485,7 +4806,7 @@
         <v>null</v>
       </c>
       <c r="F108" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>Dimethyl sulphate</v>
       </c>
       <c r="G108" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
@@ -4494,7 +4815,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I108" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J108" t="str">
         <v>null</v>
@@ -4503,12 +4824,15 @@
         <v>null</v>
       </c>
       <c r="L108" t="str">
+        <v>null</v>
+      </c>
+      <c r="M108" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N</v>
       </c>
       <c r="B109" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4523,16 +4847,16 @@
         <v>null</v>
       </c>
       <c r="F109" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>1,2,3,4,7,8,9-Heptachlorodibenzofuran</v>
       </c>
       <c r="G109" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H109" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I109" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J109" t="str">
         <v>null</v>
@@ -4541,12 +4865,15 @@
         <v>null</v>
       </c>
       <c r="L109" t="str">
+        <v>null</v>
+      </c>
+      <c r="M109" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N</v>
       </c>
       <c r="B110" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4561,7 +4888,7 @@
         <v>null</v>
       </c>
       <c r="F110" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Hexachloroethane</v>
       </c>
       <c r="G110" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -4570,7 +4897,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I110" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J110" t="str">
         <v>null</v>
@@ -4579,12 +4906,15 @@
         <v>null</v>
       </c>
       <c r="L110" t="str">
+        <v>null</v>
+      </c>
+      <c r="M110" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N</v>
       </c>
       <c r="B111" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4599,7 +4929,7 @@
         <v>null</v>
       </c>
       <c r="F111" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>3,3,4,4,5,5,6,6,7,7,8,8,8-tridecafluorooctanesulphonic acid</v>
       </c>
       <c r="G111" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -4608,7 +4938,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I111" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J111" t="str">
         <v>null</v>
@@ -4617,12 +4947,15 @@
         <v>null</v>
       </c>
       <c r="L111" t="str">
+        <v>null</v>
+      </c>
+      <c r="M111" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N</v>
       </c>
       <c r="B112" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4637,16 +4970,16 @@
         <v>null</v>
       </c>
       <c r="F112" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Dicyclohexyl phthalate</v>
       </c>
       <c r="G112" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="H112" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="I112" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="J112" t="str">
         <v>null</v>
@@ -4655,12 +4988,15 @@
         <v>null</v>
       </c>
       <c r="L112" t="str">
+        <v>null</v>
+      </c>
+      <c r="M112" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N</v>
       </c>
       <c r="B113" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4675,16 +5011,16 @@
         <v>null</v>
       </c>
       <c r="F113" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>2,4-toluenediamine|4-methyl-&lt;i&gt;m&lt;/i&gt;-phenylenediamine</v>
       </c>
       <c r="G113" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H113" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I113" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J113" t="str">
         <v>null</v>
@@ -4693,12 +5029,15 @@
         <v>null</v>
       </c>
       <c r="L113" t="str">
+        <v>null</v>
+      </c>
+      <c r="M113" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N</v>
       </c>
       <c r="B114" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4713,16 +5052,16 @@
         <v>null</v>
       </c>
       <c r="F114" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>1-chloro-2,4-dinitrobenzene</v>
       </c>
       <c r="G114" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H114" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I114" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J114" t="str">
         <v>null</v>
@@ -4731,12 +5070,15 @@
         <v>null</v>
       </c>
       <c r="L114" t="str">
+        <v>null</v>
+      </c>
+      <c r="M114" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N</v>
       </c>
       <c r="B115" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4751,7 +5093,7 @@
         <v>null</v>
       </c>
       <c r="F115" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Carbon tetrachloride</v>
       </c>
       <c r="G115" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -4760,7 +5102,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I115" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J115" t="str">
         <v>null</v>
@@ -4769,12 +5111,15 @@
         <v>null</v>
       </c>
       <c r="L115" t="str">
+        <v>null</v>
+      </c>
+      <c r="M115" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N</v>
       </c>
       <c r="B116" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4789,16 +5134,16 @@
         <v>null</v>
       </c>
       <c r="F116" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Lead</v>
       </c>
       <c r="G116" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H116" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I116" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J116" t="str">
         <v>null</v>
@@ -4807,12 +5152,15 @@
         <v>null</v>
       </c>
       <c r="L116" t="str">
+        <v>null</v>
+      </c>
+      <c r="M116" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N</v>
       </c>
       <c r="B117" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4827,16 +5175,16 @@
         <v>null</v>
       </c>
       <c r="F117" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>1,2-dibromo-3-chloropropane</v>
       </c>
       <c r="G117" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H117" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I117" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J117" t="str">
         <v>null</v>
@@ -4845,12 +5193,15 @@
         <v>null</v>
       </c>
       <c r="L117" t="str">
+        <v>null</v>
+      </c>
+      <c r="M117" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N</v>
       </c>
       <c r="B118" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4865,16 +5216,16 @@
         <v>null</v>
       </c>
       <c r="F118" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>1,2,3,4,6,7,8-Heptachlorodibenzo-p-dioxin</v>
       </c>
       <c r="G118" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H118" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I118" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J118" t="str">
         <v>null</v>
@@ -4883,12 +5234,15 @@
         <v>null</v>
       </c>
       <c r="L118" t="str">
+        <v>null</v>
+      </c>
+      <c r="M118" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N</v>
       </c>
       <c r="B119" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4903,7 +5257,7 @@
         <v>null</v>
       </c>
       <c r="F119" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>1,2,3,4,7,8-Hexachlorodibenzodioxin</v>
       </c>
       <c r="G119" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -4912,7 +5266,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I119" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J119" t="str">
         <v>null</v>
@@ -4921,12 +5275,15 @@
         <v>null</v>
       </c>
       <c r="L119" t="str">
+        <v>null</v>
+      </c>
+      <c r="M119" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N</v>
       </c>
       <c r="B120" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4941,16 +5298,16 @@
         <v>null</v>
       </c>
       <c r="F120" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Chrysen (CHR)</v>
       </c>
       <c r="G120" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H120" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I120" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J120" t="str">
         <v>null</v>
@@ -4959,12 +5316,15 @@
         <v>null</v>
       </c>
       <c r="L120" t="str">
+        <v>null</v>
+      </c>
+      <c r="M120" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N</v>
       </c>
       <c r="B121" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4979,16 +5339,16 @@
         <v>null</v>
       </c>
       <c r="F121" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>1,2,3,4,6,7,8-Heptachlorodibenzofuran</v>
       </c>
       <c r="G121" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H121" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I121" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J121" t="str">
         <v>null</v>
@@ -4997,12 +5357,15 @@
         <v>null</v>
       </c>
       <c r="L121" t="str">
+        <v>null</v>
+      </c>
+      <c r="M121" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N</v>
       </c>
       <c r="B122" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5017,7 +5380,7 @@
         <v>null</v>
       </c>
       <c r="F122" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Propazine</v>
       </c>
       <c r="G122" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -5026,7 +5389,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I122" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J122" t="str">
         <v>null</v>
@@ -5035,12 +5398,15 @@
         <v>null</v>
       </c>
       <c r="L122" t="str">
+        <v>null</v>
+      </c>
+      <c r="M122" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N</v>
       </c>
       <c r="B123" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5055,16 +5421,16 @@
         <v>null</v>
       </c>
       <c r="F123" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Cadmium</v>
       </c>
       <c r="G123" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H123" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I123" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J123" t="str">
         <v>null</v>
@@ -5073,12 +5439,15 @@
         <v>null</v>
       </c>
       <c r="L123" t="str">
+        <v>null</v>
+      </c>
+      <c r="M123" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N</v>
       </c>
       <c r="B124" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5093,16 +5462,16 @@
         <v>null</v>
       </c>
       <c r="F124" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>tert-butyl acetate</v>
       </c>
       <c r="G124" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H124" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I124" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J124" t="str">
         <v>null</v>
@@ -5111,12 +5480,15 @@
         <v>null</v>
       </c>
       <c r="L124" t="str">
+        <v>null</v>
+      </c>
+      <c r="M124" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N</v>
       </c>
       <c r="B125" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5131,7 +5503,7 @@
         <v>null</v>
       </c>
       <c r="F125" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Quinoxyfen</v>
       </c>
       <c r="G125" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -5140,7 +5512,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I125" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J125" t="str">
         <v>null</v>
@@ -5149,12 +5521,15 @@
         <v>null</v>
       </c>
       <c r="L125" t="str">
+        <v>null</v>
+      </c>
+      <c r="M125" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N</v>
       </c>
       <c r="B126" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5169,16 +5544,16 @@
         <v>null</v>
       </c>
       <c r="F126" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Formaldehyde</v>
       </c>
       <c r="G126" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H126" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I126" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J126" t="str">
         <v>null</v>
@@ -5187,12 +5562,15 @@
         <v>null</v>
       </c>
       <c r="L126" t="str">
+        <v>null</v>
+      </c>
+      <c r="M126" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N</v>
       </c>
       <c r="B127" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5207,16 +5585,16 @@
         <v>null</v>
       </c>
       <c r="F127" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>1,2-dichloroethane</v>
       </c>
       <c r="G127" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H127" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I127" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J127" t="str">
         <v>null</v>
@@ -5225,12 +5603,15 @@
         <v>null</v>
       </c>
       <c r="L127" t="str">
+        <v>null</v>
+      </c>
+      <c r="M127" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N</v>
       </c>
       <c r="B128" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5245,16 +5626,16 @@
         <v>null</v>
       </c>
       <c r="F128" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>Alachlor</v>
       </c>
       <c r="G128" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H128" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I128" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J128" t="str">
         <v>null</v>
@@ -5263,12 +5644,15 @@
         <v>null</v>
       </c>
       <c r="L128" t="str">
+        <v>null</v>
+      </c>
+      <c r="M128" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N</v>
       </c>
       <c r="B129" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5283,16 +5667,16 @@
         <v>null</v>
       </c>
       <c r="F129" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>3-(3,4-dichlorophenyl)-1-methoxy-1-methylurea|linuron (ISO)</v>
       </c>
       <c r="G129" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H129" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I129" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J129" t="str">
         <v>null</v>
@@ -5301,12 +5685,15 @@
         <v>null</v>
       </c>
       <c r="L129" t="str">
+        <v>null</v>
+      </c>
+      <c r="M129" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B130" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5321,16 +5708,16 @@
         <v>null</v>
       </c>
       <c r="F130" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>Diuron</v>
       </c>
       <c r="G130" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H130" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I130" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J130" t="str">
         <v>null</v>
@@ -5339,12 +5726,15 @@
         <v>null</v>
       </c>
       <c r="L130" t="str">
+        <v>null</v>
+      </c>
+      <c r="M130" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N</v>
       </c>
       <c r="B131" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5359,16 +5749,16 @@
         <v>null</v>
       </c>
       <c r="F131" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>2-methoxyethanol|ethylene glycol monomethyl ether</v>
       </c>
       <c r="G131" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H131" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I131" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J131" t="str">
         <v>null</v>
@@ -5377,12 +5767,15 @@
         <v>null</v>
       </c>
       <c r="L131" t="str">
+        <v>null</v>
+      </c>
+      <c r="M131" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N</v>
       </c>
       <c r="B132" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5397,7 +5790,7 @@
         <v>null</v>
       </c>
       <c r="F132" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>Trichloroethylene</v>
       </c>
       <c r="G132" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
@@ -5406,7 +5799,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I132" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J132" t="str">
         <v>null</v>
@@ -5415,12 +5808,15 @@
         <v>null</v>
       </c>
       <c r="L132" t="str">
+        <v>null</v>
+      </c>
+      <c r="M132" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N</v>
       </c>
       <c r="B133" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5435,16 +5831,16 @@
         <v>null</v>
       </c>
       <c r="F133" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>2,3,4,6,7,8-Hexachlorodibenzofuran</v>
       </c>
       <c r="G133" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H133" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I133" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J133" t="str">
         <v>null</v>
@@ -5453,12 +5849,15 @@
         <v>null</v>
       </c>
       <c r="L133" t="str">
+        <v>null</v>
+      </c>
+      <c r="M133" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N</v>
       </c>
       <c r="B134" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5473,16 +5872,16 @@
         <v>null</v>
       </c>
       <c r="F134" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>2-chlorobuta-1,3-diene</v>
       </c>
       <c r="G134" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="H134" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="I134" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J134" t="str">
         <v>null</v>
@@ -5491,12 +5890,15 @@
         <v>null</v>
       </c>
       <c r="L134" t="str">
+        <v>null</v>
+      </c>
+      <c r="M134" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N</v>
       </c>
       <c r="B135" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5511,16 +5913,16 @@
         <v>null</v>
       </c>
       <c r="F135" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>4,4'- Diaminodiphenylmethane (MDA)</v>
       </c>
       <c r="G135" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H135" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I135" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J135" t="str">
         <v>null</v>
@@ -5529,12 +5931,15 @@
         <v>null</v>
       </c>
       <c r="L135" t="str">
+        <v>null</v>
+      </c>
+      <c r="M135" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B136" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5549,16 +5954,16 @@
         <v>null</v>
       </c>
       <c r="F136" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>1,2,3,6,7,8-Hexachlorodibenzo-p-dioxin</v>
       </c>
       <c r="G136" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H136" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I136" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J136" t="str">
         <v>null</v>
@@ -5567,12 +5972,15 @@
         <v>null</v>
       </c>
       <c r="L136" t="str">
+        <v>null</v>
+      </c>
+      <c r="M136" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N</v>
       </c>
       <c r="B137" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5587,7 +5995,7 @@
         <v>null</v>
       </c>
       <c r="F137" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Dichloromethane</v>
       </c>
       <c r="G137" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -5596,7 +6004,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I137" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J137" t="str">
         <v>null</v>
@@ -5605,12 +6013,15 @@
         <v>null</v>
       </c>
       <c r="L137" t="str">
+        <v>null</v>
+      </c>
+      <c r="M137" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
       </c>
       <c r="B138" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5625,16 +6036,16 @@
         <v>null</v>
       </c>
       <c r="F138" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Phenanthrene</v>
       </c>
       <c r="G138" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H138" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I138" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J138" t="str">
         <v>null</v>
@@ -5643,12 +6054,15 @@
         <v>null</v>
       </c>
       <c r="L138" t="str">
+        <v>null</v>
+      </c>
+      <c r="M138" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N</v>
       </c>
       <c r="B139" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5663,16 +6077,16 @@
         <v>null</v>
       </c>
       <c r="F139" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>Toluene</v>
       </c>
       <c r="G139" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="H139" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I139" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J139" t="str">
         <v>null</v>
@@ -5681,12 +6095,15 @@
         <v>null</v>
       </c>
       <c r="L139" t="str">
+        <v>null</v>
+      </c>
+      <c r="M139" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B140" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5701,7 +6118,7 @@
         <v>null</v>
       </c>
       <c r="F140" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>Diisopropyl ether</v>
       </c>
       <c r="G140" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
@@ -5710,7 +6127,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="I140" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J140" t="str">
         <v>null</v>
@@ -5719,12 +6136,15 @@
         <v>null</v>
       </c>
       <c r="L140" t="str">
+        <v>null</v>
+      </c>
+      <c r="M140" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N</v>
       </c>
       <c r="B141" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5739,16 +6159,16 @@
         <v>null</v>
       </c>
       <c r="F141" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>N,N-dimethylformamide</v>
       </c>
       <c r="G141" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="H141" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I141" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J141" t="str">
         <v>null</v>
@@ -5757,12 +6177,15 @@
         <v>null</v>
       </c>
       <c r="L141" t="str">
+        <v>null</v>
+      </c>
+      <c r="M141" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
       </c>
       <c r="B142" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5777,7 +6200,7 @@
         <v>null</v>
       </c>
       <c r="F142" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>2-ethoxyethanol|ethylene glycol monoethyl ether</v>
       </c>
       <c r="G142" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
@@ -5786,7 +6209,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I142" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J142" t="str">
         <v>null</v>
@@ -5795,12 +6218,15 @@
         <v>null</v>
       </c>
       <c r="L142" t="str">
+        <v>null</v>
+      </c>
+      <c r="M142" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
       </c>
       <c r="B143" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5815,13 +6241,13 @@
         <v>null</v>
       </c>
       <c r="F143" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>1,3-dichlorobenzene</v>
       </c>
       <c r="G143" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="H143" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>null</v>
       </c>
       <c r="I143" t="str">
         <v>null</v>
@@ -5833,12 +6259,15 @@
         <v>null</v>
       </c>
       <c r="L143" t="str">
+        <v>null</v>
+      </c>
+      <c r="M143" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZPQOPVIELGIULI-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N</v>
       </c>
       <c r="B144" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5853,7 +6282,7 @@
         <v>null</v>
       </c>
       <c r="F144" t="str">
-        <v>null</v>
+        <v>Di-“isodecyl” phthalate (DIDP)</v>
       </c>
       <c r="G144" t="str">
         <v>null</v>
@@ -5871,12 +6300,15 @@
         <v>null</v>
       </c>
       <c r="L144" t="str">
+        <v>null</v>
+      </c>
+      <c r="M144" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZVFDTKUVRCTHQE-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
       </c>
       <c r="B145" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5891,7 +6323,7 @@
         <v>null</v>
       </c>
       <c r="F145" t="str">
-        <v>null</v>
+        <v>Heptachlor epoxide</v>
       </c>
       <c r="G145" t="str">
         <v>null</v>
@@ -5909,24 +6341,27 @@
         <v>null</v>
       </c>
       <c r="L145" t="str">
+        <v>null</v>
+      </c>
+      <c r="M145" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZXFXBSWRVIQKOD-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="B146" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C146" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D146" t="str">
         <v>null</v>
       </c>
       <c r="E146" t="str">
-        <v>null</v>
+        <v>C&amp;L Harmonized classification</v>
       </c>
       <c r="F146" t="str">
         <v>null</v>
@@ -5938,21 +6373,24 @@
         <v>null</v>
       </c>
       <c r="I146" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
       </c>
       <c r="J146" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
       </c>
       <c r="K146" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
       </c>
       <c r="L146" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+      </c>
+      <c r="M146" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="B147" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5964,7 +6402,7 @@
         <v>null</v>
       </c>
       <c r="E147" t="str">
-        <v>C&amp;L Harmonized classification</v>
+        <v>EndocrineDisruptor_List_I</v>
       </c>
       <c r="F147" t="str">
         <v>null</v>
@@ -5973,36 +6411,39 @@
         <v>null</v>
       </c>
       <c r="H147" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="I147" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
       </c>
       <c r="J147" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NLHHRLWOUZZQLW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/NOWKCMXCCJGMRR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OAKJQQAXSVQMHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PAAZPARNPHGIKF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSHDDOUJBYECFT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QSNSCYSYFYORTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RWGFKTVRMDUZSP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UGFAIRIUMAVXCW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UHOVQNZJYSORNB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WBEJYOJJBDISQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSFSSNUMVMOOMR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XKJMBINCVNINCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YACLQRRMGMJLJV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
       </c>
       <c r="K147" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
+      </c>
+      <c r="L147" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
-      <c r="L147" t="str">
+      <c r="M147" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="B148" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C148" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D148" t="str">
         <v>null</v>
       </c>
       <c r="E148" t="str">
-        <v>edlists.org List I</v>
+        <v>null</v>
       </c>
       <c r="F148" t="str">
         <v>null</v>
@@ -6011,36 +6452,39 @@
         <v>null</v>
       </c>
       <c r="H148" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="I148" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N</v>
       </c>
       <c r="J148" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N</v>
       </c>
       <c r="K148" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N</v>
       </c>
       <c r="L148" t="str">
+        <v>null</v>
+      </c>
+      <c r="M148" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/pop_regulation</v>
       </c>
       <c r="B149" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C149" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="D149" t="str">
         <v>null</v>
       </c>
       <c r="E149" t="str">
-        <v>null</v>
+        <v>POP Regulation</v>
       </c>
       <c r="F149" t="str">
         <v>null</v>
@@ -6049,24 +6493,27 @@
         <v>null</v>
       </c>
       <c r="H149" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="I149" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="J149" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OCJBOOLMMGQPQU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ODCWYMIRDDJXKW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OEBRKCOSUFCWJD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/OGBQILNBLMPPDP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PBGKNXWGYQPUJK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PNPCRKVUWYDDST-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PUIYMUZLKQOUOZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXBRQCKWGAHEHS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PXUULQAPEKKVAH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PYUSJFJVDVSXIU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QPFMBZIOSGYJDE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QVLAWKAXOMEXPM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RFFLAFLAYFXFSW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RHIROFAGUQOFLU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RQNWIZPPADIBDY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBMIVUVRFPGOEB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SBPBAQFWLVIOKP-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SDYWXFYBZPNOFX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SUSRORUBZHMPCO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UBOXGVDOUJQMTN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UFWIBTONFRDIAS-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UOCLXMDMGBRAIB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VEZCTZWLJYWARH-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VHHHONWQHHHLTI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VIONGDJUYAYOPU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VYZAHLCBVHPDDF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VZGDMQKNWNREIO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCLNVRQZUKYVAI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WCYYQNSQJHPVMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDMKCPIVJOGHBF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WJNRPILHGGKWCK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WMOVHXAZOJBABW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WRPIRSINYZBGPK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XCSGPAVHZFQHGE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XMTQQYYKAHVGBJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XTAHLACQOVXINQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YCLUIPQDHHPDJJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YMWUJEATGCHHMB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YXFVVABEGXRONW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZAFNJMIOTHYJRJ-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="K149" t="str">
         <v>null</v>
       </c>
       <c r="L149" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+      </c>
+      <c r="M149" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/pop_regulation</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="B150" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6078,7 +6525,7 @@
         <v>null</v>
       </c>
       <c r="E150" t="str">
-        <v>POP Regulation</v>
+        <v>REACH SVHC Candidate list</v>
       </c>
       <c r="F150" t="str">
         <v>null</v>
@@ -6090,33 +6537,36 @@
         <v>null</v>
       </c>
       <c r="I150" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
       </c>
       <c r="J150" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
       </c>
       <c r="K150" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
+      </c>
+      <c r="L150" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
-      <c r="L150" t="str">
+      <c r="M150" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
       </c>
       <c r="B151" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
       <c r="C151" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="D151" t="str">
         <v>null</v>
       </c>
       <c r="E151" t="str">
-        <v>REACH SVHC Candidate list</v>
+        <v>Codelijst zorgwekkende stoffen</v>
       </c>
       <c r="F151" t="str">
         <v>null</v>
@@ -6125,62 +6575,27 @@
         <v>null</v>
       </c>
       <c r="H151" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="I151" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="J151" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/PCIUEQPBYFRTEM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RKELNIPLHQEBJO-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RNVCVTLRINQCPJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RYHBNJHYFVUHQT-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SECXISVLQFMRJM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/UZUFPBIDKMEQEQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VAYGXNSJCAHWJZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOWAEIGWURALJQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/VOZKAJLKRJDJLL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WDECIBYCCFPHNR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WSLDOOZREJYCGB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XNWFRZJHXBZDAG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/XSTXAVWGXDQKEL-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YBRVSVVVWCFQMG-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZMXDDKWLCZADIW-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ZNQVEEAIQZEUHB-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/QZHDEAJFRJCDMF-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/RUDINRUXCKIXAJ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/SIDINRCMMRKXGQ-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WABPQHHGFIMREM-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/WLZRMCYVCSSEQC-UHFFFAOYSA-N|https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/YNPNZTXNASCQKK-UHFFFAOYSA-N</v>
+        <v>null</v>
       </c>
       <c r="K151" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
+        <v>null</v>
       </c>
       <c r="L151" t="str">
         <v>null</v>
       </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
-      </c>
-      <c r="B152" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
-      </c>
-      <c r="C152" t="str">
-        <v>null</v>
-      </c>
-      <c r="D152" t="str">
-        <v>null</v>
-      </c>
-      <c r="E152" t="str">
-        <v>Codelijst zorgwekkende stoffen</v>
-      </c>
-      <c r="F152" t="str">
-        <v>null</v>
-      </c>
-      <c r="G152" t="str">
-        <v>null</v>
-      </c>
-      <c r="H152" t="str">
-        <v>null</v>
-      </c>
-      <c r="I152" t="str">
-        <v>null</v>
-      </c>
-      <c r="J152" t="str">
-        <v>null</v>
-      </c>
-      <c r="K152" t="str">
-        <v>null</v>
-      </c>
-      <c r="L152" t="str">
+      <c r="M151" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/pop_regulation</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L152"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M151"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/zorgwekkende_stof/zorgwekkende_stof.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/zorgwekkende_stof/zorgwekkende_stof.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M151"/>
+  <dimension ref="A1:O151"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -419,27 +419,33 @@
         <v>prefLabel</v>
       </c>
       <c r="F1" t="str">
+        <v>casNumber</v>
+      </c>
+      <c r="G1" t="str">
+        <v>ecNumber</v>
+      </c>
+      <c r="H1" t="str">
         <v>altLabel</v>
       </c>
-      <c r="G1" t="str">
+      <c r="I1" t="str">
         <v>broader</v>
       </c>
-      <c r="H1" t="str">
+      <c r="J1" t="str">
         <v>broaderTransitive</v>
       </c>
-      <c r="I1" t="str">
+      <c r="K1" t="str">
         <v>semanticRelation</v>
       </c>
-      <c r="J1" t="str">
+      <c r="L1" t="str">
         <v>narrower</v>
       </c>
-      <c r="K1" t="str">
+      <c r="M1" t="str">
         <v>narrowerTransitive</v>
       </c>
-      <c r="L1" t="str">
+      <c r="N1" t="str">
         <v>topConceptOf</v>
       </c>
-      <c r="M1" t="str">
+      <c r="O1" t="str">
         <v>hasTopConcept</v>
       </c>
     </row>
@@ -483,6 +489,12 @@
       <c r="M2" t="str">
         <v>null</v>
       </c>
+      <c r="N2" t="str">
+        <v>null</v>
+      </c>
+      <c r="O2" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -524,6 +536,12 @@
       <c r="M3" t="str">
         <v>null</v>
       </c>
+      <c r="N3" t="str">
+        <v>null</v>
+      </c>
+      <c r="O3" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -565,6 +583,12 @@
       <c r="M4" t="str">
         <v>null</v>
       </c>
+      <c r="N4" t="str">
+        <v>null</v>
+      </c>
+      <c r="O4" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -606,13 +630,19 @@
       <c r="M5" t="str">
         <v>null</v>
       </c>
+      <c r="N5" t="str">
+        <v>null</v>
+      </c>
+      <c r="O5" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/AFDRCEOKCOUICI-UHFFFAOYSA-N</v>
       </c>
       <c r="B6" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C6" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -624,27 +654,33 @@
         <v>null</v>
       </c>
       <c r="F6" t="str">
+        <v>919005-14-4</v>
+      </c>
+      <c r="G6" t="str">
+        <v>700-835-7</v>
+      </c>
+      <c r="H6" t="str">
         <v>2,2,3-trifluoro-3-[1,1,2,2,3,3-hexafluoro-3-(trifluoromethoxy)propoxy]propanoic acid</v>
       </c>
-      <c r="G6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
-      <c r="H6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
       <c r="I6" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J6" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K6" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L6" t="str">
         <v>null</v>
       </c>
       <c r="M6" t="str">
+        <v>null</v>
+      </c>
+      <c r="N6" t="str">
+        <v>null</v>
+      </c>
+      <c r="O6" t="str">
         <v>null</v>
       </c>
     </row>
@@ -653,7 +689,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ALEROMXYYSQFLX-UHFFFAOYSA-N</v>
       </c>
       <c r="B7" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C7" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -665,27 +701,33 @@
         <v>null</v>
       </c>
       <c r="F7" t="str">
+        <v>71850-09-4</v>
+      </c>
+      <c r="G7" t="str">
+        <v>276-090-2</v>
+      </c>
+      <c r="H7" t="str">
         <v>1,2-Benzenedicarboxylic acid, dihexyl ester, branched and linear</v>
-      </c>
-      <c r="G7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
-      </c>
-      <c r="H7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I7" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J7" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K7" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L7" t="str">
         <v>null</v>
       </c>
       <c r="M7" t="str">
+        <v>null</v>
+      </c>
+      <c r="N7" t="str">
+        <v>null</v>
+      </c>
+      <c r="O7" t="str">
         <v>null</v>
       </c>
     </row>
@@ -694,7 +736,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/ATBAMAFKBVZNFJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B8" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C8" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -706,27 +748,33 @@
         <v>null</v>
       </c>
       <c r="F8" t="str">
+        <v>7440-41-7</v>
+      </c>
+      <c r="G8" t="str">
+        <v>231-150-7</v>
+      </c>
+      <c r="H8" t="str">
         <v>beryllium</v>
       </c>
-      <c r="G8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
-      </c>
-      <c r="H8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
-      </c>
       <c r="I8" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J8" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K8" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="L8" t="str">
         <v>null</v>
       </c>
       <c r="M8" t="str">
+        <v>null</v>
+      </c>
+      <c r="N8" t="str">
+        <v>null</v>
+      </c>
+      <c r="O8" t="str">
         <v>null</v>
       </c>
     </row>
@@ -735,7 +783,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BBEAQIROQSPTKN-UHFFFAOYSA-N</v>
       </c>
       <c r="B9" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C9" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -747,27 +795,33 @@
         <v>null</v>
       </c>
       <c r="F9" t="str">
+        <v>129-00-0</v>
+      </c>
+      <c r="G9" t="str">
+        <v>204-927-3</v>
+      </c>
+      <c r="H9" t="str">
         <v>Pyrene</v>
-      </c>
-      <c r="G9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
-      </c>
-      <c r="H9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I9" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J9" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K9" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L9" t="str">
         <v>null</v>
       </c>
       <c r="M9" t="str">
+        <v>null</v>
+      </c>
+      <c r="N9" t="str">
+        <v>null</v>
+      </c>
+      <c r="O9" t="str">
         <v>null</v>
       </c>
     </row>
@@ -776,7 +830,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BFCFYVKQTRLZHA-UHFFFAOYSA-N</v>
       </c>
       <c r="B10" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C10" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -788,27 +842,33 @@
         <v>null</v>
       </c>
       <c r="F10" t="str">
+        <v>88-73-3</v>
+      </c>
+      <c r="G10" t="str">
+        <v>201-854-9</v>
+      </c>
+      <c r="H10" t="str">
         <v>1-chloro-2-nitrobenzene</v>
       </c>
-      <c r="G10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
-      <c r="H10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
       <c r="I10" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J10" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K10" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L10" t="str">
         <v>null</v>
       </c>
       <c r="M10" t="str">
+        <v>null</v>
+      </c>
+      <c r="N10" t="str">
+        <v>null</v>
+      </c>
+      <c r="O10" t="str">
         <v>null</v>
       </c>
     </row>
@@ -817,7 +877,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BRLQWZUYTZBJKN-UHFFFAOYSA-N</v>
       </c>
       <c r="B11" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C11" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -829,27 +889,33 @@
         <v>null</v>
       </c>
       <c r="F11" t="str">
+        <v>106-89-8</v>
+      </c>
+      <c r="G11" t="str">
+        <v>203-439-8</v>
+      </c>
+      <c r="H11" t="str">
         <v>1-chloro-2,3-epoxypropane|epichlorhydrin</v>
       </c>
-      <c r="G11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
-      </c>
-      <c r="H11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
-      </c>
       <c r="I11" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J11" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K11" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="L11" t="str">
         <v>null</v>
       </c>
       <c r="M11" t="str">
+        <v>null</v>
+      </c>
+      <c r="N11" t="str">
+        <v>null</v>
+      </c>
+      <c r="O11" t="str">
         <v>null</v>
       </c>
     </row>
@@ -858,7 +924,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZHJMEDXRYGGRV-UHFFFAOYSA-N</v>
       </c>
       <c r="B12" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C12" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -870,27 +936,33 @@
         <v>null</v>
       </c>
       <c r="F12" t="str">
+        <v>75-01-4</v>
+      </c>
+      <c r="G12" t="str">
+        <v>200-831-0</v>
+      </c>
+      <c r="H12" t="str">
         <v>Chloroethylene</v>
       </c>
-      <c r="G12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
-      </c>
-      <c r="H12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
-      </c>
       <c r="I12" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J12" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K12" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="L12" t="str">
         <v>null</v>
       </c>
       <c r="M12" t="str">
+        <v>null</v>
+      </c>
+      <c r="N12" t="str">
+        <v>null</v>
+      </c>
+      <c r="O12" t="str">
         <v>null</v>
       </c>
     </row>
@@ -899,7 +971,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/BZLVMXJERCGZMT-UHFFFAOYSA-N</v>
       </c>
       <c r="B13" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C13" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -911,27 +983,33 @@
         <v>null</v>
       </c>
       <c r="F13" t="str">
+        <v>1634-04-4</v>
+      </c>
+      <c r="G13" t="str">
+        <v>216-653-1</v>
+      </c>
+      <c r="H13" t="str">
         <v>tert-butyl methyl ether</v>
       </c>
-      <c r="G13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
-      <c r="H13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
       <c r="I13" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J13" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K13" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L13" t="str">
         <v>null</v>
       </c>
       <c r="M13" t="str">
+        <v>null</v>
+      </c>
+      <c r="N13" t="str">
+        <v>null</v>
+      </c>
+      <c r="O13" t="str">
         <v>null</v>
       </c>
     </row>
@@ -940,7 +1018,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CFXQEHVMCRXUSD-UHFFFAOYSA-N</v>
       </c>
       <c r="B14" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C14" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -952,27 +1030,33 @@
         <v>null</v>
       </c>
       <c r="F14" t="str">
+        <v>96-18-4</v>
+      </c>
+      <c r="G14" t="str">
+        <v>202-486-1</v>
+      </c>
+      <c r="H14" t="str">
         <v>1,2,3-trichloropropane</v>
-      </c>
-      <c r="G14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
-      </c>
-      <c r="H14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I14" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J14" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K14" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L14" t="str">
         <v>null</v>
       </c>
       <c r="M14" t="str">
+        <v>null</v>
+      </c>
+      <c r="N14" t="str">
+        <v>null</v>
+      </c>
+      <c r="O14" t="str">
         <v>null</v>
       </c>
     </row>
@@ -981,7 +1065,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CSEBNABAWMZWIF-UHFFFAOYSA-N</v>
       </c>
       <c r="B15" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C15" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -993,27 +1077,33 @@
         <v>null</v>
       </c>
       <c r="F15" t="str">
+        <v>13252-13-6</v>
+      </c>
+      <c r="G15" t="str">
+        <v>236-236-8</v>
+      </c>
+      <c r="H15" t="str">
         <v>2,3,3,3-tetrafluoro-2-(heptafluoropropoxy)propionic acid</v>
-      </c>
-      <c r="G15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
-      </c>
-      <c r="H15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I15" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J15" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K15" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L15" t="str">
         <v>null</v>
       </c>
       <c r="M15" t="str">
+        <v>null</v>
+      </c>
+      <c r="N15" t="str">
+        <v>null</v>
+      </c>
+      <c r="O15" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1022,7 +1112,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CWRYPZZKDGJXCA-UHFFFAOYSA-N</v>
       </c>
       <c r="B16" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C16" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -1034,27 +1124,33 @@
         <v>null</v>
       </c>
       <c r="F16" t="str">
+        <v>83-32-9</v>
+      </c>
+      <c r="G16" t="str">
+        <v>201-469-6</v>
+      </c>
+      <c r="H16" t="str">
         <v>Acenaphthene</v>
       </c>
-      <c r="G16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
-      <c r="H16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
       <c r="I16" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J16" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K16" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L16" t="str">
         <v>null</v>
       </c>
       <c r="M16" t="str">
+        <v>null</v>
+      </c>
+      <c r="N16" t="str">
+        <v>null</v>
+      </c>
+      <c r="O16" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1063,7 +1159,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXGONMQFMIYUJR-UHFFFAOYSA-N</v>
       </c>
       <c r="B17" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C17" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -1075,27 +1171,33 @@
         <v>null</v>
       </c>
       <c r="F17" t="str">
+        <v>307-55-1</v>
+      </c>
+      <c r="G17" t="str">
+        <v>206-203-2</v>
+      </c>
+      <c r="H17" t="str">
         <v>Tricosafluorododecanoic acid</v>
-      </c>
-      <c r="G17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
-      </c>
-      <c r="H17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I17" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J17" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K17" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L17" t="str">
         <v>null</v>
       </c>
       <c r="M17" t="str">
+        <v>null</v>
+      </c>
+      <c r="N17" t="str">
+        <v>null</v>
+      </c>
+      <c r="O17" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1104,7 +1206,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CXNVOWPRHWWCQR-UHFFFAOYSA-N</v>
       </c>
       <c r="B18" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C18" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -1116,27 +1218,33 @@
         <v>null</v>
       </c>
       <c r="F18" t="str">
+        <v>95-69-2</v>
+      </c>
+      <c r="G18" t="str">
+        <v>202-441-6</v>
+      </c>
+      <c r="H18" t="str">
         <v>4-chloro-&lt;i&gt;o&lt;/i&gt;-toluidine</v>
       </c>
-      <c r="G18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
-      </c>
-      <c r="H18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
-      </c>
       <c r="I18" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J18" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K18" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="L18" t="str">
         <v>null</v>
       </c>
       <c r="M18" t="str">
+        <v>null</v>
+      </c>
+      <c r="N18" t="str">
+        <v>null</v>
+      </c>
+      <c r="O18" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1145,7 +1253,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CYTYCFOTNPOANT-UHFFFAOYSA-N</v>
       </c>
       <c r="B19" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C19" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -1157,27 +1265,33 @@
         <v>null</v>
       </c>
       <c r="F19" t="str">
+        <v>127-18-4</v>
+      </c>
+      <c r="G19" t="str">
+        <v>204-825-9</v>
+      </c>
+      <c r="H19" t="str">
         <v>Tetrachloroethylene</v>
       </c>
-      <c r="G19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
-      <c r="H19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
       <c r="I19" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J19" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K19" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L19" t="str">
         <v>null</v>
       </c>
       <c r="M19" t="str">
+        <v>null</v>
+      </c>
+      <c r="N19" t="str">
+        <v>null</v>
+      </c>
+      <c r="O19" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1186,7 +1300,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/CZGCEKJOLUNIFY-UHFFFAOYSA-N</v>
       </c>
       <c r="B20" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C20" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -1198,27 +1312,33 @@
         <v>null</v>
       </c>
       <c r="F20" t="str">
+        <v>100-00-5</v>
+      </c>
+      <c r="G20" t="str">
+        <v>202-809-6</v>
+      </c>
+      <c r="H20" t="str">
         <v>1-chloro-4-nitrobenzene</v>
       </c>
-      <c r="G20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
-      <c r="H20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
       <c r="I20" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J20" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K20" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L20" t="str">
         <v>null</v>
       </c>
       <c r="M20" t="str">
+        <v>null</v>
+      </c>
+      <c r="N20" t="str">
+        <v>null</v>
+      </c>
+      <c r="O20" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1227,7 +1347,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DDBMQDADIHOWIC-UHFFFAOYSA-N</v>
       </c>
       <c r="B21" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C21" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -1239,27 +1359,33 @@
         <v>null</v>
       </c>
       <c r="F21" t="str">
+        <v>74070-46-5</v>
+      </c>
+      <c r="G21" t="str">
+        <v>277-704-1</v>
+      </c>
+      <c r="H21" t="str">
         <v>Aclonifen</v>
       </c>
-      <c r="G21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
-      <c r="H21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
       <c r="I21" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J21" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K21" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L21" t="str">
         <v>null</v>
       </c>
       <c r="M21" t="str">
+        <v>null</v>
+      </c>
+      <c r="N21" t="str">
+        <v>null</v>
+      </c>
+      <c r="O21" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1268,7 +1394,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DEWLEGDTCGBNGU-UHFFFAOYSA-N</v>
       </c>
       <c r="B22" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C22" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -1280,27 +1406,33 @@
         <v>null</v>
       </c>
       <c r="F22" t="str">
+        <v>96-23-1</v>
+      </c>
+      <c r="G22" t="str">
+        <v>202-491-9</v>
+      </c>
+      <c r="H22" t="str">
         <v>1,3-dichloro-2-propanol</v>
       </c>
-      <c r="G22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
-      </c>
-      <c r="H22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
-      </c>
       <c r="I22" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J22" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K22" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="L22" t="str">
         <v>null</v>
       </c>
       <c r="M22" t="str">
+        <v>null</v>
+      </c>
+      <c r="N22" t="str">
+        <v>null</v>
+      </c>
+      <c r="O22" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1309,7 +1441,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DKGAVHZHDRPRBM-UHFFFAOYSA-N</v>
       </c>
       <c r="B23" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C23" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -1321,27 +1453,33 @@
         <v>null</v>
       </c>
       <c r="F23" t="str">
+        <v>75-65-0</v>
+      </c>
+      <c r="G23" t="str">
+        <v>200-889-7</v>
+      </c>
+      <c r="H23" t="str">
         <v>2-methylpropan-2-ol</v>
       </c>
-      <c r="G23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
-      <c r="H23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
       <c r="I23" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J23" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K23" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L23" t="str">
         <v>null</v>
       </c>
       <c r="M23" t="str">
+        <v>null</v>
+      </c>
+      <c r="N23" t="str">
+        <v>null</v>
+      </c>
+      <c r="O23" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1350,7 +1488,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DOIRQSBPFJWKBE-UHFFFAOYSA-N</v>
       </c>
       <c r="B24" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C24" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -1362,27 +1500,33 @@
         <v>null</v>
       </c>
       <c r="F24" t="str">
+        <v>84-74-2</v>
+      </c>
+      <c r="G24" t="str">
+        <v>201-557-4</v>
+      </c>
+      <c r="H24" t="str">
         <v>DBP|dibutyl phthalate</v>
-      </c>
-      <c r="G24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
-      </c>
-      <c r="H24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="I24" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="J24" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="K24" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="L24" t="str">
         <v>null</v>
       </c>
       <c r="M24" t="str">
+        <v>null</v>
+      </c>
+      <c r="N24" t="str">
+        <v>null</v>
+      </c>
+      <c r="O24" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1391,7 +1535,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/DXBHBZVCASKNBY-UHFFFAOYSA-N</v>
       </c>
       <c r="B25" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C25" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -1403,27 +1547,33 @@
         <v>null</v>
       </c>
       <c r="F25" t="str">
+        <v>56-55-3</v>
+      </c>
+      <c r="G25" t="str">
+        <v>200-280-6</v>
+      </c>
+      <c r="H25" t="str">
         <v>benz[&lt;i&gt;a&lt;/i&gt;]anthracene</v>
-      </c>
-      <c r="G25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
-      </c>
-      <c r="H25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I25" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J25" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K25" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L25" t="str">
         <v>null</v>
       </c>
       <c r="M25" t="str">
+        <v>null</v>
+      </c>
+      <c r="N25" t="str">
+        <v>null</v>
+      </c>
+      <c r="O25" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1432,7 +1582,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FOIBFBMSLDGNHL-UHFFFAOYSA-N</v>
       </c>
       <c r="B26" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C26" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -1444,27 +1594,33 @@
         <v>null</v>
       </c>
       <c r="F26" t="str">
+        <v>3268-87-9</v>
+      </c>
+      <c r="G26" t="str">
+        <v>694-813-3</v>
+      </c>
+      <c r="H26" t="str">
         <v>1,2,3,4,6,7,8,9-Octachlorodibenzo-p-dioxin</v>
       </c>
-      <c r="G26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
-      <c r="H26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
       <c r="I26" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J26" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K26" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L26" t="str">
         <v>null</v>
       </c>
       <c r="M26" t="str">
+        <v>null</v>
+      </c>
+      <c r="N26" t="str">
+        <v>null</v>
+      </c>
+      <c r="O26" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1473,7 +1629,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSAVDKDHPDSCTO-WQLSENKSSA-N</v>
       </c>
       <c r="B27" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C27" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -1485,27 +1641,33 @@
         <v>null</v>
       </c>
       <c r="F27" t="str">
+        <v>470-90-6</v>
+      </c>
+      <c r="G27" t="str">
+        <v>207-432-0</v>
+      </c>
+      <c r="H27" t="str">
         <v>Chlorfenvinphos</v>
       </c>
-      <c r="G27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
-      <c r="H27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
       <c r="I27" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J27" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K27" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L27" t="str">
         <v>null</v>
       </c>
       <c r="M27" t="str">
+        <v>null</v>
+      </c>
+      <c r="N27" t="str">
+        <v>null</v>
+      </c>
+      <c r="O27" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1514,7 +1676,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/FSPZPQQWDODWAU-UHFFFAOYSA-N</v>
       </c>
       <c r="B28" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C28" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -1526,27 +1688,33 @@
         <v>null</v>
       </c>
       <c r="F28" t="str">
+        <v>40321-76-4</v>
+      </c>
+      <c r="G28" t="str">
+        <v>694-814-9</v>
+      </c>
+      <c r="H28" t="str">
         <v>1,2,3,7,8-Pentachlorodibenzo-p-dioxin</v>
       </c>
-      <c r="G28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
-      <c r="H28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
       <c r="I28" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J28" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K28" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L28" t="str">
         <v>null</v>
       </c>
       <c r="M28" t="str">
+        <v>null</v>
+      </c>
+      <c r="N28" t="str">
+        <v>null</v>
+      </c>
+      <c r="O28" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1555,7 +1723,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GOOHAUXETOMSMM-UHFFFAOYSA-N</v>
       </c>
       <c r="B29" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C29" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -1567,27 +1735,33 @@
         <v>null</v>
       </c>
       <c r="F29" t="str">
+        <v>75-56-9</v>
+      </c>
+      <c r="G29" t="str">
+        <v>200-879-2</v>
+      </c>
+      <c r="H29" t="str">
         <v>1,2-epoxypropane|methyloxirane|propylene oxide</v>
-      </c>
-      <c r="G29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
-      </c>
-      <c r="H29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I29" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J29" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K29" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L29" t="str">
         <v>null</v>
       </c>
       <c r="M29" t="str">
+        <v>null</v>
+      </c>
+      <c r="N29" t="str">
+        <v>null</v>
+      </c>
+      <c r="O29" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1596,7 +1770,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GUTLYIVDDKVIGB-UHFFFAOYSA-N</v>
       </c>
       <c r="B30" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C30" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -1608,27 +1782,33 @@
         <v>null</v>
       </c>
       <c r="F30" t="str">
+        <v>7440-48-4</v>
+      </c>
+      <c r="G30" t="str">
+        <v>231-158-0</v>
+      </c>
+      <c r="H30" t="str">
         <v>cobalt</v>
       </c>
-      <c r="G30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
-      </c>
-      <c r="H30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
-      </c>
       <c r="I30" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J30" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K30" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="L30" t="str">
         <v>null</v>
       </c>
       <c r="M30" t="str">
+        <v>null</v>
+      </c>
+      <c r="N30" t="str">
+        <v>null</v>
+      </c>
+      <c r="O30" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1637,7 +1817,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GVEPBJHOBDJJJI-UHFFFAOYSA-N</v>
       </c>
       <c r="B31" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C31" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -1649,27 +1829,33 @@
         <v>null</v>
       </c>
       <c r="F31" t="str">
+        <v>206-44-0</v>
+      </c>
+      <c r="G31" t="str">
+        <v>205-912-4</v>
+      </c>
+      <c r="H31" t="str">
         <v>Fluoranthene</v>
-      </c>
-      <c r="G31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
-      </c>
-      <c r="H31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I31" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L31" t="str">
         <v>null</v>
       </c>
       <c r="M31" t="str">
+        <v>null</v>
+      </c>
+      <c r="N31" t="str">
+        <v>null</v>
+      </c>
+      <c r="O31" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1678,7 +1864,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/GYFAGKUZYNFMBN-UHFFFAOYSA-N</v>
       </c>
       <c r="B32" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C32" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -1690,27 +1876,33 @@
         <v>null</v>
       </c>
       <c r="F32" t="str">
+        <v>191-24-2</v>
+      </c>
+      <c r="G32" t="str">
+        <v>205-883-8</v>
+      </c>
+      <c r="H32" t="str">
         <v>Benzo(g,h,i)perylene</v>
-      </c>
-      <c r="G32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
-      </c>
-      <c r="H32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I32" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J32" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K32" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L32" t="str">
         <v>null</v>
       </c>
       <c r="M32" t="str">
+        <v>null</v>
+      </c>
+      <c r="N32" t="str">
+        <v>null</v>
+      </c>
+      <c r="O32" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1719,7 +1911,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HDHLIWCXDDZUFH-UHFFFAOYSA-N</v>
       </c>
       <c r="B33" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C33" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -1731,27 +1923,33 @@
         <v>null</v>
       </c>
       <c r="F33" t="str">
+        <v>28159-98-0</v>
+      </c>
+      <c r="G33" t="str">
+        <v>248-872-3</v>
+      </c>
+      <c r="H33" t="str">
         <v>Cybutryne</v>
       </c>
-      <c r="G33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
-      <c r="H33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
       <c r="I33" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L33" t="str">
         <v>null</v>
       </c>
       <c r="M33" t="str">
+        <v>null</v>
+      </c>
+      <c r="N33" t="str">
+        <v>null</v>
+      </c>
+      <c r="O33" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1760,7 +1958,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HEDRZPFGACZZDS-UHFFFAOYSA-N</v>
       </c>
       <c r="B34" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C34" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -1772,27 +1970,33 @@
         <v>null</v>
       </c>
       <c r="F34" t="str">
+        <v>67-66-3</v>
+      </c>
+      <c r="G34" t="str">
+        <v>200-663-8</v>
+      </c>
+      <c r="H34" t="str">
         <v>Chloroform</v>
       </c>
-      <c r="G34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
-      <c r="H34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
       <c r="I34" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J34" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K34" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L34" t="str">
         <v>null</v>
       </c>
       <c r="M34" t="str">
+        <v>null</v>
+      </c>
+      <c r="N34" t="str">
+        <v>null</v>
+      </c>
+      <c r="O34" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1801,7 +2005,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFACYLZERDEVSX-UHFFFAOYSA-N</v>
       </c>
       <c r="B35" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C35" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -1813,27 +2017,33 @@
         <v>null</v>
       </c>
       <c r="F35" t="str">
+        <v>92-87-5</v>
+      </c>
+      <c r="G35" t="str">
+        <v>202-199-1</v>
+      </c>
+      <c r="H35" t="str">
         <v>Benzidine</v>
       </c>
-      <c r="G35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
-      </c>
-      <c r="H35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
-      </c>
       <c r="I35" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="L35" t="str">
         <v>null</v>
       </c>
       <c r="M35" t="str">
+        <v>null</v>
+      </c>
+      <c r="N35" t="str">
+        <v>null</v>
+      </c>
+      <c r="O35" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1842,7 +2052,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HFZWRUODUSTPEG-UHFFFAOYSA-N</v>
       </c>
       <c r="B36" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C36" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -1854,27 +2064,33 @@
         <v>null</v>
       </c>
       <c r="F36" t="str">
+        <v>120-83-2</v>
+      </c>
+      <c r="G36" t="str">
+        <v>204-429-6</v>
+      </c>
+      <c r="H36" t="str">
         <v>2,4-dichlorophenol</v>
       </c>
-      <c r="G36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
-      <c r="H36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
       <c r="I36" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L36" t="str">
         <v>null</v>
       </c>
       <c r="M36" t="str">
+        <v>null</v>
+      </c>
+      <c r="N36" t="str">
+        <v>null</v>
+      </c>
+      <c r="O36" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1883,7 +2099,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HGUFODBRKLSHSI-UHFFFAOYSA-N</v>
       </c>
       <c r="B37" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C37" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/zorgwekkende_stof</v>
@@ -1895,27 +2111,33 @@
         <v>null</v>
       </c>
       <c r="F37" t="str">
+        <v>1746-01-6</v>
+      </c>
+      <c r="G37" t="str">
+        <v>217-122-7</v>
+      </c>
+      <c r="H37" t="str">
         <v>2,3,7,8-Tetrachlorodibenzo-p-dioxin</v>
       </c>
-      <c r="G37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
-      <c r="H37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
       <c r="I37" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L37" t="str">
         <v>null</v>
       </c>
       <c r="M37" t="str">
+        <v>null</v>
+      </c>
+      <c r="N37" t="str">
+        <v>null</v>
+      </c>
+      <c r="O37" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1924,7 +2146,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HRYZWHHZPQKTII-UHFFFAOYSA-N</v>
       </c>
       <c r="B38" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C38" t="str">
         <v>null</v>
@@ -1936,27 +2158,33 @@
         <v>null</v>
       </c>
       <c r="F38" t="str">
+        <v>75-00-3</v>
+      </c>
+      <c r="G38" t="str">
+        <v>200-830-5</v>
+      </c>
+      <c r="H38" t="str">
         <v>Chloroethane</v>
       </c>
-      <c r="G38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
-      <c r="H38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
       <c r="I38" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L38" t="str">
         <v>null</v>
       </c>
       <c r="M38" t="str">
+        <v>null</v>
+      </c>
+      <c r="N38" t="str">
+        <v>null</v>
+      </c>
+      <c r="O38" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1965,7 +2193,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/HUWXDEQWWKGHRV-UHFFFAOYSA-N</v>
       </c>
       <c r="B39" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C39" t="str">
         <v>null</v>
@@ -1977,27 +2205,33 @@
         <v>null</v>
       </c>
       <c r="F39" t="str">
+        <v>91-94-1</v>
+      </c>
+      <c r="G39" t="str">
+        <v>202-109-0</v>
+      </c>
+      <c r="H39" t="str">
         <v>3,3'-dichlorobenzidine|3,3'-dichlorobiphenyl-4,4'-ylenediamine</v>
       </c>
-      <c r="G39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
-      </c>
-      <c r="H39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
-      </c>
       <c r="I39" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J39" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K39" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="L39" t="str">
         <v>null</v>
       </c>
       <c r="M39" t="str">
+        <v>null</v>
+      </c>
+      <c r="N39" t="str">
+        <v>null</v>
+      </c>
+      <c r="O39" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2006,7 +2240,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IBOFVQJTBBUKMU-UHFFFAOYSA-N</v>
       </c>
       <c r="B40" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C40" t="str">
         <v>null</v>
@@ -2018,27 +2252,33 @@
         <v>null</v>
       </c>
       <c r="F40" t="str">
+        <v>101-14-4</v>
+      </c>
+      <c r="G40" t="str">
+        <v>202-918-9</v>
+      </c>
+      <c r="H40" t="str">
         <v>2,2'-dichloro-4,4'-methylenedianiline</v>
-      </c>
-      <c r="G40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
-      </c>
-      <c r="H40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I40" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L40" t="str">
         <v>null</v>
       </c>
       <c r="M40" t="str">
+        <v>null</v>
+      </c>
+      <c r="N40" t="str">
+        <v>null</v>
+      </c>
+      <c r="O40" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2047,7 +2287,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IISBACLAFKSPIT-UHFFFAOYSA-N</v>
       </c>
       <c r="B41" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C41" t="str">
         <v>null</v>
@@ -2059,27 +2299,33 @@
         <v>null</v>
       </c>
       <c r="F41" t="str">
+        <v>80-05-7</v>
+      </c>
+      <c r="G41" t="str">
+        <v>201-245-8</v>
+      </c>
+      <c r="H41" t="str">
         <v>4,4'-isopropylidenediphenol; Bisphenol A</v>
-      </c>
-      <c r="G41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
-      </c>
-      <c r="H41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="I41" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="J41" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="K41" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="L41" t="str">
         <v>null</v>
       </c>
       <c r="M41" t="str">
+        <v>null</v>
+      </c>
+      <c r="N41" t="str">
+        <v>null</v>
+      </c>
+      <c r="O41" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2088,7 +2334,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IPKKHRVROFYTEK-UHFFFAOYSA-N</v>
       </c>
       <c r="B42" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C42" t="str">
         <v>null</v>
@@ -2100,27 +2346,33 @@
         <v>null</v>
       </c>
       <c r="F42" t="str">
+        <v>131-18-0</v>
+      </c>
+      <c r="G42" t="str">
+        <v>205-017-9</v>
+      </c>
+      <c r="H42" t="str">
         <v>Dipentyl phthalate (DPP)</v>
-      </c>
-      <c r="G42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
-      </c>
-      <c r="H42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I42" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J42" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K42" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L42" t="str">
         <v>null</v>
       </c>
       <c r="M42" t="str">
+        <v>null</v>
+      </c>
+      <c r="N42" t="str">
+        <v>null</v>
+      </c>
+      <c r="O42" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2129,7 +2381,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IRIAEXORFWYRCZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B43" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C43" t="str">
         <v>null</v>
@@ -2141,27 +2393,33 @@
         <v>null</v>
       </c>
       <c r="F43" t="str">
+        <v>85-68-7</v>
+      </c>
+      <c r="G43" t="str">
+        <v>201-622-7</v>
+      </c>
+      <c r="H43" t="str">
         <v>Benzyl butyl phthalate (BBP)</v>
-      </c>
-      <c r="G43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
-      </c>
-      <c r="H43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="I43" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="J43" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="K43" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="L43" t="str">
         <v>null</v>
       </c>
       <c r="M43" t="str">
+        <v>null</v>
+      </c>
+      <c r="N43" t="str">
+        <v>null</v>
+      </c>
+      <c r="O43" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2170,7 +2428,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/IROINLKCQGIITA-UHFFFAOYSA-N</v>
       </c>
       <c r="B44" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C44" t="str">
         <v>null</v>
@@ -2182,27 +2440,33 @@
         <v>null</v>
       </c>
       <c r="F44" t="str">
+        <v>886-50-0</v>
+      </c>
+      <c r="G44" t="str">
+        <v>212-950-5</v>
+      </c>
+      <c r="H44" t="str">
         <v>Terbutryn</v>
       </c>
-      <c r="G44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
-      <c r="H44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
       <c r="I44" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J44" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K44" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L44" t="str">
         <v>null</v>
       </c>
       <c r="M44" t="str">
+        <v>null</v>
+      </c>
+      <c r="N44" t="str">
+        <v>null</v>
+      </c>
+      <c r="O44" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2211,7 +2475,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JANBFCARANRIKJ-UHFFFAOYSA-N</v>
       </c>
       <c r="B45" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C45" t="str">
         <v>null</v>
@@ -2223,27 +2487,33 @@
         <v>null</v>
       </c>
       <c r="F45" t="str">
+        <v>605-50-5</v>
+      </c>
+      <c r="G45" t="str">
+        <v>210-088-4</v>
+      </c>
+      <c r="H45" t="str">
         <v>Diisopentyl phthalate</v>
-      </c>
-      <c r="G45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
-      </c>
-      <c r="H45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I45" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J45" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K45" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L45" t="str">
         <v>null</v>
       </c>
       <c r="M45" t="str">
+        <v>null</v>
+      </c>
+      <c r="N45" t="str">
+        <v>null</v>
+      </c>
+      <c r="O45" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2252,7 +2522,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JBIJLHTVPXGSAM-UHFFFAOYSA-N</v>
       </c>
       <c r="B46" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C46" t="str">
         <v>null</v>
@@ -2264,27 +2534,33 @@
         <v>null</v>
       </c>
       <c r="F46" t="str">
+        <v>91-59-8</v>
+      </c>
+      <c r="G46" t="str">
+        <v>202-080-4</v>
+      </c>
+      <c r="H46" t="str">
         <v>2-naphthylamine</v>
       </c>
-      <c r="G46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
-      </c>
-      <c r="H46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
-      </c>
       <c r="I46" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J46" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K46" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="L46" t="str">
         <v>null</v>
       </c>
       <c r="M46" t="str">
+        <v>null</v>
+      </c>
+      <c r="N46" t="str">
+        <v>null</v>
+      </c>
+      <c r="O46" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2293,7 +2569,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JEYJJJXOFWNEHN-UHFFFAOYSA-N</v>
       </c>
       <c r="B47" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C47" t="str">
         <v>null</v>
@@ -2305,27 +2581,33 @@
         <v>null</v>
       </c>
       <c r="F47" t="str">
+        <v>57117-44-9</v>
+      </c>
+      <c r="G47" t="str">
+        <v>694-837-4</v>
+      </c>
+      <c r="H47" t="str">
         <v>1,2,3,6,7,8-Hexachlorodibenzofuran</v>
       </c>
-      <c r="G47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
-      <c r="H47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
       <c r="I47" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J47" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K47" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L47" t="str">
         <v>null</v>
       </c>
       <c r="M47" t="str">
+        <v>null</v>
+      </c>
+      <c r="N47" t="str">
+        <v>null</v>
+      </c>
+      <c r="O47" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2334,7 +2616,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JGTNAGYHADQMCM-UHFFFAOYSA-N</v>
       </c>
       <c r="B48" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C48" t="str">
         <v>null</v>
@@ -2346,27 +2628,33 @@
         <v>null</v>
       </c>
       <c r="F48" t="str">
+        <v>375-73-5</v>
+      </c>
+      <c r="G48" t="str">
+        <v>206-793-1</v>
+      </c>
+      <c r="H48" t="str">
         <v>1,1,2,2,3,3,4,4,4-nonafluorobutane-1-sulphonic acid</v>
-      </c>
-      <c r="G48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
-      </c>
-      <c r="H48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I48" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J48" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K48" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L48" t="str">
         <v>null</v>
       </c>
       <c r="M48" t="str">
+        <v>null</v>
+      </c>
+      <c r="N48" t="str">
+        <v>null</v>
+      </c>
+      <c r="O48" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2375,7 +2663,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JSFITYFUKSFPBZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B49" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C49" t="str">
         <v>null</v>
@@ -2387,27 +2675,33 @@
         <v>null</v>
       </c>
       <c r="F49" t="str">
+        <v>84852-15-3</v>
+      </c>
+      <c r="G49" t="str">
+        <v>284-325-5</v>
+      </c>
+      <c r="H49" t="str">
         <v>Phenol, 4-nonyl-, branched</v>
-      </c>
-      <c r="G49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
-      </c>
-      <c r="H49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="I49" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="J49" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="K49" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="L49" t="str">
         <v>null</v>
       </c>
       <c r="M49" t="str">
+        <v>null</v>
+      </c>
+      <c r="N49" t="str">
+        <v>null</v>
+      </c>
+      <c r="O49" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2416,7 +2710,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/JVZREVRTMWNFME-UHFFFAOYSA-N</v>
       </c>
       <c r="B50" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C50" t="str">
         <v>null</v>
@@ -2428,27 +2722,33 @@
         <v>null</v>
       </c>
       <c r="F50" t="str">
+        <v>375-85-9</v>
+      </c>
+      <c r="G50" t="str">
+        <v>206-798-9</v>
+      </c>
+      <c r="H50" t="str">
         <v>Perfluoroheptanoic acid; tridecafluoroheptanoic acid</v>
-      </c>
-      <c r="G50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
-      </c>
-      <c r="H50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I50" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J50" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K50" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L50" t="str">
         <v>null</v>
       </c>
       <c r="M50" t="str">
+        <v>null</v>
+      </c>
+      <c r="N50" t="str">
+        <v>null</v>
+      </c>
+      <c r="O50" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2457,7 +2757,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAATUXNTWXVJKI-UHFFFAOYSA-N</v>
       </c>
       <c r="B51" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C51" t="str">
         <v>null</v>
@@ -2469,27 +2769,33 @@
         <v>null</v>
       </c>
       <c r="F51" t="str">
+        <v>52315-07-8</v>
+      </c>
+      <c r="G51" t="str">
+        <v>257-842-9</v>
+      </c>
+      <c r="H51" t="str">
         <v>Cypermethrin;zeta-Cypermethrin</v>
       </c>
-      <c r="G51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
-      <c r="H51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
       <c r="I51" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J51" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K51" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L51" t="str">
         <v>null</v>
       </c>
       <c r="M51" t="str">
+        <v>null</v>
+      </c>
+      <c r="N51" t="str">
+        <v>null</v>
+      </c>
+      <c r="O51" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2498,7 +2804,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KAKZBPTYRLMSJV-UHFFFAOYSA-N</v>
       </c>
       <c r="B52" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C52" t="str">
         <v>null</v>
@@ -2510,27 +2816,33 @@
         <v>null</v>
       </c>
       <c r="F52" t="str">
+        <v>106-99-0</v>
+      </c>
+      <c r="G52" t="str">
+        <v>203-450-8</v>
+      </c>
+      <c r="H52" t="str">
         <v>1,3-butadiene|buta-1,3-diene</v>
       </c>
-      <c r="G52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
-      </c>
-      <c r="H52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
-      </c>
       <c r="I52" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J52" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K52" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="L52" t="str">
         <v>null</v>
       </c>
       <c r="M52" t="str">
+        <v>null</v>
+      </c>
+      <c r="N52" t="str">
+        <v>null</v>
+      </c>
+      <c r="O52" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2539,7 +2851,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXMKQUNVWSEMD-UHFFFAOYSA-N</v>
       </c>
       <c r="B53" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C53" t="str">
         <v>null</v>
@@ -2551,27 +2863,33 @@
         <v>null</v>
       </c>
       <c r="F53" t="str">
+        <v>100-44-7</v>
+      </c>
+      <c r="G53" t="str">
+        <v>202-853-6</v>
+      </c>
+      <c r="H53" t="str">
         <v>benzyl chloride|α-chlorotoluene</v>
       </c>
-      <c r="G53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
-      </c>
-      <c r="H53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
-      </c>
       <c r="I53" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J53" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K53" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="L53" t="str">
         <v>null</v>
       </c>
       <c r="M53" t="str">
+        <v>null</v>
+      </c>
+      <c r="N53" t="str">
+        <v>null</v>
+      </c>
+      <c r="O53" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2580,7 +2898,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KCXZNSGUUQJJTR-UHFFFAOYSA-N</v>
       </c>
       <c r="B54" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C54" t="str">
         <v>null</v>
@@ -2592,27 +2910,33 @@
         <v>null</v>
       </c>
       <c r="F54" t="str">
+        <v>84-75-3</v>
+      </c>
+      <c r="G54" t="str">
+        <v>201-559-5</v>
+      </c>
+      <c r="H54" t="str">
         <v>Dihexyl phthalate</v>
-      </c>
-      <c r="G54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
-      </c>
-      <c r="H54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I54" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J54" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K54" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L54" t="str">
         <v>null</v>
       </c>
       <c r="M54" t="str">
+        <v>null</v>
+      </c>
+      <c r="N54" t="str">
+        <v>null</v>
+      </c>
+      <c r="O54" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2621,7 +2945,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KFUSEUYYWQURPO-OWOJBTEDSA-N</v>
       </c>
       <c r="B55" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C55" t="str">
         <v>null</v>
@@ -2633,27 +2957,33 @@
         <v>null</v>
       </c>
       <c r="F55" t="str">
+        <v>156-60-5</v>
+      </c>
+      <c r="G55" t="str">
+        <v>205-860-2</v>
+      </c>
+      <c r="H55" t="str">
         <v>trans-dichloroethylene</v>
       </c>
-      <c r="G55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
-      <c r="H55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
       <c r="I55" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J55" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K55" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L55" t="str">
         <v>null</v>
       </c>
       <c r="M55" t="str">
+        <v>null</v>
+      </c>
+      <c r="N55" t="str">
+        <v>null</v>
+      </c>
+      <c r="O55" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2662,7 +2992,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KNKRKFALVUDBJE-UHFFFAOYSA-N</v>
       </c>
       <c r="B56" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C56" t="str">
         <v>null</v>
@@ -2674,27 +3004,33 @@
         <v>null</v>
       </c>
       <c r="F56" t="str">
+        <v>78-87-5</v>
+      </c>
+      <c r="G56" t="str">
+        <v>201-152-2</v>
+      </c>
+      <c r="H56" t="str">
         <v>1,2-dichloropropane|propylene dichloride</v>
       </c>
-      <c r="G56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
-      </c>
-      <c r="H56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
-      </c>
       <c r="I56" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J56" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K56" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="L56" t="str">
         <v>null</v>
       </c>
       <c r="M56" t="str">
+        <v>null</v>
+      </c>
+      <c r="N56" t="str">
+        <v>null</v>
+      </c>
+      <c r="O56" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2703,7 +3039,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/KSMVNVHUTQZITP-UHFFFAOYSA-N</v>
       </c>
       <c r="B57" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C57" t="str">
         <v>null</v>
@@ -2715,27 +3051,33 @@
         <v>null</v>
       </c>
       <c r="F57" t="str">
+        <v>51207-31-9</v>
+      </c>
+      <c r="G57" t="str">
+        <v>694-829-0</v>
+      </c>
+      <c r="H57" t="str">
         <v>2,3,7,8-Tetrachlorodibenzofuran</v>
       </c>
-      <c r="G57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
-      <c r="H57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
       <c r="I57" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J57" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K57" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L57" t="str">
         <v>null</v>
       </c>
       <c r="M57" t="str">
+        <v>null</v>
+      </c>
+      <c r="N57" t="str">
+        <v>null</v>
+      </c>
+      <c r="O57" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2744,7 +3086,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGIRBUBHIWTVCK-UHFFFAOYSA-N</v>
       </c>
       <c r="B58" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C58" t="str">
         <v>null</v>
@@ -2756,27 +3098,33 @@
         <v>null</v>
       </c>
       <c r="F58" t="str">
+        <v>19408-74-3</v>
+      </c>
+      <c r="G58" t="str">
+        <v>694-810-7</v>
+      </c>
+      <c r="H58" t="str">
         <v>1,2,3,7,8,9-Hexachlorodibenzo-p-dioxin</v>
       </c>
-      <c r="G58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
-      <c r="H58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
       <c r="I58" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J58" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K58" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L58" t="str">
         <v>null</v>
       </c>
       <c r="M58" t="str">
+        <v>null</v>
+      </c>
+      <c r="N58" t="str">
+        <v>null</v>
+      </c>
+      <c r="O58" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2785,7 +3133,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LGXVIGDEPROXKC-UHFFFAOYSA-N</v>
       </c>
       <c r="B59" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C59" t="str">
         <v>null</v>
@@ -2797,27 +3145,33 @@
         <v>null</v>
       </c>
       <c r="F59" t="str">
+        <v>75-35-4</v>
+      </c>
+      <c r="G59" t="str">
+        <v>200-864-0</v>
+      </c>
+      <c r="H59" t="str">
         <v>1,1-Dichloroethene</v>
       </c>
-      <c r="G59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
-      <c r="H59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
       <c r="I59" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J59" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K59" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L59" t="str">
         <v>null</v>
       </c>
       <c r="M59" t="str">
+        <v>null</v>
+      </c>
+      <c r="N59" t="str">
+        <v>null</v>
+      </c>
+      <c r="O59" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2826,7 +3180,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LHRCREOYAASXPZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B60" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C60" t="str">
         <v>null</v>
@@ -2838,27 +3192,33 @@
         <v>null</v>
       </c>
       <c r="F60" t="str">
+        <v>53-70-3</v>
+      </c>
+      <c r="G60" t="str">
+        <v>200-181-8</v>
+      </c>
+      <c r="H60" t="str">
         <v>Dibenzo[a,h]anthracene (DBAhA)</v>
       </c>
-      <c r="G60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
-      </c>
-      <c r="H60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
-      </c>
       <c r="I60" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="J60" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="K60" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification</v>
       </c>
       <c r="L60" t="str">
         <v>null</v>
       </c>
       <c r="M60" t="str">
+        <v>null</v>
+      </c>
+      <c r="N60" t="str">
+        <v>null</v>
+      </c>
+      <c r="O60" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2867,7 +3227,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVDGGZAZAYHXEY-UHFFFAOYSA-N</v>
       </c>
       <c r="B61" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C61" t="str">
         <v>null</v>
@@ -2879,27 +3239,33 @@
         <v>null</v>
       </c>
       <c r="F61" t="str">
+        <v>72629-94-8</v>
+      </c>
+      <c r="G61" t="str">
+        <v>276-745-2</v>
+      </c>
+      <c r="H61" t="str">
         <v>Pentacosafluorotridecanoic acid</v>
-      </c>
-      <c r="G61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
-      </c>
-      <c r="H61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I61" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J61" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K61" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L61" t="str">
         <v>null</v>
       </c>
       <c r="M61" t="str">
+        <v>null</v>
+      </c>
+      <c r="N61" t="str">
+        <v>null</v>
+      </c>
+      <c r="O61" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2908,7 +3274,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/LVYBAQIVPKCOEE-UHFFFAOYSA-N</v>
       </c>
       <c r="B62" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C62" t="str">
         <v>null</v>
@@ -2920,27 +3286,33 @@
         <v>null</v>
       </c>
       <c r="F62" t="str">
+        <v>70648-26-9</v>
+      </c>
+      <c r="G62" t="str">
+        <v>694-812-8</v>
+      </c>
+      <c r="H62" t="str">
         <v>1,2,3,4,7,8-Hexachlorodibenzofuran</v>
       </c>
-      <c r="G62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
-      <c r="H62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
       <c r="I62" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J62" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K62" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L62" t="str">
         <v>null</v>
       </c>
       <c r="M62" t="str">
+        <v>null</v>
+      </c>
+      <c r="N62" t="str">
+        <v>null</v>
+      </c>
+      <c r="O62" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2949,7 +3321,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MGWAVDBGNNKXQV-UHFFFAOYSA-N</v>
       </c>
       <c r="B63" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C63" t="str">
         <v>null</v>
@@ -2961,27 +3333,33 @@
         <v>null</v>
       </c>
       <c r="F63" t="str">
+        <v>84-69-5</v>
+      </c>
+      <c r="G63" t="str">
+        <v>201-553-2</v>
+      </c>
+      <c r="H63" t="str">
         <v>Diisobutyl phthalate</v>
-      </c>
-      <c r="G63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
-      </c>
-      <c r="H63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="I63" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="J63" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="K63" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/c_l_harmonized_classification|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list|https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/edlists_org_list_i</v>
       </c>
       <c r="L63" t="str">
         <v>null</v>
       </c>
       <c r="M63" t="str">
+        <v>null</v>
+      </c>
+      <c r="N63" t="str">
+        <v>null</v>
+      </c>
+      <c r="O63" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2990,7 +3368,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MQIUGAXCHLFZKX-UHFFFAOYSA-N</v>
       </c>
       <c r="B64" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C64" t="str">
         <v>null</v>
@@ -3002,27 +3380,33 @@
         <v>null</v>
       </c>
       <c r="F64" t="str">
+        <v>117-84-0</v>
+      </c>
+      <c r="G64" t="str">
+        <v>204-214-7</v>
+      </c>
+      <c r="H64" t="str">
         <v>Di-n-octyl phthalate (DNOP)</v>
       </c>
-      <c r="G64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
-      <c r="H64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
       <c r="I64" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J64" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K64" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L64" t="str">
         <v>null</v>
       </c>
       <c r="M64" t="str">
+        <v>null</v>
+      </c>
+      <c r="N64" t="str">
+        <v>null</v>
+      </c>
+      <c r="O64" t="str">
         <v>null</v>
       </c>
     </row>
@@ -3031,7 +3415,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MVPPADPHJFYWMZ-UHFFFAOYSA-N</v>
       </c>
       <c r="B65" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C65" t="str">
         <v>null</v>
@@ -3043,27 +3427,33 @@
         <v>null</v>
       </c>
       <c r="F65" t="str">
+        <v>108-90-7</v>
+      </c>
+      <c r="G65" t="str">
+        <v>203-628-5</v>
+      </c>
+      <c r="H65" t="str">
         <v>Chlorobenzene</v>
       </c>
-      <c r="G65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
-      <c r="H65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
-      </c>
       <c r="I65" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="J65" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="K65" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/eigen</v>
       </c>
       <c r="L65" t="str">
         <v>null</v>
       </c>
       <c r="M65" t="str">
+        <v>null</v>
+      </c>
+      <c r="N65" t="str">
+        <v>null</v>
+      </c>
+      <c r="O65" t="str">
         <v>null</v>
       </c>
     </row>
@@ -3072,7 +3462,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MWPLVEDNUUSJAV-UHFFFAOYSA-N</v>
       </c>
       <c r="B66" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C66" t="str">
         <v>null</v>
@@ -3084,27 +3474,33 @@
         <v>null</v>
       </c>
       <c r="F66" t="str">
+        <v>120-12-7</v>
+      </c>
+      <c r="G66" t="str">
+        <v>204-371-1</v>
+      </c>
+      <c r="H66" t="str">
         <v>Anthracene</v>
-      </c>
-      <c r="G66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
-      </c>
-      <c r="H66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="I66" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="J66" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="K66" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/zorgwekkende_stof/reach_svhcc_candidate_list</v>
       </c>
       <c r="L66" t="str">
         <v>null</v>
       </c>
       <c r="M66" t="str">
+        <v>null</v>
+      </c>
+      <c r="N66" t="str">
+        <v>null</v>
+      </c>
+      <c r="O66" t="str">
         <v>null</v>
       </c>
     </row>
@@ -3113,7 +3509,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/chemische_stof/MXWJVTOOROXGIU-UHFFFAOYSA-N</v>
       </c>
       <c r="B67" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://dbpedia.org/ontology/Biomolecule|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
